--- a/MarriageRecorder.xlsx
+++ b/MarriageRecorder.xlsx
@@ -12,8 +12,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.0" hidden="1">列表!$B$3:$B$200</definedName>
-    <definedName name="_xlchart.1" hidden="1">列表!$B$3:$B$200</definedName>
-    <definedName name="_xlchart.2" hidden="1">列表!$B$3:$B$200</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="207">
   <si>
     <t>舰 ID</t>
   </si>
@@ -637,6 +635,82 @@
   <si>
     <t>皋月改二</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霰改二</t>
+  </si>
+  <si>
+    <t>霰改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神鹰改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋津丸改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙凤改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤翔改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪风改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初霜改二</t>
+  </si>
+  <si>
+    <t>初霜改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nelson改</t>
+  </si>
+  <si>
+    <t>Nelson改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gotland改</t>
+  </si>
+  <si>
+    <t>Gotland改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村雨改二</t>
+  </si>
+  <si>
+    <t>村雨改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪風改</t>
+  </si>
+  <si>
+    <t>Commandant Teste改</t>
+  </si>
+  <si>
+    <t>龍鳳改</t>
+  </si>
+  <si>
+    <t>鳳翔改</t>
+  </si>
+  <si>
+    <t>あきつ丸改</t>
+  </si>
+  <si>
+    <t>揚陸艦</t>
+  </si>
+  <si>
+    <t>神鷹改二</t>
   </si>
 </sst>
 </file>
@@ -646,7 +720,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,7 +830,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.2</cx:f>
+        <cx:f>_xlchart.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1304,9 +1378,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>397249</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>153521</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
@@ -1629,13 +1703,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="11.125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
@@ -1650,7 +1724,7 @@
     <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="20.25">
       <c r="A1" s="12" t="s">
         <v>168</v>
       </c>
@@ -1671,7 +1745,7 @@
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="3" t="s">
         <v>167</v>
       </c>
@@ -1726,7 +1800,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1779,7 +1853,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="3" customFormat="1">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1836,7 +1910,7 @@
       <c r="U4"/>
       <c r="V4"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="3" customFormat="1">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1889,7 +1963,7 @@
       <c r="U5"/>
       <c r="V5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1931,7 +2005,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1975,7 +2049,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -2023,7 +2097,7 @@
       </c>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2043,18 +2117,21 @@
         <v>32</v>
       </c>
       <c r="G9" s="1">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1">
         <v>14</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
         <v>6</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
       </c>
       <c r="N9" s="1">
         <v>7</v>
@@ -2067,7 +2144,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -2109,7 +2186,7 @@
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2153,7 +2230,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -2198,7 +2275,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2240,7 +2317,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -2282,7 +2359,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2324,7 +2401,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -2366,7 +2443,7 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2408,7 +2485,7 @@
       </c>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -2452,7 +2529,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2494,7 +2571,7 @@
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -2538,7 +2615,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2580,7 +2657,7 @@
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -2622,7 +2699,7 @@
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2666,7 +2743,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -2710,7 +2787,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2752,7 +2829,7 @@
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -2794,7 +2871,7 @@
       </c>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2836,7 +2913,7 @@
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -2878,7 +2955,7 @@
       </c>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2920,7 +2997,7 @@
       </c>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -2964,7 +3041,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3006,7 +3083,7 @@
       </c>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -3053,7 +3130,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3097,7 +3174,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -3139,7 +3216,7 @@
       </c>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3181,7 +3258,7 @@
       </c>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -3223,7 +3300,7 @@
       </c>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3270,7 +3347,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -3314,7 +3391,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3358,7 +3435,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -3400,7 +3477,7 @@
       </c>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3442,7 +3519,7 @@
       </c>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -3486,7 +3563,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3530,7 +3607,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -3574,7 +3651,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3616,7 +3693,7 @@
       </c>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -3658,7 +3735,7 @@
       </c>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3700,7 +3777,7 @@
       </c>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -3742,7 +3819,7 @@
       </c>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3784,7 +3861,7 @@
       </c>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -3826,7 +3903,7 @@
       </c>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3876,7 +3953,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -3920,7 +3997,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3964,7 +4041,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -4006,7 +4083,7 @@
       </c>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4050,7 +4127,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -4094,7 +4171,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4136,7 +4213,7 @@
       </c>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17">
       <c r="A58" s="7">
         <v>56</v>
       </c>
@@ -4178,7 +4255,7 @@
       </c>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4222,7 +4299,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -4264,7 +4341,7 @@
       </c>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4306,7 +4383,7 @@
       </c>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -4350,7 +4427,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4392,7 +4469,7 @@
       </c>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17">
       <c r="A64" s="7">
         <v>62</v>
       </c>
@@ -4434,7 +4511,7 @@
       </c>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4476,7 +4553,7 @@
       </c>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17">
       <c r="A66" s="7">
         <v>64</v>
       </c>
@@ -4521,7 +4598,7 @@
       </c>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4565,7 +4642,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17">
       <c r="A68" s="7">
         <v>66</v>
       </c>
@@ -4609,7 +4686,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4651,7 +4728,7 @@
       </c>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17">
       <c r="A70" s="7">
         <v>68</v>
       </c>
@@ -4693,7 +4770,7 @@
       </c>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4735,7 +4812,7 @@
       </c>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17">
       <c r="A72" s="7">
         <v>70</v>
       </c>
@@ -4779,7 +4856,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4821,7 +4898,7 @@
       </c>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17">
       <c r="A74" s="7">
         <v>72</v>
       </c>
@@ -4863,7 +4940,7 @@
       </c>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4905,7 +4982,7 @@
       </c>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17">
       <c r="A76" s="7">
         <v>74</v>
       </c>
@@ -4947,7 +5024,7 @@
       </c>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4989,7 +5066,7 @@
       </c>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17">
       <c r="A78" s="7">
         <v>76</v>
       </c>
@@ -5036,7 +5113,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5078,7 +5155,7 @@
       </c>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17">
       <c r="A80" s="7">
         <v>78</v>
       </c>
@@ -5120,7 +5197,7 @@
       </c>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5162,7 +5239,7 @@
       </c>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17">
       <c r="A82" s="7">
         <v>80</v>
       </c>
@@ -5204,7 +5281,7 @@
       </c>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5246,7 +5323,7 @@
       </c>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17">
       <c r="A84" s="7">
         <v>82</v>
       </c>
@@ -5288,7 +5365,7 @@
       </c>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5330,7 +5407,7 @@
       </c>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17">
       <c r="A86" s="7">
         <v>84</v>
       </c>
@@ -5372,7 +5449,7 @@
       </c>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5414,7 +5491,7 @@
       </c>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17">
       <c r="A88" s="7">
         <v>86</v>
       </c>
@@ -5456,7 +5533,7 @@
       </c>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5498,7 +5575,7 @@
       </c>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17">
       <c r="A90" s="7">
         <v>88</v>
       </c>
@@ -5540,7 +5617,7 @@
       </c>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5582,7 +5659,7 @@
       </c>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17">
       <c r="A92" s="7">
         <v>90</v>
       </c>
@@ -5624,7 +5701,7 @@
       </c>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5666,7 +5743,7 @@
       </c>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17">
       <c r="A94" s="7">
         <v>92</v>
       </c>
@@ -5708,7 +5785,7 @@
       </c>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5750,7 +5827,7 @@
       </c>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17">
       <c r="A96" s="7">
         <v>94</v>
       </c>
@@ -5792,7 +5869,7 @@
       </c>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5834,7 +5911,7 @@
       </c>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19">
       <c r="A98" s="7">
         <v>96</v>
       </c>
@@ -5876,7 +5953,7 @@
       </c>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5902,18 +5979,18 @@
         <v>40</v>
       </c>
       <c r="I99" s="1">
-        <f t="shared" ref="I99:I130" si="9">G99-H99</f>
+        <f t="shared" ref="I99:I122" si="9">G99-H99</f>
         <v>5</v>
       </c>
       <c r="J99">
-        <f t="shared" ref="J99:J130" si="10">I99-K99-L99</f>
+        <f t="shared" ref="J99:J122" si="10">I99-K99-L99</f>
         <v>5</v>
       </c>
       <c r="N99" s="1">
         <v>9</v>
       </c>
       <c r="O99" s="1">
-        <f t="shared" ref="O99:O130" si="11">N99-P99</f>
+        <f t="shared" ref="O99:O122" si="11">N99-P99</f>
         <v>9</v>
       </c>
       <c r="Q99" s="1" t="s">
@@ -5922,7 +5999,7 @@
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19">
       <c r="A100" s="7">
         <v>98</v>
       </c>
@@ -5966,7 +6043,7 @@
       <c r="R100" s="5"/>
       <c r="S100" s="5"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6010,7 +6087,7 @@
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19">
       <c r="A102" s="7">
         <v>100</v>
       </c>
@@ -6054,7 +6131,7 @@
       <c r="R102" s="5"/>
       <c r="S102" s="5"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6098,7 +6175,7 @@
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6139,7 +6216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" s="1" customFormat="1">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6185,7 +6262,7 @@
       <c r="P105"/>
       <c r="Q105"/>
     </row>
-    <row r="106" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" s="1" customFormat="1">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6231,7 +6308,7 @@
       <c r="P106"/>
       <c r="Q106"/>
     </row>
-    <row r="107" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" s="1" customFormat="1">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6272,7 +6349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6318,7 +6395,7 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6364,7 +6441,7 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" s="1" customFormat="1">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6405,7 +6482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" s="1" customFormat="1">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6446,7 +6523,460 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:19" s="1" customFormat="1">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="11">
+        <v>43362</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2170</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="1">
+        <v>21</v>
+      </c>
+      <c r="H112" s="1">
+        <v>15</v>
+      </c>
+      <c r="I112" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="N112" s="1">
+        <v>5</v>
+      </c>
+      <c r="O112" s="1">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="5">
+        <v>43365</v>
+      </c>
+      <c r="C113" s="1">
+        <v>56056</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" s="1">
+        <v>19</v>
+      </c>
+      <c r="H113" s="1">
+        <v>15</v>
+      </c>
+      <c r="I113" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="N113" s="1">
+        <v>7</v>
+      </c>
+      <c r="O113" s="1">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="5">
+        <v>43365</v>
+      </c>
+      <c r="C114" s="1">
+        <v>8279</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G114" s="1">
+        <v>19</v>
+      </c>
+      <c r="H114" s="1">
+        <v>13</v>
+      </c>
+      <c r="I114" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="N114" s="1">
+        <v>6</v>
+      </c>
+      <c r="O114" s="1">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="5">
+        <v>43370</v>
+      </c>
+      <c r="C115" s="1">
+        <v>4432</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="1">
+        <v>30</v>
+      </c>
+      <c r="H115" s="1">
+        <v>24</v>
+      </c>
+      <c r="I115" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="N115" s="1">
+        <v>6</v>
+      </c>
+      <c r="O115" s="1">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="5">
+        <v>43371</v>
+      </c>
+      <c r="C116" s="1">
+        <v>329</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="1">
+        <v>36</v>
+      </c>
+      <c r="H116" s="1">
+        <v>30</v>
+      </c>
+      <c r="I116" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="N116" s="1">
+        <v>6</v>
+      </c>
+      <c r="O116" s="1">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="5">
+        <v>43378</v>
+      </c>
+      <c r="C117" s="10">
+        <v>1551</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" s="1">
+        <v>66</v>
+      </c>
+      <c r="H117" s="1">
+        <v>60</v>
+      </c>
+      <c r="I117" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117" s="1">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="5">
+        <v>43379</v>
+      </c>
+      <c r="C118" s="1">
+        <v>10</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" s="1">
+        <v>59</v>
+      </c>
+      <c r="H118" s="1">
+        <v>53</v>
+      </c>
+      <c r="I118" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="N118" s="1">
+        <v>5</v>
+      </c>
+      <c r="O118" s="1">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="5">
+        <v>43382</v>
+      </c>
+      <c r="C119" s="1">
+        <v>56281</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G119" s="1">
+        <v>31</v>
+      </c>
+      <c r="H119" s="1">
+        <v>28</v>
+      </c>
+      <c r="I119" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="N119">
+        <v>5</v>
+      </c>
+      <c r="O119" s="1">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="5">
+        <v>43384</v>
+      </c>
+      <c r="C120" s="1">
+        <v>56178</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="1">
+        <v>29</v>
+      </c>
+      <c r="H120" s="1">
+        <v>24</v>
+      </c>
+      <c r="I120" s="1">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="N120">
+        <v>6</v>
+      </c>
+      <c r="O120" s="1">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="5">
+        <v>43389</v>
+      </c>
+      <c r="C121" s="1">
+        <v>48</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="1">
+        <v>22</v>
+      </c>
+      <c r="H121" s="1">
+        <v>17</v>
+      </c>
+      <c r="I121" s="1">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="N121">
+        <v>5</v>
+      </c>
+      <c r="O121" s="1">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="5">
+        <v>43390</v>
+      </c>
+      <c r="C122" s="1">
+        <v>17045</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G122" s="1">
+        <v>25</v>
+      </c>
+      <c r="H122" s="1">
+        <v>20</v>
+      </c>
+      <c r="I122" s="1">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="N122">
+        <v>6</v>
+      </c>
+      <c r="O122" s="1">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A3:Q112">
     <sortCondition ref="A82"/>
@@ -6455,7 +6985,7 @@
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J2:J3 J5:J111">
+  <conditionalFormatting sqref="J2:J3 J5:J122">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6489,30 +7019,30 @@
   <dimension ref="A24:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B24" s="6">
         <f>COUNTA(列表!$C:$C)-1</f>
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B25" s="3">
         <f>COUNTIF(列表!$Q:$Q,C25)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>165</v>

--- a/MarriageRecorder.xlsx
+++ b/MarriageRecorder.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="216">
   <si>
     <t>舰 ID</t>
   </si>
@@ -711,6 +711,38 @@
   </si>
   <si>
     <t>神鷹改二</t>
+  </si>
+  <si>
+    <t>初月改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白露改二</t>
+  </si>
+  <si>
+    <t>涼月改</t>
+  </si>
+  <si>
+    <t>夕雲改二</t>
+  </si>
+  <si>
+    <t>浜風乙改</t>
+  </si>
+  <si>
+    <t>白露改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉月改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夕云改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨风乙改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1703,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V122"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1826,11 +1858,11 @@
         <v>20</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I34" si="0">G3-H3</f>
+        <f>G3-H3</f>
         <v>8</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J34" si="1">I3-K3-L3</f>
+        <f>I3-K3-L3</f>
         <v>4</v>
       </c>
       <c r="L3">
@@ -1843,7 +1875,7 @@
         <v>6</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O34" si="2">N3-P3</f>
+        <f>N3-P3</f>
         <v>5</v>
       </c>
       <c r="P3">
@@ -1879,11 +1911,11 @@
         <v>20</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
+        <f>G4-H4</f>
         <v>30</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f>I4-K4-L4</f>
         <v>6</v>
       </c>
       <c r="K4">
@@ -1897,7 +1929,7 @@
         <v>6</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="2"/>
+        <f>N4-P4</f>
         <v>6</v>
       </c>
       <c r="P4"/>
@@ -1936,11 +1968,11 @@
         <v>40</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
+        <f>G5-H5</f>
         <v>6</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f>I5-K5-L5</f>
         <v>6</v>
       </c>
       <c r="K5"/>
@@ -1950,7 +1982,7 @@
         <v>8</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="2"/>
+        <f>N5-P5</f>
         <v>8</v>
       </c>
       <c r="P5"/>
@@ -1989,18 +2021,18 @@
         <v>50</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="0"/>
+        <f>G6-H6</f>
         <v>3</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f>I6-K6-L6</f>
         <v>3</v>
       </c>
       <c r="N6" s="1">
         <v>4</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="2"/>
+        <f>N6-P6</f>
         <v>4</v>
       </c>
       <c r="Q6" s="1"/>
@@ -2031,18 +2063,18 @@
         <v>20</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
+        <f>G7-H7</f>
         <v>3</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f>I7-K7-L7</f>
         <v>3</v>
       </c>
       <c r="N7" s="1">
         <v>8</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="2"/>
+        <f>N7-P7</f>
         <v>8</v>
       </c>
       <c r="Q7" s="1" t="s">
@@ -2075,11 +2107,11 @@
         <v>37</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
+        <f>G8-H8</f>
         <v>3</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f>I8-K8-L8</f>
         <v>3</v>
       </c>
       <c r="M8">
@@ -2089,7 +2121,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="2"/>
+        <f>N8-P8</f>
         <v>5</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -2123,11 +2155,11 @@
         <v>14</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
+        <f>G9-H9</f>
         <v>28</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f>I9-K9-L9</f>
         <v>6</v>
       </c>
       <c r="K9">
@@ -2137,7 +2169,7 @@
         <v>7</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="2"/>
+        <f>N9-P9</f>
         <v>7</v>
       </c>
       <c r="Q9" s="1" t="s">
@@ -2170,18 +2202,18 @@
         <v>13</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
+        <f>G10-H10</f>
         <v>6</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f>I10-K10-L10</f>
         <v>6</v>
       </c>
       <c r="N10" s="1">
         <v>4</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="2"/>
+        <f>N10-P10</f>
         <v>4</v>
       </c>
       <c r="Q10" s="1"/>
@@ -2212,18 +2244,18 @@
         <v>50</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
+        <f>G11-H11</f>
         <v>3</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f>I11-K11-L11</f>
         <v>3</v>
       </c>
       <c r="N11" s="1">
         <v>8</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="2"/>
+        <f>N11-P11</f>
         <v>8</v>
       </c>
       <c r="Q11" s="1" t="s">
@@ -2256,11 +2288,11 @@
         <v>30</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="0"/>
+        <f>G12-H12</f>
         <v>13</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f>I12-K12-L12</f>
         <v>5</v>
       </c>
       <c r="K12">
@@ -2270,7 +2302,7 @@
         <v>6</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="2"/>
+        <f>N12-P12</f>
         <v>6</v>
       </c>
       <c r="Q12" s="1"/>
@@ -2301,18 +2333,18 @@
         <v>41</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
+        <f>G13-H13</f>
         <v>3</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f>I13-K13-L13</f>
         <v>3</v>
       </c>
       <c r="N13" s="1">
         <v>7</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="2"/>
+        <f>N13-P13</f>
         <v>7</v>
       </c>
       <c r="Q13" s="1"/>
@@ -2343,18 +2375,18 @@
         <v>25</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="0"/>
+        <f>G14-H14</f>
         <v>6</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f>I14-K14-L14</f>
         <v>6</v>
       </c>
       <c r="N14" s="1">
         <v>4</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="2"/>
+        <f>N14-P14</f>
         <v>4</v>
       </c>
       <c r="Q14" s="1"/>
@@ -2385,18 +2417,18 @@
         <v>34</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="0"/>
+        <f>G15-H15</f>
         <v>4</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f>I15-K15-L15</f>
         <v>4</v>
       </c>
       <c r="N15" s="1">
         <v>4</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="2"/>
+        <f>N15-P15</f>
         <v>4</v>
       </c>
       <c r="Q15" s="1"/>
@@ -2427,18 +2459,18 @@
         <v>15</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="0"/>
+        <f>G16-H16</f>
         <v>4</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f>I16-K16-L16</f>
         <v>4</v>
       </c>
       <c r="N16" s="1">
         <v>5</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="2"/>
+        <f>N16-P16</f>
         <v>5</v>
       </c>
       <c r="Q16" s="1"/>
@@ -2469,18 +2501,18 @@
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="0"/>
+        <f>G17-H17</f>
         <v>6</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f>I17-K17-L17</f>
         <v>6</v>
       </c>
       <c r="N17" s="1">
         <v>4</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="2"/>
+        <f>N17-P17</f>
         <v>4</v>
       </c>
       <c r="Q17" s="1"/>
@@ -2511,18 +2543,18 @@
         <v>15</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="0"/>
+        <f>G18-H18</f>
         <v>4</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f>I18-K18-L18</f>
         <v>4</v>
       </c>
       <c r="N18" s="1">
         <v>8</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="2"/>
+        <f>N18-P18</f>
         <v>8</v>
       </c>
       <c r="Q18" s="1" t="s">
@@ -2555,18 +2587,18 @@
         <v>13</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="0"/>
+        <f>G19-H19</f>
         <v>6</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f>I19-K19-L19</f>
         <v>6</v>
       </c>
       <c r="N19" s="1">
         <v>8</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="2"/>
+        <f>N19-P19</f>
         <v>8</v>
       </c>
       <c r="Q19" s="1"/>
@@ -2597,18 +2629,18 @@
         <v>41</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="0"/>
+        <f>G20-H20</f>
         <v>6</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f>I20-K20-L20</f>
         <v>6</v>
       </c>
       <c r="N20" s="1">
         <v>8</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="2"/>
+        <f>N20-P20</f>
         <v>8</v>
       </c>
       <c r="Q20" s="1" t="s">
@@ -2641,18 +2673,18 @@
         <v>14</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="0"/>
+        <f>G21-H21</f>
         <v>5</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f>I21-K21-L21</f>
         <v>5</v>
       </c>
       <c r="N21" s="1">
         <v>8</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="2"/>
+        <f>N21-P21</f>
         <v>8</v>
       </c>
       <c r="Q21" s="1"/>
@@ -2683,18 +2715,18 @@
         <v>4</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="0"/>
+        <f>G22-H22</f>
         <v>4</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f>I22-K22-L22</f>
         <v>4</v>
       </c>
       <c r="N22" s="1">
         <v>8</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="2"/>
+        <f>N22-P22</f>
         <v>8</v>
       </c>
       <c r="Q22" s="1"/>
@@ -2725,18 +2757,18 @@
         <v>20</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="0"/>
+        <f>G23-H23</f>
         <v>6</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f>I23-K23-L23</f>
         <v>6</v>
       </c>
       <c r="N23" s="1">
         <v>5</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="2"/>
+        <f>N23-P23</f>
         <v>5</v>
       </c>
       <c r="Q23" s="1" t="s">
@@ -2769,18 +2801,18 @@
         <v>22</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="0"/>
+        <f>G24-H24</f>
         <v>5</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f>I24-K24-L24</f>
         <v>5</v>
       </c>
       <c r="N24" s="1">
         <v>3</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="2"/>
+        <f>N24-P24</f>
         <v>3</v>
       </c>
       <c r="Q24" s="1" t="s">
@@ -2813,18 +2845,18 @@
         <v>20</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="0"/>
+        <f>G25-H25</f>
         <v>3</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f>I25-K25-L25</f>
         <v>3</v>
       </c>
       <c r="N25" s="1">
         <v>4</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="2"/>
+        <f>N25-P25</f>
         <v>4</v>
       </c>
       <c r="Q25" s="1"/>
@@ -2855,18 +2887,18 @@
         <v>16</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="0"/>
+        <f>G26-H26</f>
         <v>3</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f>I26-K26-L26</f>
         <v>3</v>
       </c>
       <c r="N26" s="1">
         <v>4</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="2"/>
+        <f>N26-P26</f>
         <v>4</v>
       </c>
       <c r="Q26" s="1"/>
@@ -2897,18 +2929,18 @@
         <v>13</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="0"/>
+        <f>G27-H27</f>
         <v>3</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f>I27-K27-L27</f>
         <v>3</v>
       </c>
       <c r="N27" s="1">
         <v>6</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="2"/>
+        <f>N27-P27</f>
         <v>6</v>
       </c>
       <c r="Q27" s="1"/>
@@ -2939,18 +2971,18 @@
         <v>13</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="0"/>
+        <f>G28-H28</f>
         <v>6</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f>I28-K28-L28</f>
         <v>6</v>
       </c>
       <c r="N28" s="1">
         <v>7</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="2"/>
+        <f>N28-P28</f>
         <v>7</v>
       </c>
       <c r="Q28" s="1"/>
@@ -2981,18 +3013,18 @@
         <v>14</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="0"/>
+        <f>G29-H29</f>
         <v>4</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f>I29-K29-L29</f>
         <v>4</v>
       </c>
       <c r="N29" s="1">
         <v>6</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="2"/>
+        <f>N29-P29</f>
         <v>6</v>
       </c>
       <c r="Q29" s="1"/>
@@ -3023,18 +3055,18 @@
         <v>17</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="0"/>
+        <f>G30-H30</f>
         <v>6</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f>I30-K30-L30</f>
         <v>6</v>
       </c>
       <c r="N30" s="1">
         <v>5</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="2"/>
+        <f>N30-P30</f>
         <v>5</v>
       </c>
       <c r="Q30" s="1" t="s">
@@ -3067,18 +3099,18 @@
         <v>6</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="0"/>
+        <f>G31-H31</f>
         <v>6</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f>I31-K31-L31</f>
         <v>6</v>
       </c>
       <c r="N31" s="1">
         <v>8</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="2"/>
+        <f>N31-P31</f>
         <v>8</v>
       </c>
       <c r="Q31" s="1"/>
@@ -3109,11 +3141,11 @@
         <v>50</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="0"/>
+        <f>G32-H32</f>
         <v>4</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f>I32-K32-L32</f>
         <v>4</v>
       </c>
       <c r="M32">
@@ -3123,7 +3155,7 @@
         <v>5</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="2"/>
+        <f>N32-P32</f>
         <v>5</v>
       </c>
       <c r="Q32" s="1" t="s">
@@ -3156,18 +3188,18 @@
         <v>14</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="0"/>
+        <f>G33-H33</f>
         <v>4</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f>I33-K33-L33</f>
         <v>4</v>
       </c>
       <c r="N33" s="1">
         <v>6</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="2"/>
+        <f>N33-P33</f>
         <v>6</v>
       </c>
       <c r="Q33" s="1" t="s">
@@ -3200,18 +3232,18 @@
         <v>12</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="0"/>
+        <f>G34-H34</f>
         <v>3</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f>I34-K34-L34</f>
         <v>3</v>
       </c>
       <c r="N34" s="1">
         <v>8</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="2"/>
+        <f>N34-P34</f>
         <v>8</v>
       </c>
       <c r="Q34" s="1"/>
@@ -3242,18 +3274,18 @@
         <v>13</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" ref="I35:I66" si="3">G35-H35</f>
+        <f>G35-H35</f>
         <v>4</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:J66" si="4">I35-K35-L35</f>
+        <f>I35-K35-L35</f>
         <v>4</v>
       </c>
       <c r="N35" s="1">
         <v>7</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" ref="O35:O66" si="5">N35-P35</f>
+        <f>N35-P35</f>
         <v>7</v>
       </c>
       <c r="Q35" s="1"/>
@@ -3284,18 +3316,18 @@
         <v>13</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="3"/>
+        <f>G36-H36</f>
         <v>3</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
+        <f>I36-K36-L36</f>
         <v>3</v>
       </c>
       <c r="N36" s="1">
         <v>7</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="5"/>
+        <f>N36-P36</f>
         <v>7</v>
       </c>
       <c r="Q36" s="1"/>
@@ -3326,11 +3358,11 @@
         <v>40</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="3"/>
+        <f>G37-H37</f>
         <v>11</v>
       </c>
       <c r="J37">
-        <f t="shared" si="4"/>
+        <f>I37-K37-L37</f>
         <v>3</v>
       </c>
       <c r="K37">
@@ -3340,7 +3372,7 @@
         <v>7</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="5"/>
+        <f>N37-P37</f>
         <v>7</v>
       </c>
       <c r="Q37" s="1" t="s">
@@ -3373,18 +3405,18 @@
         <v>13</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="3"/>
+        <f>G38-H38</f>
         <v>3</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
+        <f>I38-K38-L38</f>
         <v>3</v>
       </c>
       <c r="N38" s="1">
         <v>8</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="5"/>
+        <f>N38-P38</f>
         <v>8</v>
       </c>
       <c r="Q38" s="1" t="s">
@@ -3417,18 +3449,18 @@
         <v>14</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="3"/>
+        <f>G39-H39</f>
         <v>5</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
+        <f>I39-K39-L39</f>
         <v>5</v>
       </c>
       <c r="N39" s="1">
         <v>8</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="5"/>
+        <f>N39-P39</f>
         <v>8</v>
       </c>
       <c r="Q39" s="1" t="s">
@@ -3461,18 +3493,18 @@
         <v>40</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="3"/>
+        <f>G40-H40</f>
         <v>6</v>
       </c>
       <c r="J40">
-        <f t="shared" si="4"/>
+        <f>I40-K40-L40</f>
         <v>6</v>
       </c>
       <c r="N40" s="1">
         <v>8</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="5"/>
+        <f>N40-P40</f>
         <v>8</v>
       </c>
       <c r="Q40" s="1"/>
@@ -3503,18 +3535,18 @@
         <v>12</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="3"/>
+        <f>G41-H41</f>
         <v>5</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
+        <f>I41-K41-L41</f>
         <v>5</v>
       </c>
       <c r="N41" s="1">
         <v>6</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="5"/>
+        <f>N41-P41</f>
         <v>6</v>
       </c>
       <c r="Q41" s="1"/>
@@ -3545,18 +3577,18 @@
         <v>30</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="3"/>
+        <f>G42-H42</f>
         <v>6</v>
       </c>
       <c r="J42">
-        <f t="shared" si="4"/>
+        <f>I42-K42-L42</f>
         <v>6</v>
       </c>
       <c r="N42" s="1">
         <v>6</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="5"/>
+        <f>N42-P42</f>
         <v>6</v>
       </c>
       <c r="Q42" s="1" t="s">
@@ -3589,18 +3621,18 @@
         <v>8</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="3"/>
+        <f>G43-H43</f>
         <v>4</v>
       </c>
       <c r="J43">
-        <f t="shared" si="4"/>
+        <f>I43-K43-L43</f>
         <v>4</v>
       </c>
       <c r="N43" s="1">
         <v>6</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="5"/>
+        <f>N43-P43</f>
         <v>6</v>
       </c>
       <c r="Q43" s="1" t="s">
@@ -3633,18 +3665,18 @@
         <v>30</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="3"/>
+        <f>G44-H44</f>
         <v>3</v>
       </c>
       <c r="J44">
-        <f t="shared" si="4"/>
+        <f>I44-K44-L44</f>
         <v>3</v>
       </c>
       <c r="N44" s="1">
         <v>6</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="5"/>
+        <f>N44-P44</f>
         <v>6</v>
       </c>
       <c r="Q44" s="1" t="s">
@@ -3677,18 +3709,18 @@
         <v>13</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="3"/>
+        <f>G45-H45</f>
         <v>3</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
+        <f>I45-K45-L45</f>
         <v>3</v>
       </c>
       <c r="N45" s="1">
         <v>8</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="5"/>
+        <f>N45-P45</f>
         <v>8</v>
       </c>
       <c r="Q45" s="1"/>
@@ -3719,18 +3751,18 @@
         <v>70</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="3"/>
+        <f>G46-H46</f>
         <v>3</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
+        <f>I46-K46-L46</f>
         <v>3</v>
       </c>
       <c r="N46" s="1">
         <v>8</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="5"/>
+        <f>N46-P46</f>
         <v>8</v>
       </c>
       <c r="Q46" s="1"/>
@@ -3761,18 +3793,18 @@
         <v>12</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="3"/>
+        <f>G47-H47</f>
         <v>5</v>
       </c>
       <c r="J47">
-        <f t="shared" si="4"/>
+        <f>I47-K47-L47</f>
         <v>5</v>
       </c>
       <c r="N47" s="1">
         <v>8</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="5"/>
+        <f>N47-P47</f>
         <v>8</v>
       </c>
       <c r="Q47" s="1"/>
@@ -3803,18 +3835,18 @@
         <v>19</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="3"/>
+        <f>G48-H48</f>
         <v>6</v>
       </c>
       <c r="J48">
-        <f t="shared" si="4"/>
+        <f>I48-K48-L48</f>
         <v>6</v>
       </c>
       <c r="N48" s="1">
         <v>7</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="5"/>
+        <f>N48-P48</f>
         <v>7</v>
       </c>
       <c r="Q48" s="1"/>
@@ -3845,18 +3877,18 @@
         <v>24</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="3"/>
+        <f>G49-H49</f>
         <v>3</v>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
+        <f>I49-K49-L49</f>
         <v>3</v>
       </c>
       <c r="N49" s="1">
         <v>8</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="5"/>
+        <f>N49-P49</f>
         <v>8</v>
       </c>
       <c r="Q49" s="1"/>
@@ -3887,18 +3919,18 @@
         <v>17</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="3"/>
+        <f>G50-H50</f>
         <v>4</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
+        <f>I50-K50-L50</f>
         <v>4</v>
       </c>
       <c r="N50" s="1">
         <v>7</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="5"/>
+        <f>N50-P50</f>
         <v>7</v>
       </c>
       <c r="Q50" s="1"/>
@@ -3929,11 +3961,11 @@
         <v>40</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="3"/>
+        <f>G51-H51</f>
         <v>12</v>
       </c>
       <c r="J51">
-        <f t="shared" si="4"/>
+        <f>I51-K51-L51</f>
         <v>4</v>
       </c>
       <c r="K51">
@@ -3946,7 +3978,7 @@
         <v>5</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="5"/>
+        <f>N51-P51</f>
         <v>5</v>
       </c>
       <c r="Q51" s="1" t="s">
@@ -3979,18 +4011,18 @@
         <v>16</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="3"/>
+        <f>G52-H52</f>
         <v>6</v>
       </c>
       <c r="J52">
-        <f t="shared" si="4"/>
+        <f>I52-K52-L52</f>
         <v>6</v>
       </c>
       <c r="N52" s="1">
         <v>6</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="5"/>
+        <f>N52-P52</f>
         <v>6</v>
       </c>
       <c r="Q52" s="1" t="s">
@@ -4023,18 +4055,18 @@
         <v>13</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="3"/>
+        <f>G53-H53</f>
         <v>3</v>
       </c>
       <c r="J53">
-        <f t="shared" si="4"/>
+        <f>I53-K53-L53</f>
         <v>3</v>
       </c>
       <c r="N53" s="1">
         <v>9</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="5"/>
+        <f>N53-P53</f>
         <v>9</v>
       </c>
       <c r="Q53" s="1" t="s">
@@ -4067,18 +4099,18 @@
         <v>44</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="3"/>
+        <f>G54-H54</f>
         <v>5</v>
       </c>
       <c r="J54">
-        <f t="shared" si="4"/>
+        <f>I54-K54-L54</f>
         <v>5</v>
       </c>
       <c r="N54" s="1">
         <v>4</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="5"/>
+        <f>N54-P54</f>
         <v>4</v>
       </c>
       <c r="Q54" s="1"/>
@@ -4109,18 +4141,18 @@
         <v>11</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="3"/>
+        <f>G55-H55</f>
         <v>4</v>
       </c>
       <c r="J55">
-        <f t="shared" si="4"/>
+        <f>I55-K55-L55</f>
         <v>4</v>
       </c>
       <c r="N55" s="1">
         <v>5</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="5"/>
+        <f>N55-P55</f>
         <v>5</v>
       </c>
       <c r="Q55" s="1" t="s">
@@ -4153,18 +4185,18 @@
         <v>40</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="3"/>
+        <f>G56-H56</f>
         <v>6</v>
       </c>
       <c r="J56">
-        <f t="shared" si="4"/>
+        <f>I56-K56-L56</f>
         <v>6</v>
       </c>
       <c r="N56" s="1">
         <v>8</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="5"/>
+        <f>N56-P56</f>
         <v>8</v>
       </c>
       <c r="Q56" s="1" t="s">
@@ -4197,18 +4229,18 @@
         <v>30</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="3"/>
+        <f>G57-H57</f>
         <v>5</v>
       </c>
       <c r="J57">
-        <f t="shared" si="4"/>
+        <f>I57-K57-L57</f>
         <v>5</v>
       </c>
       <c r="N57" s="1">
         <v>8</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="5"/>
+        <f>N57-P57</f>
         <v>8</v>
       </c>
       <c r="Q57" s="1"/>
@@ -4239,18 +4271,18 @@
         <v>13</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="3"/>
+        <f>G58-H58</f>
         <v>5</v>
       </c>
       <c r="J58">
-        <f t="shared" si="4"/>
+        <f>I58-K58-L58</f>
         <v>5</v>
       </c>
       <c r="N58" s="1">
         <v>6</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="5"/>
+        <f>N58-P58</f>
         <v>6</v>
       </c>
       <c r="Q58" s="1"/>
@@ -4281,18 +4313,18 @@
         <v>10</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="3"/>
+        <f>G59-H59</f>
         <v>5</v>
       </c>
       <c r="J59">
-        <f t="shared" si="4"/>
+        <f>I59-K59-L59</f>
         <v>5</v>
       </c>
       <c r="N59" s="1">
         <v>7</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="5"/>
+        <f>N59-P59</f>
         <v>7</v>
       </c>
       <c r="Q59" s="1" t="s">
@@ -4325,18 +4357,18 @@
         <v>12</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="3"/>
+        <f>G60-H60</f>
         <v>6</v>
       </c>
       <c r="J60">
-        <f t="shared" si="4"/>
+        <f>I60-K60-L60</f>
         <v>6</v>
       </c>
       <c r="N60" s="1">
         <v>7</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="5"/>
+        <f>N60-P60</f>
         <v>7</v>
       </c>
       <c r="Q60" s="1"/>
@@ -4367,18 +4399,18 @@
         <v>40</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="3"/>
+        <f>G61-H61</f>
         <v>5</v>
       </c>
       <c r="J61">
-        <f t="shared" si="4"/>
+        <f>I61-K61-L61</f>
         <v>5</v>
       </c>
       <c r="N61" s="1">
         <v>4</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="5"/>
+        <f>N61-P61</f>
         <v>4</v>
       </c>
       <c r="Q61" s="1"/>
@@ -4409,18 +4441,18 @@
         <v>10</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="3"/>
+        <f>G62-H62</f>
         <v>4</v>
       </c>
       <c r="J62">
-        <f t="shared" si="4"/>
+        <f>I62-K62-L62</f>
         <v>4</v>
       </c>
       <c r="N62" s="1">
         <v>9</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="5"/>
+        <f>N62-P62</f>
         <v>9</v>
       </c>
       <c r="Q62" s="1" t="s">
@@ -4453,18 +4485,18 @@
         <v>35</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="3"/>
+        <f>G63-H63</f>
         <v>3</v>
       </c>
       <c r="J63">
-        <f t="shared" si="4"/>
+        <f>I63-K63-L63</f>
         <v>3</v>
       </c>
       <c r="N63" s="1">
         <v>8</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="5"/>
+        <f>N63-P63</f>
         <v>8</v>
       </c>
       <c r="Q63" s="1"/>
@@ -4495,18 +4527,18 @@
         <v>8</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="3"/>
+        <f>G64-H64</f>
         <v>6</v>
       </c>
       <c r="J64">
-        <f t="shared" si="4"/>
+        <f>I64-K64-L64</f>
         <v>6</v>
       </c>
       <c r="N64" s="1">
         <v>4</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="5"/>
+        <f>N64-P64</f>
         <v>4</v>
       </c>
       <c r="Q64" s="1"/>
@@ -4537,18 +4569,18 @@
         <v>24</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="3"/>
+        <f>G65-H65</f>
         <v>5</v>
       </c>
       <c r="J65">
-        <f t="shared" si="4"/>
+        <f>I65-K65-L65</f>
         <v>5</v>
       </c>
       <c r="N65" s="1">
         <v>4</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="5"/>
+        <f>N65-P65</f>
         <v>4</v>
       </c>
       <c r="Q65" s="1"/>
@@ -4579,11 +4611,11 @@
         <v>42</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="3"/>
+        <f>G66-H66</f>
         <v>6</v>
       </c>
       <c r="J66">
-        <f t="shared" si="4"/>
+        <f>I66-K66-L66</f>
         <v>6</v>
       </c>
       <c r="M66">
@@ -4593,7 +4625,7 @@
         <v>7</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="5"/>
+        <f>N66-P66</f>
         <v>7</v>
       </c>
       <c r="Q66" s="1"/>
@@ -4624,18 +4656,18 @@
         <v>13</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" ref="I67:I98" si="6">G67-H67</f>
+        <f>G67-H67</f>
         <v>3</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J98" si="7">I67-K67-L67</f>
+        <f>I67-K67-L67</f>
         <v>3</v>
       </c>
       <c r="N67" s="1">
         <v>7</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" ref="O67:O98" si="8">N67-P67</f>
+        <f>N67-P67</f>
         <v>7</v>
       </c>
       <c r="Q67" s="1" t="s">
@@ -4668,18 +4700,18 @@
         <v>12</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="6"/>
+        <f>G68-H68</f>
         <v>4</v>
       </c>
       <c r="J68">
-        <f t="shared" si="7"/>
+        <f>I68-K68-L68</f>
         <v>4</v>
       </c>
       <c r="N68" s="1">
         <v>7</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="8"/>
+        <f>N68-P68</f>
         <v>7</v>
       </c>
       <c r="Q68" s="1" t="s">
@@ -4712,18 +4744,18 @@
         <v>15</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="6"/>
+        <f>G69-H69</f>
         <v>3</v>
       </c>
       <c r="J69">
-        <f t="shared" si="7"/>
+        <f>I69-K69-L69</f>
         <v>3</v>
       </c>
       <c r="N69" s="1">
         <v>7</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="8"/>
+        <f>N69-P69</f>
         <v>7</v>
       </c>
       <c r="Q69" s="1"/>
@@ -4754,18 +4786,18 @@
         <v>55</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" si="6"/>
+        <f>G70-H70</f>
         <v>4</v>
       </c>
       <c r="J70">
-        <f t="shared" si="7"/>
+        <f>I70-K70-L70</f>
         <v>4</v>
       </c>
       <c r="N70" s="1">
         <v>5</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="8"/>
+        <f>N70-P70</f>
         <v>5</v>
       </c>
       <c r="Q70" s="1"/>
@@ -4796,18 +4828,18 @@
         <v>19</v>
       </c>
       <c r="I71" s="1">
-        <f t="shared" si="6"/>
+        <f>G71-H71</f>
         <v>4</v>
       </c>
       <c r="J71">
-        <f t="shared" si="7"/>
+        <f>I71-K71-L71</f>
         <v>4</v>
       </c>
       <c r="N71" s="1">
         <v>4</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" si="8"/>
+        <f>N71-P71</f>
         <v>4</v>
       </c>
       <c r="Q71" s="1"/>
@@ -4838,18 +4870,18 @@
         <v>15</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="6"/>
+        <f>G72-H72</f>
         <v>6</v>
       </c>
       <c r="J72">
-        <f t="shared" si="7"/>
+        <f>I72-K72-L72</f>
         <v>6</v>
       </c>
       <c r="N72" s="1">
         <v>7</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="8"/>
+        <f>N72-P72</f>
         <v>7</v>
       </c>
       <c r="Q72" s="1" t="s">
@@ -4882,18 +4914,18 @@
         <v>14</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" si="6"/>
+        <f>G73-H73</f>
         <v>5</v>
       </c>
       <c r="J73">
-        <f t="shared" si="7"/>
+        <f>I73-K73-L73</f>
         <v>5</v>
       </c>
       <c r="N73" s="1">
         <v>7</v>
       </c>
       <c r="O73" s="1">
-        <f t="shared" si="8"/>
+        <f>N73-P73</f>
         <v>7</v>
       </c>
       <c r="Q73" s="1"/>
@@ -4924,18 +4956,18 @@
         <v>42</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="6"/>
+        <f>G74-H74</f>
         <v>5</v>
       </c>
       <c r="J74">
-        <f t="shared" si="7"/>
+        <f>I74-K74-L74</f>
         <v>5</v>
       </c>
       <c r="N74" s="1">
         <v>7</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="8"/>
+        <f>N74-P74</f>
         <v>7</v>
       </c>
       <c r="Q74" s="1"/>
@@ -4966,18 +4998,18 @@
         <v>50</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="6"/>
+        <f>G75-H75</f>
         <v>3</v>
       </c>
       <c r="J75">
-        <f t="shared" si="7"/>
+        <f>I75-K75-L75</f>
         <v>3</v>
       </c>
       <c r="N75" s="1">
         <v>7</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="8"/>
+        <f>N75-P75</f>
         <v>7</v>
       </c>
       <c r="Q75" s="1"/>
@@ -5008,18 +5040,18 @@
         <v>15</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" si="6"/>
+        <f>G76-H76</f>
         <v>3</v>
       </c>
       <c r="J76">
-        <f t="shared" si="7"/>
+        <f>I76-K76-L76</f>
         <v>3</v>
       </c>
       <c r="N76" s="1">
         <v>5</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" si="8"/>
+        <f>N76-P76</f>
         <v>5</v>
       </c>
       <c r="Q76" s="1"/>
@@ -5050,18 +5082,18 @@
         <v>50</v>
       </c>
       <c r="I77" s="1">
-        <f t="shared" si="6"/>
+        <f>G77-H77</f>
         <v>6</v>
       </c>
       <c r="J77">
-        <f t="shared" si="7"/>
+        <f>I77-K77-L77</f>
         <v>6</v>
       </c>
       <c r="N77" s="1">
         <v>7</v>
       </c>
       <c r="O77" s="1">
-        <f t="shared" si="8"/>
+        <f>N77-P77</f>
         <v>7</v>
       </c>
       <c r="Q77" s="1"/>
@@ -5092,11 +5124,11 @@
         <v>43</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="6"/>
+        <f>G78-H78</f>
         <v>6</v>
       </c>
       <c r="J78">
-        <f t="shared" si="7"/>
+        <f>I78-K78-L78</f>
         <v>6</v>
       </c>
       <c r="M78">
@@ -5106,7 +5138,7 @@
         <v>5</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" si="8"/>
+        <f>N78-P78</f>
         <v>5</v>
       </c>
       <c r="Q78" s="1" t="s">
@@ -5139,18 +5171,18 @@
         <v>15</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="6"/>
+        <f>G79-H79</f>
         <v>5</v>
       </c>
       <c r="J79">
-        <f t="shared" si="7"/>
+        <f>I79-K79-L79</f>
         <v>5</v>
       </c>
       <c r="N79" s="1">
         <v>7</v>
       </c>
       <c r="O79" s="1">
-        <f t="shared" si="8"/>
+        <f>N79-P79</f>
         <v>7</v>
       </c>
       <c r="Q79" s="1"/>
@@ -5181,18 +5213,18 @@
         <v>12</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="6"/>
+        <f>G80-H80</f>
         <v>5</v>
       </c>
       <c r="J80">
-        <f t="shared" si="7"/>
+        <f>I80-K80-L80</f>
         <v>5</v>
       </c>
       <c r="N80" s="1">
         <v>7</v>
       </c>
       <c r="O80" s="1">
-        <f t="shared" si="8"/>
+        <f>N80-P80</f>
         <v>7</v>
       </c>
       <c r="Q80" s="1"/>
@@ -5223,18 +5255,18 @@
         <v>17</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" si="6"/>
+        <f>G81-H81</f>
         <v>5</v>
       </c>
       <c r="J81">
-        <f t="shared" si="7"/>
+        <f>I81-K81-L81</f>
         <v>5</v>
       </c>
       <c r="N81" s="1">
         <v>7</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" si="8"/>
+        <f>N81-P81</f>
         <v>7</v>
       </c>
       <c r="Q81" s="1"/>
@@ -5265,18 +5297,18 @@
         <v>30</v>
       </c>
       <c r="I82" s="1">
-        <f t="shared" si="6"/>
+        <f>G82-H82</f>
         <v>5</v>
       </c>
       <c r="J82">
-        <f t="shared" si="7"/>
+        <f>I82-K82-L82</f>
         <v>5</v>
       </c>
       <c r="N82" s="1">
         <v>7</v>
       </c>
       <c r="O82" s="1">
-        <f t="shared" si="8"/>
+        <f>N82-P82</f>
         <v>7</v>
       </c>
       <c r="Q82" s="1"/>
@@ -5307,18 +5339,18 @@
         <v>12</v>
       </c>
       <c r="I83" s="1">
-        <f t="shared" si="6"/>
+        <f>G83-H83</f>
         <v>3</v>
       </c>
       <c r="J83">
-        <f t="shared" si="7"/>
+        <f>I83-K83-L83</f>
         <v>3</v>
       </c>
       <c r="N83" s="1">
         <v>6</v>
       </c>
       <c r="O83" s="1">
-        <f t="shared" si="8"/>
+        <f>N83-P83</f>
         <v>6</v>
       </c>
       <c r="Q83" s="1"/>
@@ -5349,18 +5381,18 @@
         <v>7</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" si="6"/>
+        <f>G84-H84</f>
         <v>5</v>
       </c>
       <c r="J84">
-        <f t="shared" si="7"/>
+        <f>I84-K84-L84</f>
         <v>5</v>
       </c>
       <c r="N84" s="1">
         <v>8</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" si="8"/>
+        <f>N84-P84</f>
         <v>8</v>
       </c>
       <c r="Q84" s="1"/>
@@ -5391,18 +5423,18 @@
         <v>6</v>
       </c>
       <c r="I85" s="1">
-        <f t="shared" si="6"/>
+        <f>G85-H85</f>
         <v>6</v>
       </c>
       <c r="J85">
-        <f t="shared" si="7"/>
+        <f>I85-K85-L85</f>
         <v>6</v>
       </c>
       <c r="N85" s="1">
         <v>5</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" si="8"/>
+        <f>N85-P85</f>
         <v>5</v>
       </c>
       <c r="Q85" s="1"/>
@@ -5433,18 +5465,18 @@
         <v>50</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" si="6"/>
+        <f>G86-H86</f>
         <v>6</v>
       </c>
       <c r="J86">
-        <f t="shared" si="7"/>
+        <f>I86-K86-L86</f>
         <v>6</v>
       </c>
       <c r="N86" s="1">
         <v>8</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="8"/>
+        <f>N86-P86</f>
         <v>8</v>
       </c>
       <c r="Q86" s="1"/>
@@ -5475,18 +5507,18 @@
         <v>17</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" si="6"/>
+        <f>G87-H87</f>
         <v>5</v>
       </c>
       <c r="J87">
-        <f t="shared" si="7"/>
+        <f>I87-K87-L87</f>
         <v>5</v>
       </c>
       <c r="N87" s="1">
         <v>6</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="8"/>
+        <f>N87-P87</f>
         <v>6</v>
       </c>
       <c r="Q87" s="1"/>
@@ -5517,18 +5549,18 @@
         <v>7</v>
       </c>
       <c r="I88" s="1">
-        <f t="shared" si="6"/>
+        <f>G88-H88</f>
         <v>3</v>
       </c>
       <c r="J88">
-        <f t="shared" si="7"/>
+        <f>I88-K88-L88</f>
         <v>3</v>
       </c>
       <c r="N88" s="1">
         <v>6</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" si="8"/>
+        <f>N88-P88</f>
         <v>6</v>
       </c>
       <c r="Q88" s="1"/>
@@ -5559,18 +5591,18 @@
         <v>16</v>
       </c>
       <c r="I89" s="1">
-        <f t="shared" si="6"/>
+        <f>G89-H89</f>
         <v>3</v>
       </c>
       <c r="J89">
-        <f t="shared" si="7"/>
+        <f>I89-K89-L89</f>
         <v>3</v>
       </c>
       <c r="N89" s="1">
         <v>4</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="8"/>
+        <f>N89-P89</f>
         <v>4</v>
       </c>
       <c r="Q89" s="1"/>
@@ -5601,18 +5633,18 @@
         <v>19</v>
       </c>
       <c r="I90" s="1">
-        <f t="shared" si="6"/>
+        <f>G90-H90</f>
         <v>6</v>
       </c>
       <c r="J90">
-        <f t="shared" si="7"/>
+        <f>I90-K90-L90</f>
         <v>6</v>
       </c>
       <c r="N90" s="1">
         <v>5</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="8"/>
+        <f>N90-P90</f>
         <v>5</v>
       </c>
       <c r="Q90" s="1"/>
@@ -5643,18 +5675,18 @@
         <v>10</v>
       </c>
       <c r="I91" s="1">
-        <f t="shared" si="6"/>
+        <f>G91-H91</f>
         <v>4</v>
       </c>
       <c r="J91">
-        <f t="shared" si="7"/>
+        <f>I91-K91-L91</f>
         <v>4</v>
       </c>
       <c r="N91" s="1">
         <v>7</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="8"/>
+        <f>N91-P91</f>
         <v>7</v>
       </c>
       <c r="Q91" s="1"/>
@@ -5685,18 +5717,18 @@
         <v>13</v>
       </c>
       <c r="I92" s="1">
-        <f t="shared" si="6"/>
+        <f>G92-H92</f>
         <v>4</v>
       </c>
       <c r="J92">
-        <f t="shared" si="7"/>
+        <f>I92-K92-L92</f>
         <v>4</v>
       </c>
       <c r="N92" s="1">
         <v>6</v>
       </c>
       <c r="O92" s="1">
-        <f t="shared" si="8"/>
+        <f>N92-P92</f>
         <v>6</v>
       </c>
       <c r="Q92" s="1"/>
@@ -5727,18 +5759,18 @@
         <v>14</v>
       </c>
       <c r="I93" s="1">
-        <f t="shared" si="6"/>
+        <f>G93-H93</f>
         <v>5</v>
       </c>
       <c r="J93">
-        <f t="shared" si="7"/>
+        <f>I93-K93-L93</f>
         <v>5</v>
       </c>
       <c r="N93" s="1">
         <v>7</v>
       </c>
       <c r="O93" s="1">
-        <f t="shared" si="8"/>
+        <f>N93-P93</f>
         <v>7</v>
       </c>
       <c r="Q93" s="1"/>
@@ -5769,18 +5801,18 @@
         <v>13</v>
       </c>
       <c r="I94" s="1">
-        <f t="shared" si="6"/>
+        <f>G94-H94</f>
         <v>3</v>
       </c>
       <c r="J94">
-        <f t="shared" si="7"/>
+        <f>I94-K94-L94</f>
         <v>3</v>
       </c>
       <c r="N94" s="1">
         <v>7</v>
       </c>
       <c r="O94" s="1">
-        <f t="shared" si="8"/>
+        <f>N94-P94</f>
         <v>7</v>
       </c>
       <c r="Q94" s="1"/>
@@ -5811,18 +5843,18 @@
         <v>30</v>
       </c>
       <c r="I95" s="1">
-        <f t="shared" si="6"/>
+        <f>G95-H95</f>
         <v>5</v>
       </c>
       <c r="J95">
-        <f t="shared" si="7"/>
+        <f>I95-K95-L95</f>
         <v>5</v>
       </c>
       <c r="N95" s="1">
         <v>5</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" si="8"/>
+        <f>N95-P95</f>
         <v>5</v>
       </c>
       <c r="Q95" s="1"/>
@@ -5853,18 +5885,18 @@
         <v>40</v>
       </c>
       <c r="I96" s="1">
-        <f t="shared" si="6"/>
+        <f>G96-H96</f>
         <v>6</v>
       </c>
       <c r="J96">
-        <f t="shared" si="7"/>
+        <f>I96-K96-L96</f>
         <v>6</v>
       </c>
       <c r="N96" s="1">
         <v>4</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" si="8"/>
+        <f>N96-P96</f>
         <v>4</v>
       </c>
       <c r="Q96" s="1"/>
@@ -5895,18 +5927,18 @@
         <v>32</v>
       </c>
       <c r="I97" s="1">
-        <f t="shared" si="6"/>
+        <f>G97-H97</f>
         <v>5</v>
       </c>
       <c r="J97">
-        <f t="shared" si="7"/>
+        <f>I97-K97-L97</f>
         <v>5</v>
       </c>
       <c r="N97" s="1">
         <v>7</v>
       </c>
       <c r="O97" s="1">
-        <f t="shared" si="8"/>
+        <f>N97-P97</f>
         <v>7</v>
       </c>
       <c r="Q97" s="1"/>
@@ -5937,18 +5969,18 @@
         <v>2</v>
       </c>
       <c r="I98" s="1">
-        <f t="shared" si="6"/>
+        <f>G98-H98</f>
         <v>5</v>
       </c>
       <c r="J98">
-        <f t="shared" si="7"/>
+        <f>I98-K98-L98</f>
         <v>5</v>
       </c>
       <c r="N98" s="1">
         <v>7</v>
       </c>
       <c r="O98" s="1">
-        <f t="shared" si="8"/>
+        <f>N98-P98</f>
         <v>7</v>
       </c>
       <c r="Q98" s="1"/>
@@ -5979,18 +6011,18 @@
         <v>40</v>
       </c>
       <c r="I99" s="1">
-        <f t="shared" ref="I99:I122" si="9">G99-H99</f>
+        <f>G99-H99</f>
         <v>5</v>
       </c>
       <c r="J99">
-        <f t="shared" ref="J99:J122" si="10">I99-K99-L99</f>
+        <f>I99-K99-L99</f>
         <v>5</v>
       </c>
       <c r="N99" s="1">
         <v>9</v>
       </c>
       <c r="O99" s="1">
-        <f t="shared" ref="O99:O122" si="11">N99-P99</f>
+        <f>N99-P99</f>
         <v>9</v>
       </c>
       <c r="Q99" s="1" t="s">
@@ -6025,18 +6057,18 @@
         <v>18</v>
       </c>
       <c r="I100" s="1">
-        <f t="shared" si="9"/>
+        <f>G100-H100</f>
         <v>3</v>
       </c>
       <c r="J100">
-        <f t="shared" si="10"/>
+        <f>I100-K100-L100</f>
         <v>3</v>
       </c>
       <c r="N100" s="1">
         <v>7</v>
       </c>
       <c r="O100" s="1">
-        <f t="shared" si="11"/>
+        <f>N100-P100</f>
         <v>7</v>
       </c>
       <c r="Q100" s="1"/>
@@ -6069,18 +6101,18 @@
         <v>14</v>
       </c>
       <c r="I101" s="1">
-        <f t="shared" si="9"/>
+        <f>G101-H101</f>
         <v>5</v>
       </c>
       <c r="J101">
-        <f t="shared" si="10"/>
+        <f>I101-K101-L101</f>
         <v>5</v>
       </c>
       <c r="N101" s="1">
         <v>4</v>
       </c>
       <c r="O101" s="1">
-        <f t="shared" si="11"/>
+        <f>N101-P101</f>
         <v>4</v>
       </c>
       <c r="Q101" s="1"/>
@@ -6113,18 +6145,18 @@
         <v>13</v>
       </c>
       <c r="I102" s="1">
-        <f t="shared" si="9"/>
+        <f>G102-H102</f>
         <v>4</v>
       </c>
       <c r="J102">
-        <f t="shared" si="10"/>
+        <f>I102-K102-L102</f>
         <v>4</v>
       </c>
       <c r="N102" s="1">
         <v>4</v>
       </c>
       <c r="O102" s="1">
-        <f t="shared" si="11"/>
+        <f>N102-P102</f>
         <v>4</v>
       </c>
       <c r="Q102" s="1"/>
@@ -6157,18 +6189,18 @@
         <v>32</v>
       </c>
       <c r="I103" s="1">
-        <f t="shared" si="9"/>
+        <f>G103-H103</f>
         <v>3</v>
       </c>
       <c r="J103">
-        <f t="shared" si="10"/>
+        <f>I103-K103-L103</f>
         <v>3</v>
       </c>
       <c r="N103" s="1">
         <v>5</v>
       </c>
       <c r="O103" s="1">
-        <f t="shared" si="11"/>
+        <f>N103-P103</f>
         <v>5</v>
       </c>
       <c r="Q103" s="1"/>
@@ -6201,18 +6233,18 @@
         <v>18</v>
       </c>
       <c r="I104" s="1">
-        <f t="shared" si="9"/>
+        <f>G104-H104</f>
         <v>4</v>
       </c>
       <c r="J104">
-        <f t="shared" si="10"/>
+        <f>I104-K104-L104</f>
         <v>4</v>
       </c>
       <c r="N104" s="1">
         <v>5</v>
       </c>
       <c r="O104" s="1">
-        <f t="shared" si="11"/>
+        <f>N104-P104</f>
         <v>5</v>
       </c>
     </row>
@@ -6242,11 +6274,11 @@
         <v>20</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" si="9"/>
+        <f>G105-H105</f>
         <v>4</v>
       </c>
       <c r="J105">
-        <f t="shared" si="10"/>
+        <f>I105-K105-L105</f>
         <v>4</v>
       </c>
       <c r="K105"/>
@@ -6256,7 +6288,7 @@
         <v>7</v>
       </c>
       <c r="O105" s="1">
-        <f t="shared" si="11"/>
+        <f>N105-P105</f>
         <v>7</v>
       </c>
       <c r="P105"/>
@@ -6288,11 +6320,11 @@
         <v>19</v>
       </c>
       <c r="I106" s="1">
-        <f t="shared" si="9"/>
+        <f>G106-H106</f>
         <v>5</v>
       </c>
       <c r="J106">
-        <f t="shared" si="10"/>
+        <f>I106-K106-L106</f>
         <v>5</v>
       </c>
       <c r="K106"/>
@@ -6302,7 +6334,7 @@
         <v>7</v>
       </c>
       <c r="O106" s="1">
-        <f t="shared" si="11"/>
+        <f>N106-P106</f>
         <v>7</v>
       </c>
       <c r="P106"/>
@@ -6334,18 +6366,18 @@
         <v>17</v>
       </c>
       <c r="I107" s="1">
-        <f t="shared" si="9"/>
+        <f>G107-H107</f>
         <v>5</v>
       </c>
       <c r="J107">
-        <f t="shared" si="10"/>
+        <f>I107-K107-L107</f>
         <v>5</v>
       </c>
       <c r="N107" s="1">
         <v>5</v>
       </c>
       <c r="O107" s="1">
-        <f t="shared" si="11"/>
+        <f>N107-P107</f>
         <v>5</v>
       </c>
     </row>
@@ -6375,11 +6407,11 @@
         <v>12</v>
       </c>
       <c r="I108" s="1">
-        <f t="shared" si="9"/>
+        <f>G108-H108</f>
         <v>3</v>
       </c>
       <c r="J108">
-        <f t="shared" si="10"/>
+        <f>I108-K108-L108</f>
         <v>3</v>
       </c>
       <c r="K108" s="1"/>
@@ -6389,7 +6421,7 @@
         <v>6</v>
       </c>
       <c r="O108" s="1">
-        <f t="shared" si="11"/>
+        <f>N108-P108</f>
         <v>6</v>
       </c>
       <c r="P108" s="1"/>
@@ -6421,11 +6453,11 @@
         <v>20</v>
       </c>
       <c r="I109" s="1">
-        <f t="shared" si="9"/>
+        <f>G109-H109</f>
         <v>6</v>
       </c>
       <c r="J109">
-        <f t="shared" si="10"/>
+        <f>I109-K109-L109</f>
         <v>6</v>
       </c>
       <c r="K109" s="1"/>
@@ -6435,7 +6467,7 @@
         <v>6</v>
       </c>
       <c r="O109" s="1">
-        <f t="shared" si="11"/>
+        <f>N109-P109</f>
         <v>6</v>
       </c>
       <c r="P109" s="1"/>
@@ -6467,18 +6499,18 @@
         <v>10</v>
       </c>
       <c r="I110" s="1">
-        <f t="shared" si="9"/>
+        <f>G110-H110</f>
         <v>6</v>
       </c>
       <c r="J110">
-        <f t="shared" si="10"/>
+        <f>I110-K110-L110</f>
         <v>6</v>
       </c>
       <c r="N110" s="1">
         <v>6</v>
       </c>
       <c r="O110" s="1">
-        <f t="shared" si="11"/>
+        <f>N110-P110</f>
         <v>6</v>
       </c>
     </row>
@@ -6508,18 +6540,18 @@
         <v>20</v>
       </c>
       <c r="I111" s="1">
-        <f t="shared" si="9"/>
+        <f>G111-H111</f>
         <v>4</v>
       </c>
       <c r="J111">
-        <f t="shared" si="10"/>
+        <f>I111-K111-L111</f>
         <v>4</v>
       </c>
       <c r="N111" s="1">
         <v>4</v>
       </c>
       <c r="O111" s="1">
-        <f t="shared" si="11"/>
+        <f>N111-P111</f>
         <v>4</v>
       </c>
     </row>
@@ -6549,18 +6581,18 @@
         <v>15</v>
       </c>
       <c r="I112" s="1">
-        <f t="shared" si="9"/>
+        <f>G112-H112</f>
         <v>6</v>
       </c>
       <c r="J112">
-        <f t="shared" si="10"/>
+        <f>I112-K112-L112</f>
         <v>6</v>
       </c>
       <c r="N112" s="1">
         <v>5</v>
       </c>
       <c r="O112" s="1">
-        <f t="shared" si="11"/>
+        <f>N112-P112</f>
         <v>5</v>
       </c>
     </row>
@@ -6590,18 +6622,18 @@
         <v>15</v>
       </c>
       <c r="I113" s="1">
-        <f t="shared" si="9"/>
+        <f>G113-H113</f>
         <v>4</v>
       </c>
       <c r="J113">
-        <f t="shared" si="10"/>
+        <f>I113-K113-L113</f>
         <v>4</v>
       </c>
       <c r="N113" s="1">
         <v>7</v>
       </c>
       <c r="O113" s="1">
-        <f t="shared" si="11"/>
+        <f>N113-P113</f>
         <v>7</v>
       </c>
     </row>
@@ -6631,18 +6663,18 @@
         <v>13</v>
       </c>
       <c r="I114" s="1">
-        <f t="shared" si="9"/>
+        <f>G114-H114</f>
         <v>6</v>
       </c>
       <c r="J114">
-        <f t="shared" si="10"/>
+        <f>I114-K114-L114</f>
         <v>6</v>
       </c>
       <c r="N114" s="1">
         <v>6</v>
       </c>
       <c r="O114" s="1">
-        <f t="shared" si="11"/>
+        <f>N114-P114</f>
         <v>6</v>
       </c>
     </row>
@@ -6672,18 +6704,18 @@
         <v>24</v>
       </c>
       <c r="I115" s="1">
-        <f t="shared" si="9"/>
+        <f>G115-H115</f>
         <v>6</v>
       </c>
       <c r="J115">
-        <f t="shared" si="10"/>
+        <f>I115-K115-L115</f>
         <v>6</v>
       </c>
       <c r="N115" s="1">
         <v>6</v>
       </c>
       <c r="O115" s="1">
-        <f t="shared" si="11"/>
+        <f>N115-P115</f>
         <v>6</v>
       </c>
     </row>
@@ -6713,18 +6745,18 @@
         <v>30</v>
       </c>
       <c r="I116" s="1">
-        <f t="shared" si="9"/>
+        <f>G116-H116</f>
         <v>6</v>
       </c>
       <c r="J116">
-        <f t="shared" si="10"/>
+        <f>I116-K116-L116</f>
         <v>6</v>
       </c>
       <c r="N116" s="1">
         <v>6</v>
       </c>
       <c r="O116" s="1">
-        <f t="shared" si="11"/>
+        <f>N116-P116</f>
         <v>6</v>
       </c>
     </row>
@@ -6735,7 +6767,7 @@
       <c r="B117" s="5">
         <v>43378</v>
       </c>
-      <c r="C117" s="10">
+      <c r="C117" s="1">
         <v>1551</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -6754,18 +6786,18 @@
         <v>60</v>
       </c>
       <c r="I117" s="1">
-        <f t="shared" si="9"/>
+        <f>G117-H117</f>
         <v>6</v>
       </c>
       <c r="J117">
-        <f t="shared" si="10"/>
+        <f>I117-K117-L117</f>
         <v>6</v>
       </c>
       <c r="N117">
         <v>5</v>
       </c>
       <c r="O117" s="1">
-        <f t="shared" si="11"/>
+        <f>N117-P117</f>
         <v>5</v>
       </c>
       <c r="Q117" s="1" t="s">
@@ -6798,18 +6830,18 @@
         <v>53</v>
       </c>
       <c r="I118" s="1">
-        <f t="shared" si="9"/>
+        <f>G118-H118</f>
         <v>6</v>
       </c>
       <c r="J118">
-        <f t="shared" si="10"/>
+        <f>I118-K118-L118</f>
         <v>6</v>
       </c>
       <c r="N118" s="1">
         <v>5</v>
       </c>
       <c r="O118" s="1">
-        <f t="shared" si="11"/>
+        <f>N118-P118</f>
         <v>5</v>
       </c>
     </row>
@@ -6839,18 +6871,18 @@
         <v>28</v>
       </c>
       <c r="I119" s="1">
-        <f t="shared" si="9"/>
+        <f>G119-H119</f>
         <v>3</v>
       </c>
       <c r="J119">
-        <f t="shared" si="10"/>
+        <f>I119-K119-L119</f>
         <v>3</v>
       </c>
       <c r="N119">
         <v>5</v>
       </c>
       <c r="O119" s="1">
-        <f t="shared" si="11"/>
+        <f>N119-P119</f>
         <v>5</v>
       </c>
     </row>
@@ -6880,18 +6912,18 @@
         <v>24</v>
       </c>
       <c r="I120" s="1">
-        <f t="shared" si="9"/>
+        <f>G120-H120</f>
         <v>5</v>
       </c>
       <c r="J120">
-        <f t="shared" si="10"/>
+        <f>I120-K120-L120</f>
         <v>5</v>
       </c>
       <c r="N120">
         <v>6</v>
       </c>
       <c r="O120" s="1">
-        <f t="shared" si="11"/>
+        <f>N120-P120</f>
         <v>6</v>
       </c>
     </row>
@@ -6921,18 +6953,18 @@
         <v>17</v>
       </c>
       <c r="I121" s="1">
-        <f t="shared" si="9"/>
+        <f>G121-H121</f>
         <v>5</v>
       </c>
       <c r="J121">
-        <f t="shared" si="10"/>
+        <f>I121-K121-L121</f>
         <v>5</v>
       </c>
       <c r="N121">
         <v>5</v>
       </c>
       <c r="O121" s="1">
-        <f t="shared" si="11"/>
+        <f>N121-P121</f>
         <v>5</v>
       </c>
     </row>
@@ -6962,43 +6994,236 @@
         <v>20</v>
       </c>
       <c r="I122" s="1">
-        <f t="shared" si="9"/>
+        <f>G122-H122</f>
         <v>5</v>
       </c>
       <c r="J122">
-        <f t="shared" si="10"/>
+        <f>I122-K122-L122</f>
         <v>5</v>
       </c>
       <c r="N122">
         <v>6</v>
       </c>
       <c r="O122" s="1">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f>N122-P122</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="5">
+        <v>43392</v>
+      </c>
+      <c r="C123" s="10">
+        <v>9248</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="1">
+        <v>11</v>
+      </c>
+      <c r="H123" s="1">
+        <v>8</v>
+      </c>
+      <c r="I123" s="1">
+        <f>G123-H123</f>
+        <v>3</v>
+      </c>
+      <c r="J123">
+        <f>I123-K123-L123</f>
+        <v>3</v>
+      </c>
+      <c r="N123">
+        <v>5</v>
+      </c>
+      <c r="O123" s="1">
+        <f>N123-P123</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" s="1" customFormat="1">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="11">
+        <v>43393</v>
+      </c>
+      <c r="C124" s="1">
+        <v>4423</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" s="1">
+        <v>23</v>
+      </c>
+      <c r="H124" s="1">
+        <v>20</v>
+      </c>
+      <c r="I124" s="1">
+        <f>G124-H124</f>
+        <v>3</v>
+      </c>
+      <c r="J124">
+        <f>I124-K124-L124</f>
+        <v>3</v>
+      </c>
+      <c r="N124" s="1">
+        <v>5</v>
+      </c>
+      <c r="O124" s="1">
+        <f>N124-P124</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" s="1" customFormat="1">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="11">
+        <v>43395</v>
+      </c>
+      <c r="C125" s="1">
+        <v>32856</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" s="1">
+        <v>40</v>
+      </c>
+      <c r="H125" s="1">
+        <v>37</v>
+      </c>
+      <c r="I125" s="1">
+        <f>G125-H125</f>
+        <v>3</v>
+      </c>
+      <c r="J125">
+        <f>I125-K125-L125</f>
+        <v>3</v>
+      </c>
+      <c r="N125" s="1">
+        <v>5</v>
+      </c>
+      <c r="O125" s="1">
+        <f>N125-P125</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" s="1" customFormat="1">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="11">
+        <v>43395</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2466</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" s="1">
+        <v>22</v>
+      </c>
+      <c r="H126" s="1">
+        <v>18</v>
+      </c>
+      <c r="I126" s="1">
+        <f>G126-H126</f>
+        <v>4</v>
+      </c>
+      <c r="J126">
+        <f>I126-K126-L126</f>
+        <v>4</v>
+      </c>
+      <c r="N126" s="1">
+        <v>5</v>
+      </c>
+      <c r="O126" s="1">
+        <f>N126-P126</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" s="1" customFormat="1">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="11">
+        <v>43396</v>
+      </c>
+      <c r="C127" s="1">
+        <v>71</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="1">
+        <v>21</v>
+      </c>
+      <c r="H127" s="1">
+        <v>16</v>
+      </c>
+      <c r="I127" s="1">
+        <f>G127-H127</f>
+        <v>5</v>
+      </c>
+      <c r="J127">
+        <f>I127-K127-L127</f>
+        <v>5</v>
+      </c>
+      <c r="N127" s="1">
+        <v>5</v>
+      </c>
+      <c r="O127" s="1">
+        <f>N127-P127</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:Q112">
-    <sortCondition ref="A82"/>
+  <sortState ref="A3:Q127">
+    <sortCondition ref="B112"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J2:J3 J5:J122">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7030,7 +7255,7 @@
       </c>
       <c r="B24" s="6">
         <f>COUNTA(列表!$C:$C)-1</f>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>164</v>
@@ -7051,6 +7276,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MarriageRecorder.xlsx
+++ b/MarriageRecorder.xlsx
@@ -11,6 +11,7 @@
     <sheet name="统计" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">列表!$A$2:$Q$149</definedName>
     <definedName name="_xlchart.0" hidden="1">列表!$B$3:$B$200</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="250">
   <si>
     <t>舰 ID</t>
   </si>
@@ -742,6 +743,120 @@
   </si>
   <si>
     <t>滨风乙改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦風丁改</t>
+  </si>
+  <si>
+    <t>浦风丁改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋月改</t>
+  </si>
+  <si>
+    <t>秋月改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷風丁改</t>
+  </si>
+  <si>
+    <t>谷风丁改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磯風乙改</t>
+  </si>
+  <si>
+    <t>矶风乙改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大潮改二</t>
+  </si>
+  <si>
+    <t>大潮改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文月改二</t>
+  </si>
+  <si>
+    <t>不知火改二</t>
+  </si>
+  <si>
+    <t>Maestrale改</t>
+  </si>
+  <si>
+    <t>黒潮改二</t>
+  </si>
+  <si>
+    <t>黑潮改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽炎改二</t>
+  </si>
+  <si>
+    <t>阳炎改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霞改二乙</t>
+  </si>
+  <si>
+    <t>Z1 zwei</t>
+  </si>
+  <si>
+    <t>Z3 zwei</t>
+  </si>
+  <si>
+    <t>巻雲改二</t>
+  </si>
+  <si>
+    <t>卷云改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日進甲</t>
+  </si>
+  <si>
+    <t>日进甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矢矧改</t>
+  </si>
+  <si>
+    <t>酒匂改</t>
+  </si>
+  <si>
+    <t>吹雪改二</t>
+  </si>
+  <si>
+    <t>叢雲改二</t>
+  </si>
+  <si>
+    <t>丛云改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹雪改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johnston改</t>
+  </si>
+  <si>
+    <t>荒潮改二</t>
+  </si>
+  <si>
+    <t>満潮改二</t>
+  </si>
+  <si>
+    <t>满潮改二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,7 +867,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1735,28 +1850,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
     <col min="4" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="11" max="11" width="6.625" customWidth="1"/>
-    <col min="12" max="12" width="7.125" customWidth="1"/>
-    <col min="13" max="13" width="6.25" customWidth="1"/>
-    <col min="14" max="14" width="6.375" customWidth="1"/>
-    <col min="15" max="15" width="5.875" customWidth="1"/>
+    <col min="9" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="7.25" customWidth="1"/>
+    <col min="14" max="14" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
     <col min="18" max="18" width="12.625" customWidth="1"/>
     <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.25">
+    <row r="1" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>168</v>
       </c>
@@ -1777,7 +1894,7 @@
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>167</v>
       </c>
@@ -1832,7 +1949,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1858,7 +1975,6 @@
         <v>20</v>
       </c>
       <c r="I3" s="1">
-        <f>G3-H3</f>
         <v>8</v>
       </c>
       <c r="J3">
@@ -1885,7 +2001,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1911,7 +2027,6 @@
         <v>20</v>
       </c>
       <c r="I4" s="1">
-        <f>G4-H4</f>
         <v>30</v>
       </c>
       <c r="J4">
@@ -1942,7 +2057,7 @@
       <c r="U4"/>
       <c r="V4"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1">
+    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1968,7 +2083,6 @@
         <v>40</v>
       </c>
       <c r="I5" s="1">
-        <f>G5-H5</f>
         <v>6</v>
       </c>
       <c r="J5">
@@ -1995,7 +2109,7 @@
       <c r="U5"/>
       <c r="V5"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -2021,7 +2135,6 @@
         <v>50</v>
       </c>
       <c r="I6" s="1">
-        <f>G6-H6</f>
         <v>3</v>
       </c>
       <c r="J6">
@@ -2037,7 +2150,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2063,7 +2176,6 @@
         <v>20</v>
       </c>
       <c r="I7" s="1">
-        <f>G7-H7</f>
         <v>3</v>
       </c>
       <c r="J7">
@@ -2081,7 +2193,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -2107,7 +2219,6 @@
         <v>37</v>
       </c>
       <c r="I8" s="1">
-        <f>G8-H8</f>
         <v>3</v>
       </c>
       <c r="J8">
@@ -2129,7 +2240,7 @@
       </c>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2155,7 +2266,6 @@
         <v>14</v>
       </c>
       <c r="I9" s="1">
-        <f>G9-H9</f>
         <v>28</v>
       </c>
       <c r="J9">
@@ -2176,7 +2286,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -2202,7 +2312,6 @@
         <v>13</v>
       </c>
       <c r="I10" s="1">
-        <f>G10-H10</f>
         <v>6</v>
       </c>
       <c r="J10">
@@ -2218,7 +2327,7 @@
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2244,7 +2353,6 @@
         <v>50</v>
       </c>
       <c r="I11" s="1">
-        <f>G11-H11</f>
         <v>3</v>
       </c>
       <c r="J11">
@@ -2262,7 +2370,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -2288,7 +2396,6 @@
         <v>30</v>
       </c>
       <c r="I12" s="1">
-        <f>G12-H12</f>
         <v>13</v>
       </c>
       <c r="J12">
@@ -2305,9 +2412,11 @@
         <f>N12-P12</f>
         <v>6</v>
       </c>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="Q12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2333,7 +2442,6 @@
         <v>41</v>
       </c>
       <c r="I13" s="1">
-        <f>G13-H13</f>
         <v>3</v>
       </c>
       <c r="J13">
@@ -2349,7 +2457,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -2375,7 +2483,6 @@
         <v>25</v>
       </c>
       <c r="I14" s="1">
-        <f>G14-H14</f>
         <v>6</v>
       </c>
       <c r="J14">
@@ -2391,7 +2498,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2417,7 +2524,6 @@
         <v>34</v>
       </c>
       <c r="I15" s="1">
-        <f>G15-H15</f>
         <v>4</v>
       </c>
       <c r="J15">
@@ -2433,7 +2539,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -2459,7 +2565,6 @@
         <v>15</v>
       </c>
       <c r="I16" s="1">
-        <f>G16-H16</f>
         <v>4</v>
       </c>
       <c r="J16">
@@ -2475,7 +2580,7 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2501,7 +2606,6 @@
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <f>G17-H17</f>
         <v>6</v>
       </c>
       <c r="J17">
@@ -2517,7 +2621,7 @@
       </c>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -2543,7 +2647,6 @@
         <v>15</v>
       </c>
       <c r="I18" s="1">
-        <f>G18-H18</f>
         <v>4</v>
       </c>
       <c r="J18">
@@ -2561,7 +2664,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2587,7 +2690,6 @@
         <v>13</v>
       </c>
       <c r="I19" s="1">
-        <f>G19-H19</f>
         <v>6</v>
       </c>
       <c r="J19">
@@ -2603,7 +2705,7 @@
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -2629,7 +2731,6 @@
         <v>41</v>
       </c>
       <c r="I20" s="1">
-        <f>G20-H20</f>
         <v>6</v>
       </c>
       <c r="J20">
@@ -2647,7 +2748,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2673,7 +2774,6 @@
         <v>14</v>
       </c>
       <c r="I21" s="1">
-        <f>G21-H21</f>
         <v>5</v>
       </c>
       <c r="J21">
@@ -2689,7 +2789,7 @@
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -2715,7 +2815,6 @@
         <v>4</v>
       </c>
       <c r="I22" s="1">
-        <f>G22-H22</f>
         <v>4</v>
       </c>
       <c r="J22">
@@ -2731,7 +2830,7 @@
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2757,7 +2856,6 @@
         <v>20</v>
       </c>
       <c r="I23" s="1">
-        <f>G23-H23</f>
         <v>6</v>
       </c>
       <c r="J23">
@@ -2775,7 +2873,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -2801,7 +2899,6 @@
         <v>22</v>
       </c>
       <c r="I24" s="1">
-        <f>G24-H24</f>
         <v>5</v>
       </c>
       <c r="J24">
@@ -2819,7 +2916,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2845,7 +2942,6 @@
         <v>20</v>
       </c>
       <c r="I25" s="1">
-        <f>G25-H25</f>
         <v>3</v>
       </c>
       <c r="J25">
@@ -2861,7 +2957,7 @@
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -2887,7 +2983,6 @@
         <v>16</v>
       </c>
       <c r="I26" s="1">
-        <f>G26-H26</f>
         <v>3</v>
       </c>
       <c r="J26">
@@ -2903,7 +2998,7 @@
       </c>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2929,7 +3024,6 @@
         <v>13</v>
       </c>
       <c r="I27" s="1">
-        <f>G27-H27</f>
         <v>3</v>
       </c>
       <c r="J27">
@@ -2945,7 +3039,7 @@
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -2971,7 +3065,6 @@
         <v>13</v>
       </c>
       <c r="I28" s="1">
-        <f>G28-H28</f>
         <v>6</v>
       </c>
       <c r="J28">
@@ -2987,7 +3080,7 @@
       </c>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3013,7 +3106,6 @@
         <v>14</v>
       </c>
       <c r="I29" s="1">
-        <f>G29-H29</f>
         <v>4</v>
       </c>
       <c r="J29">
@@ -3029,7 +3121,7 @@
       </c>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -3055,7 +3147,6 @@
         <v>17</v>
       </c>
       <c r="I30" s="1">
-        <f>G30-H30</f>
         <v>6</v>
       </c>
       <c r="J30">
@@ -3073,7 +3164,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3099,7 +3190,6 @@
         <v>6</v>
       </c>
       <c r="I31" s="1">
-        <f>G31-H31</f>
         <v>6</v>
       </c>
       <c r="J31">
@@ -3115,7 +3205,7 @@
       </c>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -3141,7 +3231,6 @@
         <v>50</v>
       </c>
       <c r="I32" s="1">
-        <f>G32-H32</f>
         <v>4</v>
       </c>
       <c r="J32">
@@ -3162,7 +3251,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3188,7 +3277,6 @@
         <v>14</v>
       </c>
       <c r="I33" s="1">
-        <f>G33-H33</f>
         <v>4</v>
       </c>
       <c r="J33">
@@ -3206,7 +3294,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -3232,7 +3320,6 @@
         <v>12</v>
       </c>
       <c r="I34" s="1">
-        <f>G34-H34</f>
         <v>3</v>
       </c>
       <c r="J34">
@@ -3248,7 +3335,7 @@
       </c>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3274,7 +3361,6 @@
         <v>13</v>
       </c>
       <c r="I35" s="1">
-        <f>G35-H35</f>
         <v>4</v>
       </c>
       <c r="J35">
@@ -3290,7 +3376,7 @@
       </c>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -3316,7 +3402,6 @@
         <v>13</v>
       </c>
       <c r="I36" s="1">
-        <f>G36-H36</f>
         <v>3</v>
       </c>
       <c r="J36">
@@ -3332,7 +3417,7 @@
       </c>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3358,7 +3443,6 @@
         <v>40</v>
       </c>
       <c r="I37" s="1">
-        <f>G37-H37</f>
         <v>11</v>
       </c>
       <c r="J37">
@@ -3379,7 +3463,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -3405,7 +3489,6 @@
         <v>13</v>
       </c>
       <c r="I38" s="1">
-        <f>G38-H38</f>
         <v>3</v>
       </c>
       <c r="J38">
@@ -3423,7 +3506,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3449,7 +3532,6 @@
         <v>14</v>
       </c>
       <c r="I39" s="1">
-        <f>G39-H39</f>
         <v>5</v>
       </c>
       <c r="J39">
@@ -3467,7 +3549,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -3493,7 +3575,6 @@
         <v>40</v>
       </c>
       <c r="I40" s="1">
-        <f>G40-H40</f>
         <v>6</v>
       </c>
       <c r="J40">
@@ -3509,7 +3590,7 @@
       </c>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3535,7 +3616,6 @@
         <v>12</v>
       </c>
       <c r="I41" s="1">
-        <f>G41-H41</f>
         <v>5</v>
       </c>
       <c r="J41">
@@ -3551,7 +3631,7 @@
       </c>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -3577,7 +3657,6 @@
         <v>30</v>
       </c>
       <c r="I42" s="1">
-        <f>G42-H42</f>
         <v>6</v>
       </c>
       <c r="J42">
@@ -3595,7 +3674,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3621,7 +3700,6 @@
         <v>8</v>
       </c>
       <c r="I43" s="1">
-        <f>G43-H43</f>
         <v>4</v>
       </c>
       <c r="J43">
@@ -3639,7 +3717,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -3665,7 +3743,6 @@
         <v>30</v>
       </c>
       <c r="I44" s="1">
-        <f>G44-H44</f>
         <v>3</v>
       </c>
       <c r="J44">
@@ -3683,7 +3760,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3709,7 +3786,6 @@
         <v>13</v>
       </c>
       <c r="I45" s="1">
-        <f>G45-H45</f>
         <v>3</v>
       </c>
       <c r="J45">
@@ -3725,7 +3801,7 @@
       </c>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -3751,7 +3827,6 @@
         <v>70</v>
       </c>
       <c r="I46" s="1">
-        <f>G46-H46</f>
         <v>3</v>
       </c>
       <c r="J46">
@@ -3767,7 +3842,7 @@
       </c>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3793,7 +3868,6 @@
         <v>12</v>
       </c>
       <c r="I47" s="1">
-        <f>G47-H47</f>
         <v>5</v>
       </c>
       <c r="J47">
@@ -3809,7 +3883,7 @@
       </c>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -3835,7 +3909,6 @@
         <v>19</v>
       </c>
       <c r="I48" s="1">
-        <f>G48-H48</f>
         <v>6</v>
       </c>
       <c r="J48">
@@ -3851,7 +3924,7 @@
       </c>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3877,7 +3950,6 @@
         <v>24</v>
       </c>
       <c r="I49" s="1">
-        <f>G49-H49</f>
         <v>3</v>
       </c>
       <c r="J49">
@@ -3893,7 +3965,7 @@
       </c>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -3919,7 +3991,6 @@
         <v>17</v>
       </c>
       <c r="I50" s="1">
-        <f>G50-H50</f>
         <v>4</v>
       </c>
       <c r="J50">
@@ -3935,7 +4006,7 @@
       </c>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3961,7 +4032,6 @@
         <v>40</v>
       </c>
       <c r="I51" s="1">
-        <f>G51-H51</f>
         <v>12</v>
       </c>
       <c r="J51">
@@ -3985,7 +4055,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -4011,7 +4081,6 @@
         <v>16</v>
       </c>
       <c r="I52" s="1">
-        <f>G52-H52</f>
         <v>6</v>
       </c>
       <c r="J52">
@@ -4029,7 +4098,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4055,7 +4124,6 @@
         <v>13</v>
       </c>
       <c r="I53" s="1">
-        <f>G53-H53</f>
         <v>3</v>
       </c>
       <c r="J53">
@@ -4073,7 +4141,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -4099,7 +4167,6 @@
         <v>44</v>
       </c>
       <c r="I54" s="1">
-        <f>G54-H54</f>
         <v>5</v>
       </c>
       <c r="J54">
@@ -4115,7 +4182,7 @@
       </c>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4141,7 +4208,6 @@
         <v>11</v>
       </c>
       <c r="I55" s="1">
-        <f>G55-H55</f>
         <v>4</v>
       </c>
       <c r="J55">
@@ -4159,7 +4225,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -4185,7 +4251,6 @@
         <v>40</v>
       </c>
       <c r="I56" s="1">
-        <f>G56-H56</f>
         <v>6</v>
       </c>
       <c r="J56">
@@ -4203,7 +4268,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4229,7 +4294,6 @@
         <v>30</v>
       </c>
       <c r="I57" s="1">
-        <f>G57-H57</f>
         <v>5</v>
       </c>
       <c r="J57">
@@ -4245,7 +4309,7 @@
       </c>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>56</v>
       </c>
@@ -4271,7 +4335,6 @@
         <v>13</v>
       </c>
       <c r="I58" s="1">
-        <f>G58-H58</f>
         <v>5</v>
       </c>
       <c r="J58">
@@ -4287,7 +4350,7 @@
       </c>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4313,7 +4376,6 @@
         <v>10</v>
       </c>
       <c r="I59" s="1">
-        <f>G59-H59</f>
         <v>5</v>
       </c>
       <c r="J59">
@@ -4331,7 +4393,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -4357,7 +4419,6 @@
         <v>12</v>
       </c>
       <c r="I60" s="1">
-        <f>G60-H60</f>
         <v>6</v>
       </c>
       <c r="J60">
@@ -4373,7 +4434,7 @@
       </c>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4399,7 +4460,6 @@
         <v>40</v>
       </c>
       <c r="I61" s="1">
-        <f>G61-H61</f>
         <v>5</v>
       </c>
       <c r="J61">
@@ -4415,7 +4475,7 @@
       </c>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -4441,7 +4501,6 @@
         <v>10</v>
       </c>
       <c r="I62" s="1">
-        <f>G62-H62</f>
         <v>4</v>
       </c>
       <c r="J62">
@@ -4459,7 +4518,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4485,7 +4544,6 @@
         <v>35</v>
       </c>
       <c r="I63" s="1">
-        <f>G63-H63</f>
         <v>3</v>
       </c>
       <c r="J63">
@@ -4501,7 +4559,7 @@
       </c>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>62</v>
       </c>
@@ -4527,7 +4585,6 @@
         <v>8</v>
       </c>
       <c r="I64" s="1">
-        <f>G64-H64</f>
         <v>6</v>
       </c>
       <c r="J64">
@@ -4543,7 +4600,7 @@
       </c>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4569,7 +4626,6 @@
         <v>24</v>
       </c>
       <c r="I65" s="1">
-        <f>G65-H65</f>
         <v>5</v>
       </c>
       <c r="J65">
@@ -4585,7 +4641,7 @@
       </c>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>64</v>
       </c>
@@ -4611,7 +4667,6 @@
         <v>42</v>
       </c>
       <c r="I66" s="1">
-        <f>G66-H66</f>
         <v>6</v>
       </c>
       <c r="J66">
@@ -4630,7 +4685,7 @@
       </c>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4656,7 +4711,6 @@
         <v>13</v>
       </c>
       <c r="I67" s="1">
-        <f>G67-H67</f>
         <v>3</v>
       </c>
       <c r="J67">
@@ -4674,7 +4728,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>66</v>
       </c>
@@ -4700,7 +4754,6 @@
         <v>12</v>
       </c>
       <c r="I68" s="1">
-        <f>G68-H68</f>
         <v>4</v>
       </c>
       <c r="J68">
@@ -4718,7 +4771,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4744,7 +4797,6 @@
         <v>15</v>
       </c>
       <c r="I69" s="1">
-        <f>G69-H69</f>
         <v>3</v>
       </c>
       <c r="J69">
@@ -4760,7 +4812,7 @@
       </c>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>68</v>
       </c>
@@ -4786,7 +4838,6 @@
         <v>55</v>
       </c>
       <c r="I70" s="1">
-        <f>G70-H70</f>
         <v>4</v>
       </c>
       <c r="J70">
@@ -4802,7 +4853,7 @@
       </c>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4828,7 +4879,6 @@
         <v>19</v>
       </c>
       <c r="I71" s="1">
-        <f>G71-H71</f>
         <v>4</v>
       </c>
       <c r="J71">
@@ -4844,7 +4894,7 @@
       </c>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>70</v>
       </c>
@@ -4870,7 +4920,6 @@
         <v>15</v>
       </c>
       <c r="I72" s="1">
-        <f>G72-H72</f>
         <v>6</v>
       </c>
       <c r="J72">
@@ -4888,7 +4937,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4914,7 +4963,6 @@
         <v>14</v>
       </c>
       <c r="I73" s="1">
-        <f>G73-H73</f>
         <v>5</v>
       </c>
       <c r="J73">
@@ -4930,7 +4978,7 @@
       </c>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>72</v>
       </c>
@@ -4956,7 +5004,6 @@
         <v>42</v>
       </c>
       <c r="I74" s="1">
-        <f>G74-H74</f>
         <v>5</v>
       </c>
       <c r="J74">
@@ -4972,7 +5019,7 @@
       </c>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4998,7 +5045,6 @@
         <v>50</v>
       </c>
       <c r="I75" s="1">
-        <f>G75-H75</f>
         <v>3</v>
       </c>
       <c r="J75">
@@ -5014,7 +5060,7 @@
       </c>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>74</v>
       </c>
@@ -5040,7 +5086,6 @@
         <v>15</v>
       </c>
       <c r="I76" s="1">
-        <f>G76-H76</f>
         <v>3</v>
       </c>
       <c r="J76">
@@ -5056,7 +5101,7 @@
       </c>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5082,7 +5127,6 @@
         <v>50</v>
       </c>
       <c r="I77" s="1">
-        <f>G77-H77</f>
         <v>6</v>
       </c>
       <c r="J77">
@@ -5098,7 +5142,7 @@
       </c>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>76</v>
       </c>
@@ -5124,7 +5168,6 @@
         <v>43</v>
       </c>
       <c r="I78" s="1">
-        <f>G78-H78</f>
         <v>6</v>
       </c>
       <c r="J78">
@@ -5145,7 +5188,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5171,7 +5214,6 @@
         <v>15</v>
       </c>
       <c r="I79" s="1">
-        <f>G79-H79</f>
         <v>5</v>
       </c>
       <c r="J79">
@@ -5187,7 +5229,7 @@
       </c>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>78</v>
       </c>
@@ -5213,7 +5255,6 @@
         <v>12</v>
       </c>
       <c r="I80" s="1">
-        <f>G80-H80</f>
         <v>5</v>
       </c>
       <c r="J80">
@@ -5229,7 +5270,7 @@
       </c>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5255,7 +5296,6 @@
         <v>17</v>
       </c>
       <c r="I81" s="1">
-        <f>G81-H81</f>
         <v>5</v>
       </c>
       <c r="J81">
@@ -5271,7 +5311,7 @@
       </c>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>80</v>
       </c>
@@ -5297,7 +5337,6 @@
         <v>30</v>
       </c>
       <c r="I82" s="1">
-        <f>G82-H82</f>
         <v>5</v>
       </c>
       <c r="J82">
@@ -5313,7 +5352,7 @@
       </c>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5339,7 +5378,6 @@
         <v>12</v>
       </c>
       <c r="I83" s="1">
-        <f>G83-H83</f>
         <v>3</v>
       </c>
       <c r="J83">
@@ -5355,7 +5393,7 @@
       </c>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>82</v>
       </c>
@@ -5381,7 +5419,6 @@
         <v>7</v>
       </c>
       <c r="I84" s="1">
-        <f>G84-H84</f>
         <v>5</v>
       </c>
       <c r="J84">
@@ -5397,7 +5434,7 @@
       </c>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5423,7 +5460,6 @@
         <v>6</v>
       </c>
       <c r="I85" s="1">
-        <f>G85-H85</f>
         <v>6</v>
       </c>
       <c r="J85">
@@ -5439,7 +5475,7 @@
       </c>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>84</v>
       </c>
@@ -5465,7 +5501,6 @@
         <v>50</v>
       </c>
       <c r="I86" s="1">
-        <f>G86-H86</f>
         <v>6</v>
       </c>
       <c r="J86">
@@ -5481,7 +5516,7 @@
       </c>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5507,7 +5542,6 @@
         <v>17</v>
       </c>
       <c r="I87" s="1">
-        <f>G87-H87</f>
         <v>5</v>
       </c>
       <c r="J87">
@@ -5523,7 +5557,7 @@
       </c>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>86</v>
       </c>
@@ -5549,7 +5583,6 @@
         <v>7</v>
       </c>
       <c r="I88" s="1">
-        <f>G88-H88</f>
         <v>3</v>
       </c>
       <c r="J88">
@@ -5565,7 +5598,7 @@
       </c>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5591,7 +5624,6 @@
         <v>16</v>
       </c>
       <c r="I89" s="1">
-        <f>G89-H89</f>
         <v>3</v>
       </c>
       <c r="J89">
@@ -5607,7 +5639,7 @@
       </c>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>88</v>
       </c>
@@ -5633,7 +5665,6 @@
         <v>19</v>
       </c>
       <c r="I90" s="1">
-        <f>G90-H90</f>
         <v>6</v>
       </c>
       <c r="J90">
@@ -5649,7 +5680,7 @@
       </c>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5675,7 +5706,6 @@
         <v>10</v>
       </c>
       <c r="I91" s="1">
-        <f>G91-H91</f>
         <v>4</v>
       </c>
       <c r="J91">
@@ -5691,7 +5721,7 @@
       </c>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>90</v>
       </c>
@@ -5717,7 +5747,6 @@
         <v>13</v>
       </c>
       <c r="I92" s="1">
-        <f>G92-H92</f>
         <v>4</v>
       </c>
       <c r="J92">
@@ -5733,7 +5762,7 @@
       </c>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5759,7 +5788,6 @@
         <v>14</v>
       </c>
       <c r="I93" s="1">
-        <f>G93-H93</f>
         <v>5</v>
       </c>
       <c r="J93">
@@ -5773,9 +5801,11 @@
         <f>N93-P93</f>
         <v>7</v>
       </c>
-      <c r="Q93" s="1"/>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="Q93" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>92</v>
       </c>
@@ -5801,7 +5831,6 @@
         <v>13</v>
       </c>
       <c r="I94" s="1">
-        <f>G94-H94</f>
         <v>3</v>
       </c>
       <c r="J94">
@@ -5817,7 +5846,7 @@
       </c>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5843,7 +5872,6 @@
         <v>30</v>
       </c>
       <c r="I95" s="1">
-        <f>G95-H95</f>
         <v>5</v>
       </c>
       <c r="J95">
@@ -5859,7 +5887,7 @@
       </c>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>94</v>
       </c>
@@ -5885,7 +5913,6 @@
         <v>40</v>
       </c>
       <c r="I96" s="1">
-        <f>G96-H96</f>
         <v>6</v>
       </c>
       <c r="J96">
@@ -5901,7 +5928,7 @@
       </c>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5927,7 +5954,6 @@
         <v>32</v>
       </c>
       <c r="I97" s="1">
-        <f>G97-H97</f>
         <v>5</v>
       </c>
       <c r="J97">
@@ -5943,7 +5969,7 @@
       </c>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>96</v>
       </c>
@@ -5969,7 +5995,6 @@
         <v>2</v>
       </c>
       <c r="I98" s="1">
-        <f>G98-H98</f>
         <v>5</v>
       </c>
       <c r="J98">
@@ -5985,7 +6010,7 @@
       </c>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6011,7 +6036,6 @@
         <v>40</v>
       </c>
       <c r="I99" s="1">
-        <f>G99-H99</f>
         <v>5</v>
       </c>
       <c r="J99">
@@ -6031,7 +6055,7 @@
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>98</v>
       </c>
@@ -6057,7 +6081,6 @@
         <v>18</v>
       </c>
       <c r="I100" s="1">
-        <f>G100-H100</f>
         <v>3</v>
       </c>
       <c r="J100">
@@ -6075,7 +6098,7 @@
       <c r="R100" s="5"/>
       <c r="S100" s="5"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6101,7 +6124,6 @@
         <v>14</v>
       </c>
       <c r="I101" s="1">
-        <f>G101-H101</f>
         <v>5</v>
       </c>
       <c r="J101">
@@ -6119,7 +6141,7 @@
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>100</v>
       </c>
@@ -6145,7 +6167,6 @@
         <v>13</v>
       </c>
       <c r="I102" s="1">
-        <f>G102-H102</f>
         <v>4</v>
       </c>
       <c r="J102">
@@ -6163,7 +6184,7 @@
       <c r="R102" s="5"/>
       <c r="S102" s="5"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6189,7 +6210,6 @@
         <v>32</v>
       </c>
       <c r="I103" s="1">
-        <f>G103-H103</f>
         <v>3</v>
       </c>
       <c r="J103">
@@ -6207,7 +6227,7 @@
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6233,7 +6253,6 @@
         <v>18</v>
       </c>
       <c r="I104" s="1">
-        <f>G104-H104</f>
         <v>4</v>
       </c>
       <c r="J104">
@@ -6248,7 +6267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="1" customFormat="1">
+    <row r="105" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6274,7 +6293,6 @@
         <v>20</v>
       </c>
       <c r="I105" s="1">
-        <f>G105-H105</f>
         <v>4</v>
       </c>
       <c r="J105">
@@ -6294,7 +6312,7 @@
       <c r="P105"/>
       <c r="Q105"/>
     </row>
-    <row r="106" spans="1:19" s="1" customFormat="1">
+    <row r="106" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6320,7 +6338,6 @@
         <v>19</v>
       </c>
       <c r="I106" s="1">
-        <f>G106-H106</f>
         <v>5</v>
       </c>
       <c r="J106">
@@ -6340,7 +6357,7 @@
       <c r="P106"/>
       <c r="Q106"/>
     </row>
-    <row r="107" spans="1:19" s="1" customFormat="1">
+    <row r="107" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6366,7 +6383,6 @@
         <v>17</v>
       </c>
       <c r="I107" s="1">
-        <f>G107-H107</f>
         <v>5</v>
       </c>
       <c r="J107">
@@ -6381,7 +6397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6407,7 +6423,6 @@
         <v>12</v>
       </c>
       <c r="I108" s="1">
-        <f>G108-H108</f>
         <v>3</v>
       </c>
       <c r="J108">
@@ -6427,7 +6442,7 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6453,7 +6468,6 @@
         <v>20</v>
       </c>
       <c r="I109" s="1">
-        <f>G109-H109</f>
         <v>6</v>
       </c>
       <c r="J109">
@@ -6473,7 +6487,7 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:19" s="1" customFormat="1">
+    <row r="110" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6499,7 +6513,6 @@
         <v>10</v>
       </c>
       <c r="I110" s="1">
-        <f>G110-H110</f>
         <v>6</v>
       </c>
       <c r="J110">
@@ -6514,7 +6527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="1" customFormat="1">
+    <row r="111" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6540,7 +6553,6 @@
         <v>20</v>
       </c>
       <c r="I111" s="1">
-        <f>G111-H111</f>
         <v>4</v>
       </c>
       <c r="J111">
@@ -6555,7 +6567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:19" s="1" customFormat="1">
+    <row r="112" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6581,7 +6593,6 @@
         <v>15</v>
       </c>
       <c r="I112" s="1">
-        <f>G112-H112</f>
         <v>6</v>
       </c>
       <c r="J112">
@@ -6596,7 +6607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6622,7 +6633,6 @@
         <v>15</v>
       </c>
       <c r="I113" s="1">
-        <f>G113-H113</f>
         <v>4</v>
       </c>
       <c r="J113">
@@ -6637,7 +6647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6663,7 +6673,6 @@
         <v>13</v>
       </c>
       <c r="I114" s="1">
-        <f>G114-H114</f>
         <v>6</v>
       </c>
       <c r="J114">
@@ -6678,7 +6687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6704,7 +6713,6 @@
         <v>24</v>
       </c>
       <c r="I115" s="1">
-        <f>G115-H115</f>
         <v>6</v>
       </c>
       <c r="J115">
@@ -6719,7 +6727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6745,7 +6753,6 @@
         <v>30</v>
       </c>
       <c r="I116" s="1">
-        <f>G116-H116</f>
         <v>6</v>
       </c>
       <c r="J116">
@@ -6760,7 +6767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6786,7 +6793,6 @@
         <v>60</v>
       </c>
       <c r="I117" s="1">
-        <f>G117-H117</f>
         <v>6</v>
       </c>
       <c r="J117">
@@ -6804,7 +6810,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6830,7 +6836,6 @@
         <v>53</v>
       </c>
       <c r="I118" s="1">
-        <f>G118-H118</f>
         <v>6</v>
       </c>
       <c r="J118">
@@ -6845,7 +6850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6871,7 +6876,6 @@
         <v>28</v>
       </c>
       <c r="I119" s="1">
-        <f>G119-H119</f>
         <v>3</v>
       </c>
       <c r="J119">
@@ -6886,7 +6890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6912,7 +6916,6 @@
         <v>24</v>
       </c>
       <c r="I120" s="1">
-        <f>G120-H120</f>
         <v>5</v>
       </c>
       <c r="J120">
@@ -6927,7 +6930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6953,7 +6956,6 @@
         <v>17</v>
       </c>
       <c r="I121" s="1">
-        <f>G121-H121</f>
         <v>5</v>
       </c>
       <c r="J121">
@@ -6968,7 +6970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6994,7 +6996,6 @@
         <v>20</v>
       </c>
       <c r="I122" s="1">
-        <f>G122-H122</f>
         <v>5</v>
       </c>
       <c r="J122">
@@ -7008,8 +7009,11 @@
         <f>N122-P122</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:17">
+      <c r="Q122" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7035,7 +7039,6 @@
         <v>8</v>
       </c>
       <c r="I123" s="1">
-        <f>G123-H123</f>
         <v>3</v>
       </c>
       <c r="J123">
@@ -7050,7 +7053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:17" s="1" customFormat="1">
+    <row r="124" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7076,7 +7079,6 @@
         <v>20</v>
       </c>
       <c r="I124" s="1">
-        <f>G124-H124</f>
         <v>3</v>
       </c>
       <c r="J124">
@@ -7091,7 +7093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:17" s="1" customFormat="1">
+    <row r="125" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7117,7 +7119,6 @@
         <v>37</v>
       </c>
       <c r="I125" s="1">
-        <f>G125-H125</f>
         <v>3</v>
       </c>
       <c r="J125">
@@ -7132,7 +7133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:17" s="1" customFormat="1">
+    <row r="126" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7158,7 +7159,6 @@
         <v>18</v>
       </c>
       <c r="I126" s="1">
-        <f>G126-H126</f>
         <v>4</v>
       </c>
       <c r="J126">
@@ -7173,7 +7173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:17" s="1" customFormat="1">
+    <row r="127" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7199,7 +7199,6 @@
         <v>16</v>
       </c>
       <c r="I127" s="1">
-        <f>G127-H127</f>
         <v>5</v>
       </c>
       <c r="J127">
@@ -7214,9 +7213,894 @@
         <v>5</v>
       </c>
     </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="5">
+        <v>43397</v>
+      </c>
+      <c r="C128" s="1">
+        <v>3798</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128" s="1">
+        <v>22</v>
+      </c>
+      <c r="H128" s="1">
+        <v>18</v>
+      </c>
+      <c r="I128" s="1">
+        <v>4</v>
+      </c>
+      <c r="J128">
+        <f>I128-K128-L128</f>
+        <v>4</v>
+      </c>
+      <c r="N128" s="1">
+        <v>5</v>
+      </c>
+      <c r="O128" s="1">
+        <f>N128-P128</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="5">
+        <v>43398</v>
+      </c>
+      <c r="C129" s="1">
+        <v>9747</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" s="1">
+        <v>17</v>
+      </c>
+      <c r="H129" s="1">
+        <v>12</v>
+      </c>
+      <c r="I129" s="1">
+        <v>5</v>
+      </c>
+      <c r="J129">
+        <f>I129-K129-L129</f>
+        <v>5</v>
+      </c>
+      <c r="N129" s="1">
+        <v>5</v>
+      </c>
+      <c r="O129" s="1">
+        <f>N129-P129</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="5">
+        <v>43403</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2367</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="1">
+        <v>20</v>
+      </c>
+      <c r="H130" s="1">
+        <v>17</v>
+      </c>
+      <c r="I130" s="1">
+        <v>3</v>
+      </c>
+      <c r="J130">
+        <f>I130-K130-L130</f>
+        <v>3</v>
+      </c>
+      <c r="N130" s="1">
+        <v>5</v>
+      </c>
+      <c r="O130" s="1">
+        <f>N130-P130</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="5">
+        <v>43403</v>
+      </c>
+      <c r="C131" s="1">
+        <v>5030</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" s="1">
+        <v>29</v>
+      </c>
+      <c r="H131" s="1">
+        <v>24</v>
+      </c>
+      <c r="I131" s="1">
+        <v>5</v>
+      </c>
+      <c r="J131">
+        <f>I131-K131-L131</f>
+        <v>5</v>
+      </c>
+      <c r="N131" s="1">
+        <v>5</v>
+      </c>
+      <c r="O131" s="1">
+        <f>N131-P131</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="5">
+        <v>43405</v>
+      </c>
+      <c r="C132" s="1">
+        <v>19</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132" s="1">
+        <v>21</v>
+      </c>
+      <c r="H132" s="1">
+        <v>17</v>
+      </c>
+      <c r="I132" s="1">
+        <v>4</v>
+      </c>
+      <c r="J132">
+        <f>I132-K132-L132</f>
+        <v>4</v>
+      </c>
+      <c r="N132" s="1">
+        <v>5</v>
+      </c>
+      <c r="O132" s="1">
+        <f>N132-P132</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="5">
+        <v>43406</v>
+      </c>
+      <c r="C133" s="1">
+        <v>134</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G133" s="1">
+        <v>20</v>
+      </c>
+      <c r="H133" s="1">
+        <v>17</v>
+      </c>
+      <c r="I133" s="1">
+        <v>3</v>
+      </c>
+      <c r="J133">
+        <f>I133-K133-L133</f>
+        <v>3</v>
+      </c>
+      <c r="N133" s="1">
+        <v>4</v>
+      </c>
+      <c r="O133" s="1">
+        <f>N133-P133</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="5">
+        <v>43408</v>
+      </c>
+      <c r="C134" s="1">
+        <v>169</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" s="1">
+        <v>29</v>
+      </c>
+      <c r="H134" s="1">
+        <v>24</v>
+      </c>
+      <c r="I134" s="1">
+        <v>5</v>
+      </c>
+      <c r="J134">
+        <f>I134-K134-L134</f>
+        <v>5</v>
+      </c>
+      <c r="N134" s="1">
+        <v>5</v>
+      </c>
+      <c r="O134" s="1">
+        <f>N134-P134</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="5">
+        <v>43409</v>
+      </c>
+      <c r="C135" s="1">
+        <v>56179</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G135" s="1">
+        <v>20</v>
+      </c>
+      <c r="H135" s="1">
+        <v>17</v>
+      </c>
+      <c r="I135" s="1">
+        <v>3</v>
+      </c>
+      <c r="J135">
+        <f>I135-K135-L135</f>
+        <v>3</v>
+      </c>
+      <c r="N135" s="1">
+        <v>4</v>
+      </c>
+      <c r="O135" s="1">
+        <f>N135-P135</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="5">
+        <v>43411</v>
+      </c>
+      <c r="C136" s="1">
+        <v>188</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" s="1">
+        <v>26</v>
+      </c>
+      <c r="H136" s="1">
+        <v>22</v>
+      </c>
+      <c r="I136" s="1">
+        <v>4</v>
+      </c>
+      <c r="J136">
+        <f>I136-K136-L136</f>
+        <v>4</v>
+      </c>
+      <c r="N136" s="1">
+        <v>5</v>
+      </c>
+      <c r="O136" s="1">
+        <f>N136-P136</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="5">
+        <v>43412</v>
+      </c>
+      <c r="C137" s="1">
+        <v>189</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G137" s="1">
+        <v>23</v>
+      </c>
+      <c r="H137" s="1">
+        <v>20</v>
+      </c>
+      <c r="I137" s="1">
+        <v>3</v>
+      </c>
+      <c r="J137">
+        <f>I137-K137-L137</f>
+        <v>3</v>
+      </c>
+      <c r="N137" s="1">
+        <v>5</v>
+      </c>
+      <c r="O137" s="1">
+        <f>N137-P137</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="5">
+        <v>43413</v>
+      </c>
+      <c r="C138" s="1">
+        <v>14368</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="1">
+        <v>40</v>
+      </c>
+      <c r="H138" s="1">
+        <v>37</v>
+      </c>
+      <c r="I138" s="1">
+        <v>3</v>
+      </c>
+      <c r="J138">
+        <f>I138-K138-L138</f>
+        <v>3</v>
+      </c>
+      <c r="N138" s="1">
+        <v>5</v>
+      </c>
+      <c r="O138" s="1">
+        <f>N138-P138</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="5">
+        <v>43427</v>
+      </c>
+      <c r="C139" s="1">
+        <v>3997</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="1">
+        <v>20</v>
+      </c>
+      <c r="H139" s="1">
+        <v>15</v>
+      </c>
+      <c r="I139" s="1">
+        <v>5</v>
+      </c>
+      <c r="J139">
+        <f>I139-K139-L139</f>
+        <v>5</v>
+      </c>
+      <c r="N139" s="1">
+        <v>5</v>
+      </c>
+      <c r="O139" s="1">
+        <f>N139-P139</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="5">
+        <v>43454</v>
+      </c>
+      <c r="C140" s="1">
+        <v>4179</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G140" s="1">
+        <v>21</v>
+      </c>
+      <c r="H140" s="1">
+        <v>15</v>
+      </c>
+      <c r="I140" s="1">
+        <v>6</v>
+      </c>
+      <c r="J140">
+        <f>I140-K140-L140</f>
+        <v>6</v>
+      </c>
+      <c r="N140" s="1">
+        <v>5</v>
+      </c>
+      <c r="O140" s="1">
+        <f>N140-P140</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="5">
+        <v>43459</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1891</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" s="1">
+        <v>20</v>
+      </c>
+      <c r="H141" s="1">
+        <v>16</v>
+      </c>
+      <c r="I141" s="1">
+        <v>4</v>
+      </c>
+      <c r="J141">
+        <f>I141-K141-L141</f>
+        <v>4</v>
+      </c>
+      <c r="N141" s="1">
+        <v>5</v>
+      </c>
+      <c r="O141" s="1">
+        <f>N141-P141</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="5">
+        <v>43474</v>
+      </c>
+      <c r="C142" s="1">
+        <v>64393</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G142" s="1">
+        <v>15</v>
+      </c>
+      <c r="H142" s="1">
+        <v>10</v>
+      </c>
+      <c r="I142" s="1">
+        <v>5</v>
+      </c>
+      <c r="J142">
+        <f>I142-K142-L142</f>
+        <v>5</v>
+      </c>
+      <c r="N142">
+        <v>6</v>
+      </c>
+      <c r="O142" s="1">
+        <f>N142-P142</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="5">
+        <v>43477</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G143" s="1">
+        <v>20</v>
+      </c>
+      <c r="H143" s="1">
+        <v>17</v>
+      </c>
+      <c r="I143" s="1">
+        <v>3</v>
+      </c>
+      <c r="J143">
+        <f>I143-K143-L143</f>
+        <v>3</v>
+      </c>
+      <c r="N143">
+        <v>5</v>
+      </c>
+      <c r="O143" s="1">
+        <f>N143-P143</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="5">
+        <v>43478</v>
+      </c>
+      <c r="C144" s="1">
+        <v>29</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G144" s="1">
+        <v>22</v>
+      </c>
+      <c r="H144" s="1">
+        <v>18</v>
+      </c>
+      <c r="I144" s="1">
+        <v>4</v>
+      </c>
+      <c r="J144">
+        <f>I144-K144-L144</f>
+        <v>4</v>
+      </c>
+      <c r="N144" s="1">
+        <v>5</v>
+      </c>
+      <c r="O144" s="1">
+        <f>N144-P144</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="5">
+        <v>43483</v>
+      </c>
+      <c r="C145" s="1">
+        <v>6724</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" s="1">
+        <v>20</v>
+      </c>
+      <c r="H145" s="1">
+        <v>14</v>
+      </c>
+      <c r="I145" s="1">
+        <v>6</v>
+      </c>
+      <c r="J145">
+        <f>I145-K145-L145</f>
+        <v>6</v>
+      </c>
+      <c r="N145" s="1">
+        <v>6</v>
+      </c>
+      <c r="O145" s="1">
+        <f>N145-P145</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="5">
+        <v>43484</v>
+      </c>
+      <c r="C146" s="1">
+        <v>179</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G146" s="1">
+        <v>22</v>
+      </c>
+      <c r="H146" s="1">
+        <v>17</v>
+      </c>
+      <c r="I146" s="1">
+        <v>5</v>
+      </c>
+      <c r="J146">
+        <f>I146-K146-L146</f>
+        <v>5</v>
+      </c>
+      <c r="N146" s="1">
+        <v>5</v>
+      </c>
+      <c r="O146" s="1">
+        <f>N146-P146</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="5">
+        <v>43485</v>
+      </c>
+      <c r="C147" s="1">
+        <v>241</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147" s="1">
+        <v>20</v>
+      </c>
+      <c r="H147" s="1">
+        <v>15</v>
+      </c>
+      <c r="I147" s="1">
+        <v>5</v>
+      </c>
+      <c r="J147">
+        <f>I147-K147-L147</f>
+        <v>5</v>
+      </c>
+      <c r="N147" s="1">
+        <v>5</v>
+      </c>
+      <c r="O147" s="1">
+        <f>N147-P147</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="5">
+        <v>43486</v>
+      </c>
+      <c r="C148" s="1">
+        <v>7196</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148" s="1">
+        <v>34</v>
+      </c>
+      <c r="H148" s="1">
+        <v>30</v>
+      </c>
+      <c r="I148" s="1">
+        <v>4</v>
+      </c>
+      <c r="J148">
+        <f>I148-K148-L148</f>
+        <v>4</v>
+      </c>
+      <c r="N148" s="1">
+        <v>6</v>
+      </c>
+      <c r="O148" s="1">
+        <f>N148-P148</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="5">
+        <v>43486</v>
+      </c>
+      <c r="C149" s="1">
+        <v>64776</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G149" s="1">
+        <v>46</v>
+      </c>
+      <c r="H149" s="1">
+        <v>40</v>
+      </c>
+      <c r="I149" s="1">
+        <v>6</v>
+      </c>
+      <c r="J149">
+        <f>I149-K149-L149</f>
+        <v>6</v>
+      </c>
+      <c r="N149">
+        <v>5</v>
+      </c>
+      <c r="O149" s="1">
+        <f>N149-P149</f>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A3:Q127">
-    <sortCondition ref="B112"/>
+  <autoFilter ref="A2:Q149">
+    <sortState ref="A3:Q149">
+      <sortCondition ref="A2:A149"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A3:Q149">
+    <sortCondition ref="C3"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
@@ -7243,31 +8127,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A24:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B24" s="6">
         <f>COUNTA(列表!$C:$C)-1</f>
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B25" s="3">
         <f>COUNTIF(列表!$Q:$Q,C25)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>165</v>

--- a/MarriageRecorder.xlsx
+++ b/MarriageRecorder.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="269">
   <si>
     <t>舰 ID</t>
   </si>
@@ -857,6 +857,72 @@
   </si>
   <si>
     <t>满潮改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電改</t>
+  </si>
+  <si>
+    <t>电改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>島風改</t>
+  </si>
+  <si>
+    <t>岛风改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿賀野改</t>
+  </si>
+  <si>
+    <t>能代改</t>
+  </si>
+  <si>
+    <t>秋津洲改</t>
+  </si>
+  <si>
+    <t>阿贺野改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能代改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山風改</t>
+  </si>
+  <si>
+    <t>山风改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍田改二</t>
+  </si>
+  <si>
+    <t>龙田改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多摩改二</t>
+  </si>
+  <si>
+    <t>風雲改二</t>
+  </si>
+  <si>
+    <t>嵐改</t>
+  </si>
+  <si>
+    <t>岚改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多摩改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风云改二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1850,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V149"/>
+  <dimension ref="A1:V159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3252,120 +3318,120 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>31</v>
+      <c r="A33" s="7">
+        <v>32</v>
       </c>
       <c r="B33" s="5">
         <v>42883</v>
       </c>
       <c r="C33" s="8">
-        <v>22757</v>
+        <v>1418</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="G33" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H33" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J33">
         <f>I33-K33-L33</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O33" s="1">
         <f>N33-P33</f>
-        <v>6</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>32</v>
+      <c r="A34">
+        <v>31</v>
       </c>
       <c r="B34" s="5">
         <v>42883</v>
       </c>
       <c r="C34" s="8">
-        <v>1418</v>
+        <v>22757</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G34" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H34" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I34" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J34">
         <f>I34-K34-L34</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O34" s="1">
         <f>N34-P34</f>
-        <v>8</v>
-      </c>
-      <c r="Q34" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>33</v>
+      <c r="A35" s="7">
+        <v>34</v>
       </c>
       <c r="B35" s="5">
         <v>42884</v>
       </c>
       <c r="C35" s="8">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H35" s="1">
         <v>13</v>
       </c>
       <c r="I35" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J35">
         <f>I35-K35-L35</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" s="1">
         <v>7</v>
@@ -3377,36 +3443,36 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>34</v>
+      <c r="A36">
+        <v>33</v>
       </c>
       <c r="B36" s="5">
         <v>42884</v>
       </c>
       <c r="C36" s="8">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H36" s="1">
         <v>13</v>
       </c>
       <c r="I36" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36">
         <f>I36-K36-L36</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N36" s="1">
         <v>7</v>
@@ -3464,36 +3530,36 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>36</v>
+      <c r="A38">
+        <v>37</v>
       </c>
       <c r="B38" s="5">
         <v>42886</v>
       </c>
       <c r="C38" s="8">
-        <v>289</v>
+        <v>176</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G38" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H38" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I38" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J38">
         <f>I38-K38-L38</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" s="1">
         <v>8</v>
@@ -3507,36 +3573,36 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>37</v>
+      <c r="A39" s="7">
+        <v>36</v>
       </c>
       <c r="B39" s="5">
         <v>42886</v>
       </c>
       <c r="C39" s="8">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G39" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H39" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I39" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J39">
         <f>I39-K39-L39</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39" s="1">
         <v>8</v>
@@ -5143,91 +5209,93 @@
       <c r="Q77" s="1"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
-        <v>76</v>
+      <c r="A78">
+        <v>77</v>
       </c>
       <c r="B78" s="5">
         <v>43215</v>
       </c>
       <c r="C78" s="8">
-        <v>36549</v>
+        <v>2780</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="G78" s="1">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H78" s="1">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I78" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J78">
         <f>I78-K78-L78</f>
-        <v>6</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N78" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O78" s="1">
         <f>N78-P78</f>
-        <v>5</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="Q78" s="1"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>77</v>
+      <c r="A79" s="7">
+        <v>76</v>
       </c>
       <c r="B79" s="5">
         <v>43215</v>
       </c>
       <c r="C79" s="8">
-        <v>2780</v>
+        <v>36549</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="1">
         <v>49</v>
       </c>
-      <c r="G79" s="1">
-        <v>20</v>
-      </c>
       <c r="H79" s="1">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I79" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J79">
         <f>I79-K79-L79</f>
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
       </c>
       <c r="N79" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O79" s="1">
-        <f>N79-P79</f>
-        <v>7</v>
-      </c>
-      <c r="Q79" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
@@ -5599,111 +5667,111 @@
       <c r="Q88" s="1"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>87</v>
+      <c r="A89" s="7">
+        <v>88</v>
       </c>
       <c r="B89" s="5">
         <v>43256</v>
       </c>
       <c r="C89" s="8">
-        <v>2790</v>
+        <v>2687</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G89" s="1">
+        <v>25</v>
+      </c>
+      <c r="H89" s="1">
         <v>19</v>
       </c>
-      <c r="H89" s="1">
-        <v>16</v>
-      </c>
       <c r="I89" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J89">
         <f>I89-K89-L89</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N89" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O89" s="1">
         <f>N89-P89</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q89" s="1"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90" s="7">
-        <v>88</v>
+      <c r="A90">
+        <v>87</v>
       </c>
       <c r="B90" s="5">
         <v>43256</v>
       </c>
       <c r="C90" s="8">
-        <v>2687</v>
+        <v>2790</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G90" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H90" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I90" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J90">
         <f>I90-K90-L90</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N90" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O90" s="1">
         <f>N90-P90</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q90" s="1"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>89</v>
+      <c r="A91" s="7">
+        <v>90</v>
       </c>
       <c r="B91" s="5">
         <v>43259</v>
       </c>
       <c r="C91" s="8">
-        <v>15147</v>
+        <v>16</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G91" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H91" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I91" s="1">
         <v>4</v>
@@ -5713,38 +5781,38 @@
         <v>4</v>
       </c>
       <c r="N91" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O91" s="1">
         <f>N91-P91</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q91" s="1"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" s="7">
-        <v>90</v>
+      <c r="A92">
+        <v>89</v>
       </c>
       <c r="B92" s="5">
         <v>43259</v>
       </c>
       <c r="C92" s="8">
-        <v>16</v>
+        <v>15147</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="G92" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H92" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I92" s="1">
         <v>4</v>
@@ -5754,11 +5822,11 @@
         <v>4</v>
       </c>
       <c r="N92" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O92" s="1">
         <f>N92-P92</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q92" s="1"/>
     </row>
@@ -5970,29 +6038,29 @@
       <c r="Q97" s="1"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="7">
-        <v>96</v>
+      <c r="A98">
+        <v>99</v>
       </c>
       <c r="B98" s="5">
         <v>43278</v>
       </c>
       <c r="C98" s="8">
-        <v>38759</v>
+        <v>50</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G98" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H98" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I98" s="1">
         <v>5</v>
@@ -6002,56 +6070,54 @@
         <v>5</v>
       </c>
       <c r="N98" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O98" s="1">
         <f>N98-P98</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q98" s="1"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>97</v>
+      <c r="A99" s="7">
+        <v>100</v>
       </c>
       <c r="B99" s="5">
         <v>43278</v>
       </c>
       <c r="C99" s="8">
-        <v>37266</v>
+        <v>54</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="G99" s="1">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H99" s="1">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="I99" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J99">
         <f>I99-K99-L99</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N99" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O99" s="1">
         <f>N99-P99</f>
-        <v>9</v>
-      </c>
-      <c r="Q99" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q99" s="1"/>
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
     </row>
@@ -6100,28 +6166,28 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B101" s="5">
         <v>43278</v>
       </c>
       <c r="C101" s="8">
-        <v>50</v>
+        <v>37266</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="G101" s="1">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H101" s="1">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I101" s="1">
         <v>5</v>
@@ -6131,54 +6197,56 @@
         <v>5</v>
       </c>
       <c r="N101" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O101" s="1">
         <f>N101-P101</f>
-        <v>4</v>
-      </c>
-      <c r="Q101" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B102" s="5">
         <v>43278</v>
       </c>
       <c r="C102" s="8">
-        <v>54</v>
+        <v>38759</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G102" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H102" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I102" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J102">
         <f>I102-K102-L102</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N102" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O102" s="1">
         <f>N102-P102</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q102" s="1"/>
       <c r="R102" s="5"/>
@@ -6609,82 +6677,82 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="5">
         <v>43365</v>
       </c>
       <c r="C113" s="1">
-        <v>56056</v>
+        <v>8279</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="G113" s="1">
         <v>19</v>
       </c>
       <c r="H113" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I113" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J113">
         <f>I113-K113-L113</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N113" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O113" s="1">
         <f>N113-P113</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="5">
         <v>43365</v>
       </c>
       <c r="C114" s="1">
-        <v>8279</v>
+        <v>56056</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="G114" s="1">
         <v>19</v>
       </c>
       <c r="H114" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I114" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J114">
         <f>I114-K114-L114</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N114" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O114" s="1">
         <f>N114-P114</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
@@ -7020,7 +7088,7 @@
       <c r="B123" s="5">
         <v>43392</v>
       </c>
-      <c r="C123" s="10">
+      <c r="C123" s="1">
         <v>9248</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -7095,35 +7163,35 @@
     </row>
     <row r="125" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="11">
         <v>43395</v>
       </c>
       <c r="C125" s="1">
-        <v>32856</v>
+        <v>2466</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G125" s="1">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H125" s="1">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I125" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J125">
         <f>I125-K125-L125</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N125" s="1">
         <v>5</v>
@@ -7135,35 +7203,35 @@
     </row>
     <row r="126" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" s="11">
         <v>43395</v>
       </c>
       <c r="C126" s="1">
-        <v>2466</v>
+        <v>32856</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G126" s="1">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H126" s="1">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I126" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J126">
         <f>I126-K126-L126</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N126" s="1">
         <v>5</v>
@@ -8093,14 +8161,414 @@
         <v>5</v>
       </c>
     </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="5">
+        <v>43497</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G150" s="1">
+        <v>15</v>
+      </c>
+      <c r="H150" s="1">
+        <v>12</v>
+      </c>
+      <c r="I150" s="1">
+        <v>3</v>
+      </c>
+      <c r="J150">
+        <f>I150-K150-L150</f>
+        <v>3</v>
+      </c>
+      <c r="N150">
+        <v>5</v>
+      </c>
+      <c r="O150" s="1">
+        <f>N150-P150</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="5">
+        <v>43499</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2235</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G151" s="1">
+        <v>18</v>
+      </c>
+      <c r="H151" s="1">
+        <v>12</v>
+      </c>
+      <c r="I151" s="1">
+        <v>6</v>
+      </c>
+      <c r="J151">
+        <f>I151-K151-L151</f>
+        <v>6</v>
+      </c>
+      <c r="N151" s="1">
+        <v>5</v>
+      </c>
+      <c r="O151" s="1">
+        <f>N151-P151</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="5">
+        <v>43503</v>
+      </c>
+      <c r="C152" s="1">
+        <v>2682</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" s="1">
+        <v>15</v>
+      </c>
+      <c r="H152" s="1">
+        <v>10</v>
+      </c>
+      <c r="I152" s="1">
+        <v>5</v>
+      </c>
+      <c r="J152">
+        <f>I152-K152-L152</f>
+        <v>5</v>
+      </c>
+      <c r="N152" s="1">
+        <v>6</v>
+      </c>
+      <c r="O152" s="1">
+        <f>N152-P152</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="5">
+        <v>43503</v>
+      </c>
+      <c r="C153" s="1">
+        <v>9765</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G153" s="1">
+        <v>20</v>
+      </c>
+      <c r="H153" s="1">
+        <v>14</v>
+      </c>
+      <c r="I153" s="1">
+        <v>6</v>
+      </c>
+      <c r="J153">
+        <f>I153-K153-L153</f>
+        <v>6</v>
+      </c>
+      <c r="N153" s="1">
+        <v>5</v>
+      </c>
+      <c r="O153" s="1">
+        <f>N153-P153</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="5">
+        <v>43508</v>
+      </c>
+      <c r="C154" s="1">
+        <v>3403</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" s="1">
+        <v>16</v>
+      </c>
+      <c r="H154" s="1">
+        <v>10</v>
+      </c>
+      <c r="I154" s="1">
+        <v>6</v>
+      </c>
+      <c r="J154">
+        <f>I154-K154-L154</f>
+        <v>6</v>
+      </c>
+      <c r="N154" s="1">
+        <v>6</v>
+      </c>
+      <c r="O154" s="1">
+        <f>N154-P154</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="5">
+        <v>43508</v>
+      </c>
+      <c r="C155" s="1">
+        <v>17044</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G155" s="1">
+        <v>11</v>
+      </c>
+      <c r="H155" s="1">
+        <v>8</v>
+      </c>
+      <c r="I155" s="1">
+        <v>3</v>
+      </c>
+      <c r="J155">
+        <f>I155-K155-L155</f>
+        <v>3</v>
+      </c>
+      <c r="N155" s="1">
+        <v>5</v>
+      </c>
+      <c r="O155" s="1">
+        <f>N155-P155</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="5">
+        <v>43511</v>
+      </c>
+      <c r="C156" s="1">
+        <v>37</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" s="1">
+        <v>24</v>
+      </c>
+      <c r="H156" s="1">
+        <v>18</v>
+      </c>
+      <c r="I156" s="1">
+        <v>6</v>
+      </c>
+      <c r="J156">
+        <f>I156-K156-L156</f>
+        <v>6</v>
+      </c>
+      <c r="N156" s="1">
+        <v>6</v>
+      </c>
+      <c r="O156" s="1">
+        <f>N156-P156</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="5">
+        <v>43517</v>
+      </c>
+      <c r="C157" s="1">
+        <v>6942</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G157" s="1">
+        <v>17</v>
+      </c>
+      <c r="H157" s="1">
+        <v>12</v>
+      </c>
+      <c r="I157" s="1">
+        <v>5</v>
+      </c>
+      <c r="J157">
+        <f>I157-K157-L157</f>
+        <v>5</v>
+      </c>
+      <c r="N157" s="1">
+        <v>5</v>
+      </c>
+      <c r="O157" s="1">
+        <f>N157-P157</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="5">
+        <v>43519</v>
+      </c>
+      <c r="C158" s="1">
+        <v>3662</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G158" s="1">
+        <v>25</v>
+      </c>
+      <c r="H158" s="1">
+        <v>20</v>
+      </c>
+      <c r="I158" s="1">
+        <v>5</v>
+      </c>
+      <c r="J158">
+        <f>I158-K158-L158</f>
+        <v>5</v>
+      </c>
+      <c r="N158" s="1">
+        <v>5</v>
+      </c>
+      <c r="O158" s="1">
+        <f>N158-P158</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="5">
+        <v>43521</v>
+      </c>
+      <c r="C159" s="1">
+        <v>14</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159" s="1">
+        <v>17</v>
+      </c>
+      <c r="H159" s="1">
+        <v>13</v>
+      </c>
+      <c r="I159" s="1">
+        <v>4</v>
+      </c>
+      <c r="J159">
+        <f>I159-K159-L159</f>
+        <v>4</v>
+      </c>
+      <c r="N159" s="1">
+        <v>6</v>
+      </c>
+      <c r="O159" s="1">
+        <f>N159-P159</f>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:Q149">
-    <sortState ref="A3:Q149">
-      <sortCondition ref="A2:A149"/>
+    <sortState ref="A3:Q159">
+      <sortCondition ref="B2:B149"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A3:Q149">
-    <sortCondition ref="C3"/>
+  <sortState ref="A3:Q159">
+    <sortCondition ref="A139"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
@@ -8128,7 +8596,7 @@
   <dimension ref="A24:C25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8139,7 +8607,7 @@
       </c>
       <c r="B24" s="6">
         <f>COUNTA(列表!$C:$C)-1</f>
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>164</v>

--- a/MarriageRecorder.xlsx
+++ b/MarriageRecorder.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="列表" sheetId="1" r:id="rId1"/>
     <sheet name="统计" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">列表!$A$2:$Q$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">列表!$A$2:$Q$165</definedName>
     <definedName name="_xlchart.0" hidden="1">列表!$B$3:$B$200</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="285">
   <si>
     <t>舰 ID</t>
   </si>
@@ -248,681 +248,743 @@
     <t>由良改二</t>
   </si>
   <si>
-    <t>陸奥改</t>
-  </si>
-  <si>
-    <t>日向改</t>
-  </si>
-  <si>
     <t>時雨改二</t>
   </si>
   <si>
+    <t>大和改</t>
+  </si>
+  <si>
+    <t>利根改二</t>
+  </si>
+  <si>
+    <t>航空巡洋艦</t>
+  </si>
+  <si>
+    <t>照月改</t>
+  </si>
+  <si>
+    <t>大鳳</t>
+  </si>
+  <si>
+    <t>筑摩改二</t>
+  </si>
+  <si>
+    <t>鬼怒改二</t>
+  </si>
+  <si>
+    <t>熊野改二</t>
+  </si>
+  <si>
+    <t>加賀改</t>
+  </si>
+  <si>
+    <t>最上改</t>
+  </si>
+  <si>
+    <t>五十鈴改二</t>
+  </si>
+  <si>
+    <t>Libeccio改</t>
+  </si>
+  <si>
+    <t>Intrepid改</t>
+  </si>
+  <si>
+    <t>三隈改</t>
+  </si>
+  <si>
+    <t>綾波改二</t>
+  </si>
+  <si>
+    <t>鈴谷改二</t>
+  </si>
+  <si>
+    <t>赤城改</t>
+  </si>
+  <si>
+    <t>神通改二</t>
+  </si>
+  <si>
+    <t>明石改</t>
+  </si>
+  <si>
+    <t>工作艦</t>
+  </si>
+  <si>
+    <t>祥鳳改</t>
+  </si>
+  <si>
+    <t>飛鷹改</t>
+  </si>
+  <si>
+    <t>Samuel B.Roberts改</t>
+  </si>
+  <si>
+    <t>飛龍改二</t>
+  </si>
+  <si>
+    <t>蒼龍改二</t>
+  </si>
+  <si>
+    <t>雲龍改</t>
+  </si>
+  <si>
+    <t>天城改</t>
+  </si>
+  <si>
+    <t>葛城改</t>
+  </si>
+  <si>
+    <t>川内改二</t>
+  </si>
+  <si>
+    <t>Graf Zeppelin改</t>
+  </si>
+  <si>
+    <t>瑞鶴改二</t>
+  </si>
+  <si>
+    <t>Iowa改</t>
+  </si>
+  <si>
+    <t>那珂改二</t>
+  </si>
+  <si>
+    <t>妙高改二</t>
+  </si>
+  <si>
+    <t>那智改二</t>
+  </si>
+  <si>
+    <t>潮改二</t>
+  </si>
+  <si>
+    <t>睦月改二</t>
+  </si>
+  <si>
+    <t>如月改二</t>
+  </si>
+  <si>
+    <t>江風改二</t>
+  </si>
+  <si>
+    <t>長波改二</t>
+  </si>
+  <si>
+    <t>Aquila改</t>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套环加运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马路油加运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加对潜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加总运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套环时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简体舰名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃谷航改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞凤改二乙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翔鹤改二甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞鹤改二甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鹰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鹰改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞凤改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大凤改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长门改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙骧改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾岛改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸟海改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隼鹰改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时雨改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大凤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加贺改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五十铃改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绫波改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃谷改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祥凤改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞鹰改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞龙改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍龙改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云龙改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞鹤改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江风改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长波改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海防加运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套环加耐久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海防加耐久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加总耐久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千岁航改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚舰列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝霜改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香取改</t>
+  </si>
+  <si>
+    <t>練習巡洋艦</t>
+  </si>
+  <si>
+    <t>鹿島改</t>
+  </si>
+  <si>
+    <t>朝霜改</t>
+  </si>
+  <si>
+    <t>朝潮改二</t>
+  </si>
+  <si>
+    <t>羽黒改二</t>
+  </si>
+  <si>
+    <t>羽黑改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足柄改二</t>
+  </si>
+  <si>
+    <t>足柄改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞穂改</t>
+  </si>
+  <si>
+    <t>瑞穗改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿岛改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水上機母艦</t>
+  </si>
+  <si>
+    <t>皋月改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皋月改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霰改二</t>
+  </si>
+  <si>
+    <t>霰改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神鹰改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋津丸改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙凤改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤翔改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪风改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初霜改二</t>
+  </si>
+  <si>
+    <t>初霜改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nelson改</t>
+  </si>
+  <si>
+    <t>Nelson改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gotland改</t>
+  </si>
+  <si>
+    <t>Gotland改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村雨改二</t>
+  </si>
+  <si>
+    <t>村雨改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪風改</t>
+  </si>
+  <si>
+    <t>Commandant Teste改</t>
+  </si>
+  <si>
+    <t>龍鳳改</t>
+  </si>
+  <si>
+    <t>鳳翔改</t>
+  </si>
+  <si>
+    <t>あきつ丸改</t>
+  </si>
+  <si>
+    <t>揚陸艦</t>
+  </si>
+  <si>
+    <t>神鷹改二</t>
+  </si>
+  <si>
+    <t>初月改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白露改二</t>
+  </si>
+  <si>
+    <t>涼月改</t>
+  </si>
+  <si>
+    <t>夕雲改二</t>
+  </si>
+  <si>
+    <t>浜風乙改</t>
+  </si>
+  <si>
+    <t>白露改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉月改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夕云改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨风乙改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦風丁改</t>
+  </si>
+  <si>
+    <t>浦风丁改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋月改</t>
+  </si>
+  <si>
+    <t>秋月改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷風丁改</t>
+  </si>
+  <si>
+    <t>谷风丁改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磯風乙改</t>
+  </si>
+  <si>
+    <t>矶风乙改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大潮改二</t>
+  </si>
+  <si>
+    <t>大潮改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文月改二</t>
+  </si>
+  <si>
+    <t>不知火改二</t>
+  </si>
+  <si>
+    <t>Maestrale改</t>
+  </si>
+  <si>
+    <t>黒潮改二</t>
+  </si>
+  <si>
+    <t>黑潮改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽炎改二</t>
+  </si>
+  <si>
+    <t>阳炎改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霞改二乙</t>
+  </si>
+  <si>
+    <t>Z1 zwei</t>
+  </si>
+  <si>
+    <t>Z3 zwei</t>
+  </si>
+  <si>
+    <t>巻雲改二</t>
+  </si>
+  <si>
+    <t>卷云改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日進甲</t>
+  </si>
+  <si>
+    <t>日进甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矢矧改</t>
+  </si>
+  <si>
+    <t>酒匂改</t>
+  </si>
+  <si>
+    <t>吹雪改二</t>
+  </si>
+  <si>
+    <t>叢雲改二</t>
+  </si>
+  <si>
+    <t>丛云改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹雪改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johnston改</t>
+  </si>
+  <si>
+    <t>荒潮改二</t>
+  </si>
+  <si>
+    <t>満潮改二</t>
+  </si>
+  <si>
+    <t>满潮改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電改</t>
+  </si>
+  <si>
+    <t>电改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>島風改</t>
+  </si>
+  <si>
+    <t>岛风改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿賀野改</t>
+  </si>
+  <si>
+    <t>能代改</t>
+  </si>
+  <si>
+    <t>秋津洲改</t>
+  </si>
+  <si>
+    <t>阿贺野改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能代改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山風改</t>
+  </si>
+  <si>
+    <t>山风改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍田改二</t>
+  </si>
+  <si>
+    <t>龙田改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多摩改二</t>
+  </si>
+  <si>
+    <t>風雲改二</t>
+  </si>
+  <si>
+    <t>嵐改</t>
+  </si>
+  <si>
+    <t>岚改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多摩改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风云改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结婚语音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚后语音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球磨改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷改</t>
+  </si>
+  <si>
+    <t>雷改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞風改</t>
+  </si>
+  <si>
+    <t>岸波改</t>
+  </si>
+  <si>
+    <t>舞风改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岸波改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翔鶴改二</t>
+  </si>
+  <si>
+    <t>翔鹤改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木曾改二</t>
+  </si>
+  <si>
+    <t>木曾改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊势改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日向改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>伊勢改二</t>
-  </si>
-  <si>
-    <t>大和改</t>
-  </si>
-  <si>
-    <t>利根改二</t>
-  </si>
-  <si>
-    <t>航空巡洋艦</t>
-  </si>
-  <si>
-    <t>照月改</t>
-  </si>
-  <si>
-    <t>大鳳</t>
-  </si>
-  <si>
-    <t>筑摩改二</t>
-  </si>
-  <si>
-    <t>鬼怒改二</t>
-  </si>
-  <si>
-    <t>熊野改二</t>
-  </si>
-  <si>
-    <t>加賀改</t>
-  </si>
-  <si>
-    <t>最上改</t>
-  </si>
-  <si>
-    <t>五十鈴改二</t>
-  </si>
-  <si>
-    <t>Libeccio改</t>
-  </si>
-  <si>
-    <t>Intrepid改</t>
-  </si>
-  <si>
-    <t>三隈改</t>
-  </si>
-  <si>
-    <t>綾波改二</t>
-  </si>
-  <si>
-    <t>鈴谷改二</t>
-  </si>
-  <si>
-    <t>赤城改</t>
-  </si>
-  <si>
-    <t>神通改二</t>
-  </si>
-  <si>
-    <t>明石改</t>
-  </si>
-  <si>
-    <t>工作艦</t>
-  </si>
-  <si>
-    <t>祥鳳改</t>
-  </si>
-  <si>
-    <t>飛鷹改</t>
-  </si>
-  <si>
-    <t>Samuel B.Roberts改</t>
-  </si>
-  <si>
-    <t>飛龍改二</t>
-  </si>
-  <si>
-    <t>蒼龍改二</t>
-  </si>
-  <si>
-    <t>雲龍改</t>
-  </si>
-  <si>
-    <t>天城改</t>
-  </si>
-  <si>
-    <t>葛城改</t>
-  </si>
-  <si>
-    <t>川内改二</t>
-  </si>
-  <si>
-    <t>Graf Zeppelin改</t>
-  </si>
-  <si>
-    <t>瑞鶴改二</t>
-  </si>
-  <si>
-    <t>Iowa改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>那珂改二</t>
-  </si>
-  <si>
-    <t>妙高改二</t>
-  </si>
-  <si>
-    <t>那智改二</t>
-  </si>
-  <si>
-    <t>潮改二</t>
-  </si>
-  <si>
-    <t>睦月改二</t>
-  </si>
-  <si>
-    <t>如月改二</t>
-  </si>
-  <si>
-    <t>江風改二</t>
-  </si>
-  <si>
-    <t>長波改二</t>
-  </si>
-  <si>
-    <t>Aquila改</t>
-  </si>
-  <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套环加运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马路油加运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加对潜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加总运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套环时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简体舰名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铃谷航改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞凤改二乙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翔鹤改二甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞鹤改二甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鹰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鹰改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞凤改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大凤改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长门改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙骧改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雾岛改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸟海改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隼鹰改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆奥改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时雨改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊势改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大凤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加贺改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五十铃改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绫波改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铃谷改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祥凤改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞鹰改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞龙改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苍龙改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云龙改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞鹤改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江风改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长波改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海防加运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套环加耐久</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海防加耐久</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加总耐久</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千岁航改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婚舰列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝霜改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香取改</t>
-  </si>
-  <si>
-    <t>練習巡洋艦</t>
-  </si>
-  <si>
-    <t>鹿島改</t>
-  </si>
-  <si>
-    <t>朝霜改</t>
-  </si>
-  <si>
-    <t>朝潮改二</t>
-  </si>
-  <si>
-    <t>羽黒改二</t>
-  </si>
-  <si>
-    <t>羽黑改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>足柄改二</t>
-  </si>
-  <si>
-    <t>足柄改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞穂改</t>
-  </si>
-  <si>
-    <t>瑞穗改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹿岛改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水上機母艦</t>
-  </si>
-  <si>
-    <t>皋月改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皋月改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霰改二</t>
-  </si>
-  <si>
-    <t>霰改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神鹰改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋津丸改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙凤改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤翔改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪风改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初霜改二</t>
-  </si>
-  <si>
-    <t>初霜改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nelson改</t>
-  </si>
-  <si>
-    <t>Nelson改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gotland改</t>
-  </si>
-  <si>
-    <t>Gotland改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>村雨改二</t>
-  </si>
-  <si>
-    <t>村雨改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪風改</t>
-  </si>
-  <si>
-    <t>Commandant Teste改</t>
-  </si>
-  <si>
-    <t>龍鳳改</t>
-  </si>
-  <si>
-    <t>鳳翔改</t>
-  </si>
-  <si>
-    <t>あきつ丸改</t>
-  </si>
-  <si>
-    <t>揚陸艦</t>
-  </si>
-  <si>
-    <t>神鷹改二</t>
-  </si>
-  <si>
-    <t>初月改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白露改二</t>
-  </si>
-  <si>
-    <t>涼月改</t>
-  </si>
-  <si>
-    <t>夕雲改二</t>
-  </si>
-  <si>
-    <t>浜風乙改</t>
-  </si>
-  <si>
-    <t>白露改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凉月改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夕云改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨风乙改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦風丁改</t>
-  </si>
-  <si>
-    <t>浦风丁改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋月改</t>
-  </si>
-  <si>
-    <t>秋月改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷風丁改</t>
-  </si>
-  <si>
-    <t>谷风丁改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磯風乙改</t>
-  </si>
-  <si>
-    <t>矶风乙改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大潮改二</t>
-  </si>
-  <si>
-    <t>大潮改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文月改二</t>
-  </si>
-  <si>
-    <t>不知火改二</t>
-  </si>
-  <si>
-    <t>Maestrale改</t>
-  </si>
-  <si>
-    <t>黒潮改二</t>
-  </si>
-  <si>
-    <t>黑潮改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陽炎改二</t>
-  </si>
-  <si>
-    <t>阳炎改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霞改二乙</t>
-  </si>
-  <si>
-    <t>Z1 zwei</t>
-  </si>
-  <si>
-    <t>Z3 zwei</t>
-  </si>
-  <si>
-    <t>巻雲改二</t>
-  </si>
-  <si>
-    <t>卷云改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日進甲</t>
-  </si>
-  <si>
-    <t>日进甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矢矧改</t>
-  </si>
-  <si>
-    <t>酒匂改</t>
-  </si>
-  <si>
-    <t>吹雪改二</t>
-  </si>
-  <si>
-    <t>叢雲改二</t>
-  </si>
-  <si>
-    <t>丛云改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹雪改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Johnston改</t>
-  </si>
-  <si>
-    <t>荒潮改二</t>
-  </si>
-  <si>
-    <t>満潮改二</t>
-  </si>
-  <si>
-    <t>满潮改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電改</t>
-  </si>
-  <si>
-    <t>电改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>島風改</t>
-  </si>
-  <si>
-    <t>岛风改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿賀野改</t>
-  </si>
-  <si>
-    <t>能代改</t>
-  </si>
-  <si>
-    <t>秋津洲改</t>
-  </si>
-  <si>
-    <t>阿贺野改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能代改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山風改</t>
-  </si>
-  <si>
-    <t>山风改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龍田改二</t>
-  </si>
-  <si>
-    <t>龙田改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多摩改二</t>
-  </si>
-  <si>
-    <t>風雲改二</t>
-  </si>
-  <si>
-    <t>嵐改</t>
-  </si>
-  <si>
-    <t>岚改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多摩改二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风云改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸奥改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆奥改二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1916,32 +1978,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V159"/>
+  <dimension ref="A1:V165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="H71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
     <col min="4" max="6" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="7.25" customWidth="1"/>
-    <col min="14" max="14" width="10.125" customWidth="1"/>
+    <col min="14" max="14" width="10.08203125" customWidth="1"/>
     <col min="15" max="15" width="10.75" customWidth="1"/>
-    <col min="18" max="18" width="12.625" customWidth="1"/>
-    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.58203125" customWidth="1"/>
+    <col min="19" max="19" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1960,12 +2023,12 @@
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>0</v>
@@ -1974,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -1986,36 +2049,46 @@
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2044,7 +2117,7 @@
         <v>8</v>
       </c>
       <c r="J3">
-        <f>I3-K3-L3</f>
+        <f t="shared" ref="J3:J34" si="0">I3-K3-L3</f>
         <v>4</v>
       </c>
       <c r="L3">
@@ -2057,17 +2130,17 @@
         <v>6</v>
       </c>
       <c r="O3" s="1">
-        <f>N3-P3</f>
+        <f t="shared" ref="O3:O34" si="1">N3-P3</f>
         <v>5</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2096,7 +2169,7 @@
         <v>30</v>
       </c>
       <c r="J4">
-        <f>I4-K4-L4</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K4">
@@ -2110,12 +2183,12 @@
         <v>6</v>
       </c>
       <c r="O4" s="1">
-        <f>N4-P4</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="P4"/>
       <c r="Q4" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R4"/>
       <c r="S4"/>
@@ -2123,7 +2196,7 @@
       <c r="U4"/>
       <c r="V4"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2137,7 +2210,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>43</v>
@@ -2152,7 +2225,7 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <f>I5-K5-L5</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K5"/>
@@ -2162,12 +2235,12 @@
         <v>8</v>
       </c>
       <c r="O5" s="1">
-        <f>N5-P5</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P5"/>
       <c r="Q5" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -2175,7 +2248,7 @@
       <c r="U5"/>
       <c r="V5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -2204,19 +2277,19 @@
         <v>3</v>
       </c>
       <c r="J6">
-        <f>I6-K6-L6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N6" s="1">
         <v>4</v>
       </c>
       <c r="O6" s="1">
-        <f>N6-P6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2230,7 +2303,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
@@ -2245,21 +2318,21 @@
         <v>3</v>
       </c>
       <c r="J7">
-        <f>I7-K7-L7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N7" s="1">
         <v>8</v>
       </c>
       <c r="O7" s="1">
-        <f>N7-P7</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -2288,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="J8">
-        <f>I8-K8-L8</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M8">
@@ -2298,15 +2371,15 @@
         <v>5</v>
       </c>
       <c r="O8" s="1">
-        <f>N8-P8</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2335,7 +2408,7 @@
         <v>28</v>
       </c>
       <c r="J9">
-        <f>I9-K9-L9</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K9">
@@ -2345,14 +2418,14 @@
         <v>7</v>
       </c>
       <c r="O9" s="1">
-        <f>N9-P9</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -2381,19 +2454,19 @@
         <v>6</v>
       </c>
       <c r="J10">
-        <f>I10-K10-L10</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N10" s="1">
         <v>4</v>
       </c>
       <c r="O10" s="1">
-        <f>N10-P10</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2407,7 +2480,7 @@
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
@@ -2422,21 +2495,21 @@
         <v>3</v>
       </c>
       <c r="J11">
-        <f>I11-K11-L11</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N11" s="1">
         <v>8</v>
       </c>
       <c r="O11" s="1">
-        <f>N11-P11</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -2465,7 +2538,7 @@
         <v>13</v>
       </c>
       <c r="J12">
-        <f>I12-K12-L12</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K12">
@@ -2475,14 +2548,14 @@
         <v>6</v>
       </c>
       <c r="O12" s="1">
-        <f>N12-P12</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2496,7 +2569,7 @@
         <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -2511,19 +2584,19 @@
         <v>3</v>
       </c>
       <c r="J13">
-        <f>I13-K13-L13</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N13" s="1">
         <v>7</v>
       </c>
       <c r="O13" s="1">
-        <f>N13-P13</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -2552,19 +2625,19 @@
         <v>6</v>
       </c>
       <c r="J14">
-        <f>I14-K14-L14</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N14" s="1">
         <v>4</v>
       </c>
       <c r="O14" s="1">
-        <f>N14-P14</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2593,19 +2666,19 @@
         <v>4</v>
       </c>
       <c r="J15">
-        <f>I15-K15-L15</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N15" s="1">
         <v>4</v>
       </c>
       <c r="O15" s="1">
-        <f>N15-P15</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -2634,19 +2707,19 @@
         <v>4</v>
       </c>
       <c r="J16">
-        <f>I16-K16-L16</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N16" s="1">
         <v>5</v>
       </c>
       <c r="O16" s="1">
-        <f>N16-P16</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2675,19 +2748,19 @@
         <v>6</v>
       </c>
       <c r="J17">
-        <f>I17-K17-L17</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N17" s="1">
         <v>4</v>
       </c>
       <c r="O17" s="1">
-        <f>N17-P17</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -2701,7 +2774,7 @@
         <v>51</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>43</v>
@@ -2716,21 +2789,21 @@
         <v>4</v>
       </c>
       <c r="J18">
-        <f>I18-K18-L18</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N18" s="1">
         <v>8</v>
       </c>
       <c r="O18" s="1">
-        <f>N18-P18</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2759,19 +2832,19 @@
         <v>6</v>
       </c>
       <c r="J19">
-        <f>I19-K19-L19</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N19" s="1">
         <v>8</v>
       </c>
       <c r="O19" s="1">
-        <f>N19-P19</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -2800,21 +2873,21 @@
         <v>6</v>
       </c>
       <c r="J20">
-        <f>I20-K20-L20</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N20" s="1">
         <v>8</v>
       </c>
       <c r="O20" s="1">
-        <f>N20-P20</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2828,7 +2901,7 @@
         <v>55</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>43</v>
@@ -2843,19 +2916,19 @@
         <v>5</v>
       </c>
       <c r="J21">
-        <f>I21-K21-L21</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N21" s="1">
         <v>8</v>
       </c>
       <c r="O21" s="1">
-        <f>N21-P21</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -2869,7 +2942,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>22</v>
@@ -2884,19 +2957,19 @@
         <v>4</v>
       </c>
       <c r="J22">
-        <f>I22-K22-L22</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N22" s="1">
         <v>8</v>
       </c>
       <c r="O22" s="1">
-        <f>N22-P22</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2925,21 +2998,21 @@
         <v>6</v>
       </c>
       <c r="J23">
-        <f>I23-K23-L23</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N23" s="1">
         <v>5</v>
       </c>
       <c r="O23" s="1">
-        <f>N23-P23</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -2968,21 +3041,21 @@
         <v>5</v>
       </c>
       <c r="J24">
-        <f>I24-K24-L24</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N24" s="1">
         <v>3</v>
       </c>
       <c r="O24" s="1">
-        <f>N24-P24</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3011,19 +3084,19 @@
         <v>3</v>
       </c>
       <c r="J25">
-        <f>I25-K25-L25</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N25" s="1">
         <v>4</v>
       </c>
       <c r="O25" s="1">
-        <f>N25-P25</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -3052,19 +3125,19 @@
         <v>3</v>
       </c>
       <c r="J26">
-        <f>I26-K26-L26</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N26" s="1">
         <v>4</v>
       </c>
       <c r="O26" s="1">
-        <f>N26-P26</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3093,19 +3166,19 @@
         <v>3</v>
       </c>
       <c r="J27">
-        <f>I27-K27-L27</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N27" s="1">
         <v>6</v>
       </c>
       <c r="O27" s="1">
-        <f>N27-P27</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -3116,10 +3189,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>18</v>
@@ -3134,19 +3207,19 @@
         <v>6</v>
       </c>
       <c r="J28">
-        <f>I28-K28-L28</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N28" s="1">
         <v>7</v>
       </c>
       <c r="O28" s="1">
-        <f>N28-P28</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3157,10 +3230,10 @@
         <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
@@ -3175,19 +3248,19 @@
         <v>4</v>
       </c>
       <c r="J29">
-        <f>I29-K29-L29</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N29" s="1">
         <v>6</v>
       </c>
       <c r="O29" s="1">
-        <f>N29-P29</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -3216,21 +3289,21 @@
         <v>6</v>
       </c>
       <c r="J30">
-        <f>I30-K30-L30</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N30" s="1">
         <v>5</v>
       </c>
       <c r="O30" s="1">
-        <f>N30-P30</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3241,10 +3314,10 @@
         <v>2778</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>283</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>144</v>
+        <v>284</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>43</v>
@@ -3259,19 +3332,21 @@
         <v>6</v>
       </c>
       <c r="J31">
-        <f>I31-K31-L31</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N31" s="1">
         <v>8</v>
       </c>
       <c r="O31" s="1">
-        <f>N31-P31</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q31" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -3282,10 +3357,10 @@
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>6</v>
@@ -3300,7 +3375,7 @@
         <v>4</v>
       </c>
       <c r="J32">
-        <f>I32-K32-L32</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M32">
@@ -3310,180 +3385,180 @@
         <v>5</v>
       </c>
       <c r="O32" s="1">
-        <f>N32-P32</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <v>32</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
       </c>
       <c r="B33" s="5">
         <v>42883</v>
       </c>
       <c r="C33" s="8">
-        <v>1418</v>
+        <v>22757</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G33" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H33" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33">
-        <f>I33-K33-L33</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="N33" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O33" s="1">
-        <f>N33-P33</f>
-        <v>8</v>
-      </c>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>32</v>
       </c>
       <c r="B34" s="5">
         <v>42883</v>
       </c>
       <c r="C34" s="8">
-        <v>22757</v>
+        <v>1418</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="1">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1">
+        <v>12</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N34" s="1">
         <v>8</v>
       </c>
-      <c r="G34" s="1">
-        <v>18</v>
-      </c>
-      <c r="H34" s="1">
-        <v>14</v>
-      </c>
-      <c r="I34" s="1">
-        <v>4</v>
-      </c>
-      <c r="J34">
-        <f>I34-K34-L34</f>
-        <v>4</v>
-      </c>
-      <c r="N34" s="1">
-        <v>6</v>
-      </c>
       <c r="O34" s="1">
-        <f>N34-P34</f>
-        <v>6</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
       </c>
       <c r="B35" s="5">
         <v>42884</v>
       </c>
       <c r="C35" s="8">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H35" s="1">
         <v>13</v>
       </c>
       <c r="I35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35">
-        <f>I35-K35-L35</f>
-        <v>3</v>
+        <f t="shared" ref="J35:J66" si="2">I35-K35-L35</f>
+        <v>4</v>
       </c>
       <c r="N35" s="1">
         <v>7</v>
       </c>
       <c r="O35" s="1">
-        <f>N35-P35</f>
+        <f t="shared" ref="O35:O66" si="3">N35-P35</f>
         <v>7</v>
       </c>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>33</v>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>34</v>
       </c>
       <c r="B36" s="5">
         <v>42884</v>
       </c>
       <c r="C36" s="8">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H36" s="1">
         <v>13</v>
       </c>
       <c r="I36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <f>I36-K36-L36</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="N36" s="1">
         <v>7</v>
       </c>
       <c r="O36" s="1">
-        <f>N36-P36</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3512,7 +3587,7 @@
         <v>11</v>
       </c>
       <c r="J37">
-        <f>I37-K37-L37</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K37">
@@ -3522,100 +3597,100 @@
         <v>7</v>
       </c>
       <c r="O37" s="1">
-        <f>N37-P37</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>36</v>
       </c>
       <c r="B38" s="5">
         <v>42886</v>
       </c>
       <c r="C38" s="8">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G38" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H38" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J38">
-        <f>I38-K38-L38</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="N38" s="1">
         <v>8</v>
       </c>
       <c r="O38" s="1">
-        <f>N38-P38</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>36</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
       </c>
       <c r="B39" s="5">
         <v>42886</v>
       </c>
       <c r="C39" s="8">
-        <v>289</v>
+        <v>176</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G39" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H39" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I39" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <f>I39-K39-L39</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="N39" s="1">
         <v>8</v>
       </c>
       <c r="O39" s="1">
-        <f>N39-P39</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -3644,19 +3719,21 @@
         <v>6</v>
       </c>
       <c r="J40">
-        <f>I40-K40-L40</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N40" s="1">
         <v>8</v>
       </c>
       <c r="O40" s="1">
-        <f>N40-P40</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q40" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3667,13 +3744,13 @@
         <v>1498</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G41" s="1">
         <v>17</v>
@@ -3685,19 +3762,19 @@
         <v>5</v>
       </c>
       <c r="J41">
-        <f>I41-K41-L41</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N41" s="1">
         <v>6</v>
       </c>
       <c r="O41" s="1">
-        <f>N41-P41</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -3726,21 +3803,21 @@
         <v>6</v>
       </c>
       <c r="J42">
-        <f>I42-K42-L42</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N42" s="1">
         <v>6</v>
       </c>
       <c r="O42" s="1">
-        <f>N42-P42</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3769,21 +3846,21 @@
         <v>4</v>
       </c>
       <c r="J43">
-        <f>I43-K43-L43</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N43" s="1">
         <v>6</v>
       </c>
       <c r="O43" s="1">
-        <f>N43-P43</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -3812,21 +3889,21 @@
         <v>3</v>
       </c>
       <c r="J44">
-        <f>I44-K44-L44</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N44" s="1">
         <v>6</v>
       </c>
       <c r="O44" s="1">
-        <f>N44-P44</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3855,19 +3932,19 @@
         <v>3</v>
       </c>
       <c r="J45">
-        <f>I45-K45-L45</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N45" s="1">
         <v>8</v>
       </c>
       <c r="O45" s="1">
-        <f>N45-P45</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -3896,19 +3973,19 @@
         <v>3</v>
       </c>
       <c r="J46">
-        <f>I46-K46-L46</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N46" s="1">
         <v>8</v>
       </c>
       <c r="O46" s="1">
-        <f>N46-P46</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3919,10 +3996,10 @@
         <v>67</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>49</v>
@@ -3937,19 +4014,19 @@
         <v>5</v>
       </c>
       <c r="J47">
-        <f>I47-K47-L47</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N47" s="1">
         <v>8</v>
       </c>
       <c r="O47" s="1">
-        <f>N47-P47</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -3963,7 +4040,7 @@
         <v>57</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>32</v>
@@ -3978,19 +4055,19 @@
         <v>6</v>
       </c>
       <c r="J48">
-        <f>I48-K48-L48</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N48" s="1">
         <v>7</v>
       </c>
       <c r="O48" s="1">
-        <f>N48-P48</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4019,19 +4096,19 @@
         <v>3</v>
       </c>
       <c r="J49">
-        <f>I49-K49-L49</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N49" s="1">
         <v>8</v>
       </c>
       <c r="O49" s="1">
-        <f>N49-P49</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -4060,19 +4137,19 @@
         <v>4</v>
       </c>
       <c r="J50">
-        <f>I50-K50-L50</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N50" s="1">
         <v>7</v>
       </c>
       <c r="O50" s="1">
-        <f>N50-P50</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4083,10 +4160,10 @@
         <v>53</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>6</v>
@@ -4101,7 +4178,7 @@
         <v>12</v>
       </c>
       <c r="J51">
-        <f>I51-K51-L51</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K51">
@@ -4114,14 +4191,14 @@
         <v>5</v>
       </c>
       <c r="O51" s="1">
-        <f>N51-P51</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -4150,21 +4227,21 @@
         <v>6</v>
       </c>
       <c r="J52">
-        <f>I52-K52-L52</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N52" s="1">
         <v>6</v>
       </c>
       <c r="O52" s="1">
-        <f>N52-P52</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4175,10 +4252,10 @@
         <v>13737</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>43</v>
@@ -4193,21 +4270,21 @@
         <v>3</v>
       </c>
       <c r="J53">
-        <f>I53-K53-L53</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N53" s="1">
         <v>9</v>
       </c>
       <c r="O53" s="1">
-        <f>N53-P53</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -4221,7 +4298,7 @@
         <v>40</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>20</v>
@@ -4236,19 +4313,19 @@
         <v>5</v>
       </c>
       <c r="J54">
-        <f>I54-K54-L54</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N54" s="1">
         <v>4</v>
       </c>
       <c r="O54" s="1">
-        <f>N54-P54</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4259,10 +4336,10 @@
         <v>3708</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>6</v>
@@ -4277,21 +4354,21 @@
         <v>4</v>
       </c>
       <c r="J55">
-        <f>I55-K55-L55</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N55" s="1">
         <v>5</v>
       </c>
       <c r="O55" s="1">
-        <f>N55-P55</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -4302,10 +4379,10 @@
         <v>1018</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>146</v>
+        <v>279</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>71</v>
@@ -4320,21 +4397,21 @@
         <v>6</v>
       </c>
       <c r="J56">
-        <f>I56-K56-L56</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N56" s="1">
         <v>8</v>
       </c>
       <c r="O56" s="1">
-        <f>N56-P56</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4345,10 +4422,10 @@
         <v>409</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>71</v>
@@ -4363,19 +4440,21 @@
         <v>5</v>
       </c>
       <c r="J57">
-        <f>I57-K57-L57</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N57" s="1">
         <v>8</v>
       </c>
       <c r="O57" s="1">
-        <f>N57-P57</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="Q57" s="1"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q57" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>56</v>
       </c>
@@ -4386,10 +4465,10 @@
         <v>60</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>18</v>
@@ -4404,19 +4483,19 @@
         <v>5</v>
       </c>
       <c r="J58">
-        <f>I58-K58-L58</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N58" s="1">
         <v>6</v>
       </c>
       <c r="O58" s="1">
-        <f>N58-P58</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4427,13 +4506,13 @@
         <v>177</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G59" s="1">
         <v>15</v>
@@ -4445,21 +4524,21 @@
         <v>5</v>
       </c>
       <c r="J59">
-        <f>I59-K59-L59</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N59" s="1">
         <v>7</v>
       </c>
       <c r="O59" s="1">
-        <f>N59-P59</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -4470,10 +4549,10 @@
         <v>22</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>8</v>
@@ -4488,19 +4567,19 @@
         <v>6</v>
       </c>
       <c r="J60">
-        <f>I60-K60-L60</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N60" s="1">
         <v>7</v>
       </c>
       <c r="O60" s="1">
-        <f>N60-P60</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4529,19 +4608,19 @@
         <v>5</v>
       </c>
       <c r="J61">
-        <f>I61-K61-L61</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N61" s="1">
         <v>4</v>
       </c>
       <c r="O61" s="1">
-        <f>N61-P61</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -4570,21 +4649,21 @@
         <v>4</v>
       </c>
       <c r="J62">
-        <f>I62-K62-L62</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N62" s="1">
         <v>9</v>
       </c>
       <c r="O62" s="1">
-        <f>N62-P62</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4613,19 +4692,19 @@
         <v>3</v>
       </c>
       <c r="J63">
-        <f>I63-K63-L63</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N63" s="1">
         <v>8</v>
       </c>
       <c r="O63" s="1">
-        <f>N63-P63</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>62</v>
       </c>
@@ -4654,19 +4733,19 @@
         <v>6</v>
       </c>
       <c r="J64">
-        <f>I64-K64-L64</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N64" s="1">
         <v>4</v>
       </c>
       <c r="O64" s="1">
-        <f>N64-P64</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4695,19 +4774,19 @@
         <v>5</v>
       </c>
       <c r="J65">
-        <f>I65-K65-L65</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N65" s="1">
         <v>4</v>
       </c>
       <c r="O65" s="1">
-        <f>N65-P65</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>64</v>
       </c>
@@ -4721,7 +4800,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>8</v>
@@ -4736,7 +4815,7 @@
         <v>6</v>
       </c>
       <c r="J66">
-        <f>I66-K66-L66</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M66">
@@ -4746,12 +4825,12 @@
         <v>7</v>
       </c>
       <c r="O66" s="1">
-        <f>N66-P66</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4765,7 +4844,7 @@
         <v>7</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>8</v>
@@ -4780,21 +4859,21 @@
         <v>3</v>
       </c>
       <c r="J67">
-        <f>I67-K67-L67</f>
+        <f t="shared" ref="J67:J98" si="4">I67-K67-L67</f>
         <v>3</v>
       </c>
       <c r="N67" s="1">
         <v>7</v>
       </c>
       <c r="O67" s="1">
-        <f>N67-P67</f>
+        <f t="shared" ref="O67:O98" si="5">N67-P67</f>
         <v>7</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>66</v>
       </c>
@@ -4823,21 +4902,21 @@
         <v>4</v>
       </c>
       <c r="J68">
-        <f>I68-K68-L68</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N68" s="1">
         <v>7</v>
       </c>
       <c r="O68" s="1">
-        <f>N68-P68</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4851,7 +4930,7 @@
         <v>46</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>8</v>
@@ -4866,19 +4945,19 @@
         <v>3</v>
       </c>
       <c r="J69">
-        <f>I69-K69-L69</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N69" s="1">
         <v>7</v>
       </c>
       <c r="O69" s="1">
-        <f>N69-P69</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>68</v>
       </c>
@@ -4907,19 +4986,19 @@
         <v>4</v>
       </c>
       <c r="J70">
-        <f>I70-K70-L70</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N70" s="1">
         <v>5</v>
       </c>
       <c r="O70" s="1">
-        <f>N70-P70</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4948,19 +5027,19 @@
         <v>4</v>
       </c>
       <c r="J71">
-        <f>I71-K71-L71</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N71" s="1">
         <v>4</v>
       </c>
       <c r="O71" s="1">
-        <f>N71-P71</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>70</v>
       </c>
@@ -4971,13 +5050,13 @@
         <v>174</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G72" s="1">
         <v>21</v>
@@ -4989,21 +5068,21 @@
         <v>6</v>
       </c>
       <c r="J72">
-        <f>I72-K72-L72</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N72" s="1">
         <v>7</v>
       </c>
       <c r="O72" s="1">
-        <f>N72-P72</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5014,13 +5093,13 @@
         <v>343</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G73" s="1">
         <v>19</v>
@@ -5032,19 +5111,19 @@
         <v>5</v>
       </c>
       <c r="J73">
-        <f>I73-K73-L73</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N73" s="1">
         <v>7</v>
       </c>
       <c r="O73" s="1">
-        <f>N73-P73</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>72</v>
       </c>
@@ -5058,7 +5137,7 @@
         <v>37</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>8</v>
@@ -5073,19 +5152,19 @@
         <v>5</v>
       </c>
       <c r="J74">
-        <f>I74-K74-L74</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N74" s="1">
         <v>7</v>
       </c>
       <c r="O74" s="1">
-        <f>N74-P74</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5096,10 +5175,10 @@
         <v>37267</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>49</v>
@@ -5114,19 +5193,19 @@
         <v>3</v>
       </c>
       <c r="J75">
-        <f>I75-K75-L75</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N75" s="1">
         <v>7</v>
       </c>
       <c r="O75" s="1">
-        <f>N75-P75</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>74</v>
       </c>
@@ -5155,19 +5234,19 @@
         <v>3</v>
       </c>
       <c r="J76">
-        <f>I76-K76-L76</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N76" s="1">
         <v>5</v>
       </c>
       <c r="O76" s="1">
-        <f>N76-P76</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5178,10 +5257,10 @@
         <v>4648</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>49</v>
@@ -5196,108 +5275,108 @@
         <v>6</v>
       </c>
       <c r="J77">
-        <f>I77-K77-L77</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N77" s="1">
         <v>7</v>
       </c>
       <c r="O77" s="1">
-        <f>N77-P77</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>77</v>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="7">
+        <v>76</v>
       </c>
       <c r="B78" s="5">
         <v>43215</v>
       </c>
       <c r="C78" s="8">
-        <v>2780</v>
+        <v>36549</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="1">
         <v>49</v>
       </c>
-      <c r="G78" s="1">
-        <v>20</v>
-      </c>
       <c r="H78" s="1">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I78" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J78">
-        <f>I78-K78-L78</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
       </c>
       <c r="N78" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O78" s="1">
-        <f>N78-P78</f>
-        <v>7</v>
-      </c>
-      <c r="Q78" s="1"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
-        <v>76</v>
+        <v>5</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
       </c>
       <c r="B79" s="5">
         <v>43215</v>
       </c>
       <c r="C79" s="8">
-        <v>36549</v>
+        <v>2780</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="G79" s="1">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H79" s="1">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I79" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J79">
-        <f>I79-K79-L79</f>
-        <v>6</v>
-      </c>
-      <c r="M79">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="N79" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O79" s="1">
-        <v>5</v>
-      </c>
-      <c r="P79">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O79:O110" si="6">N79-P79</f>
+        <v>7</v>
+      </c>
+      <c r="Q79" s="1"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>78</v>
       </c>
@@ -5308,10 +5387,10 @@
         <v>2675</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>49</v>
@@ -5326,19 +5405,19 @@
         <v>5</v>
       </c>
       <c r="J80">
-        <f>I80-K80-L80</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N80" s="1">
         <v>7</v>
       </c>
       <c r="O80" s="1">
-        <f>N80-P80</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5349,10 +5428,10 @@
         <v>9585</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>49</v>
@@ -5367,19 +5446,19 @@
         <v>5</v>
       </c>
       <c r="J81">
-        <f>I81-K81-L81</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N81" s="1">
         <v>7</v>
       </c>
       <c r="O81" s="1">
-        <f>N81-P81</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>80</v>
       </c>
@@ -5390,10 +5469,10 @@
         <v>15717</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>49</v>
@@ -5408,19 +5487,19 @@
         <v>5</v>
       </c>
       <c r="J82">
-        <f>I82-K82-L82</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N82" s="1">
         <v>7</v>
       </c>
       <c r="O82" s="1">
-        <f>N82-P82</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5431,10 +5510,10 @@
         <v>186</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>8</v>
@@ -5449,19 +5528,19 @@
         <v>3</v>
       </c>
       <c r="J83">
-        <f>I83-K83-L83</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N83" s="1">
         <v>6</v>
       </c>
       <c r="O83" s="1">
-        <f>N83-P83</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>82</v>
       </c>
@@ -5472,10 +5551,10 @@
         <v>6871</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>49</v>
@@ -5490,19 +5569,19 @@
         <v>5</v>
       </c>
       <c r="J84">
-        <f>I84-K84-L84</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N84" s="1">
         <v>8</v>
       </c>
       <c r="O84" s="1">
-        <f>N84-P84</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5516,7 +5595,7 @@
         <v>24</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>8</v>
@@ -5531,19 +5610,19 @@
         <v>6</v>
       </c>
       <c r="J85">
-        <f>I85-K85-L85</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N85" s="1">
         <v>5</v>
       </c>
       <c r="O85" s="1">
-        <f>N85-P85</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>84</v>
       </c>
@@ -5554,10 +5633,10 @@
         <v>21516</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>49</v>
@@ -5572,19 +5651,19 @@
         <v>6</v>
       </c>
       <c r="J86">
-        <f>I86-K86-L86</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N86" s="1">
         <v>8</v>
       </c>
       <c r="O86" s="1">
-        <f>N86-P86</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5595,10 +5674,10 @@
         <v>867</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>18</v>
@@ -5613,19 +5692,19 @@
         <v>5</v>
       </c>
       <c r="J87">
-        <f>I87-K87-L87</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N87" s="1">
         <v>6</v>
       </c>
       <c r="O87" s="1">
-        <f>N87-P87</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>86</v>
       </c>
@@ -5636,10 +5715,10 @@
         <v>14883</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>49</v>
@@ -5654,183 +5733,183 @@
         <v>3</v>
       </c>
       <c r="J88">
-        <f>I88-K88-L88</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N88" s="1">
         <v>6</v>
       </c>
       <c r="O88" s="1">
-        <f>N88-P88</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A89" s="7">
-        <v>88</v>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
       </c>
       <c r="B89" s="5">
         <v>43256</v>
       </c>
       <c r="C89" s="8">
-        <v>2687</v>
+        <v>2790</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G89" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H89" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I89" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J89">
-        <f>I89-K89-L89</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="N89" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O89" s="1">
-        <f>N89-P89</f>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>87</v>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>88</v>
       </c>
       <c r="B90" s="5">
         <v>43256</v>
       </c>
       <c r="C90" s="8">
-        <v>2790</v>
+        <v>2687</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="1">
+        <v>25</v>
+      </c>
+      <c r="H90" s="1">
+        <v>19</v>
+      </c>
+      <c r="I90" s="1">
+        <v>6</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N90" s="1">
+        <v>5</v>
+      </c>
+      <c r="O90" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q90" s="1"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>89</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="1">
-        <v>19</v>
-      </c>
-      <c r="H90" s="1">
-        <v>16</v>
-      </c>
-      <c r="I90" s="1">
-        <v>3</v>
-      </c>
-      <c r="J90">
-        <f>I90-K90-L90</f>
-        <v>3</v>
-      </c>
-      <c r="N90" s="1">
-        <v>4</v>
-      </c>
-      <c r="O90" s="1">
-        <f>N90-P90</f>
-        <v>4</v>
-      </c>
-      <c r="Q90" s="1"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91" s="7">
-        <v>90</v>
       </c>
       <c r="B91" s="5">
         <v>43259</v>
       </c>
       <c r="C91" s="8">
-        <v>16</v>
+        <v>15147</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G91" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H91" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I91" s="1">
         <v>4</v>
       </c>
       <c r="J91">
-        <f>I91-K91-L91</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N91" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O91" s="1">
-        <f>N91-P91</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>89</v>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>90</v>
       </c>
       <c r="B92" s="5">
         <v>43259</v>
       </c>
       <c r="C92" s="8">
-        <v>15147</v>
+        <v>16</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>91</v>
+        <v>282</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G92" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H92" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I92" s="1">
         <v>4</v>
       </c>
       <c r="J92">
-        <f>I92-K92-L92</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N92" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O92" s="1">
-        <f>N92-P92</f>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5841,13 +5920,13 @@
         <v>21808</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G93" s="1">
         <v>19</v>
@@ -5859,21 +5938,21 @@
         <v>5</v>
       </c>
       <c r="J93">
-        <f>I93-K93-L93</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N93" s="1">
         <v>7</v>
       </c>
       <c r="O93" s="1">
-        <f>N93-P93</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>92</v>
       </c>
@@ -5884,13 +5963,13 @@
         <v>24830</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G94" s="1">
         <v>16</v>
@@ -5902,19 +5981,21 @@
         <v>3</v>
       </c>
       <c r="J94">
-        <f>I94-K94-L94</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N94" s="1">
         <v>7</v>
       </c>
       <c r="O94" s="1">
-        <f>N94-P94</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="Q94" s="1"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5925,10 +6006,10 @@
         <v>5313</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>6</v>
@@ -5943,19 +6024,19 @@
         <v>5</v>
       </c>
       <c r="J95">
-        <f>I95-K95-L95</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N95" s="1">
         <v>5</v>
       </c>
       <c r="O95" s="1">
-        <f>N95-P95</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>94</v>
       </c>
@@ -5966,10 +6047,10 @@
         <v>42595</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>6</v>
@@ -5984,19 +6065,19 @@
         <v>6</v>
       </c>
       <c r="J96">
-        <f>I96-K96-L96</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N96" s="1">
         <v>4</v>
       </c>
       <c r="O96" s="1">
-        <f>N96-P96</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6007,10 +6088,10 @@
         <v>210</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>32</v>
@@ -6025,103 +6106,105 @@
         <v>5</v>
       </c>
       <c r="J97">
-        <f>I97-K97-L97</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N97" s="1">
         <v>7</v>
       </c>
       <c r="O97" s="1">
-        <f>N97-P97</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>99</v>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A98" s="7">
+        <v>96</v>
       </c>
       <c r="B98" s="5">
         <v>43278</v>
       </c>
       <c r="C98" s="8">
-        <v>50</v>
+        <v>38759</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G98" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H98" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I98" s="1">
         <v>5</v>
       </c>
       <c r="J98">
-        <f>I98-K98-L98</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N98" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O98" s="1">
-        <f>N98-P98</f>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A99" s="7">
-        <v>100</v>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
       </c>
       <c r="B99" s="5">
         <v>43278</v>
       </c>
       <c r="C99" s="8">
-        <v>54</v>
+        <v>37266</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="G99" s="1">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H99" s="1">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I99" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J99">
-        <f>I99-K99-L99</f>
-        <v>4</v>
+        <f t="shared" ref="J99:J130" si="7">I99-K99-L99</f>
+        <v>5</v>
       </c>
       <c r="N99" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O99" s="1">
-        <f>N99-P99</f>
-        <v>4</v>
-      </c>
-      <c r="Q99" s="1"/>
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>98</v>
       </c>
@@ -6132,10 +6215,10 @@
         <v>94</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>32</v>
@@ -6150,109 +6233,107 @@
         <v>3</v>
       </c>
       <c r="J100">
-        <f>I100-K100-L100</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N100" s="1">
         <v>7</v>
       </c>
       <c r="O100" s="1">
-        <f>N100-P100</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="5"/>
       <c r="S100" s="5"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B101" s="5">
         <v>43278</v>
       </c>
       <c r="C101" s="8">
-        <v>37266</v>
+        <v>50</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="G101" s="1">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H101" s="1">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I101" s="1">
         <v>5</v>
       </c>
       <c r="J101">
-        <f>I101-K101-L101</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N101" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O101" s="1">
-        <f>N101-P101</f>
-        <v>9</v>
-      </c>
-      <c r="Q101" s="1" t="s">
-        <v>127</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q101" s="1"/>
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B102" s="5">
         <v>43278</v>
       </c>
       <c r="C102" s="8">
-        <v>38759</v>
+        <v>54</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G102" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H102" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I102" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J102">
-        <f>I102-K102-L102</f>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="N102" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O102" s="1">
-        <f>N102-P102</f>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="Q102" s="1"/>
       <c r="R102" s="5"/>
       <c r="S102" s="5"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6263,10 +6344,10 @@
         <v>47</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>6</v>
@@ -6281,21 +6362,21 @@
         <v>3</v>
       </c>
       <c r="J103">
-        <f>I103-K103-L103</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N103" s="1">
         <v>5</v>
       </c>
       <c r="O103" s="1">
-        <f>N103-P103</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Q103" s="1"/>
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6306,10 +6387,10 @@
         <v>9222</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>6</v>
@@ -6324,18 +6405,18 @@
         <v>4</v>
       </c>
       <c r="J104">
-        <f>I104-K104-L104</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N104" s="1">
         <v>5</v>
       </c>
       <c r="O104" s="1">
-        <f>N104-P104</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6346,10 +6427,10 @@
         <v>93</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>32</v>
@@ -6364,7 +6445,7 @@
         <v>4</v>
       </c>
       <c r="J105">
-        <f>I105-K105-L105</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K105"/>
@@ -6374,13 +6455,13 @@
         <v>7</v>
       </c>
       <c r="O105" s="1">
-        <f>N105-P105</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="P105"/>
       <c r="Q105"/>
     </row>
-    <row r="106" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6391,10 +6472,10 @@
         <v>153</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>32</v>
@@ -6409,7 +6490,7 @@
         <v>5</v>
       </c>
       <c r="J106">
-        <f>I106-K106-L106</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K106"/>
@@ -6419,13 +6500,13 @@
         <v>7</v>
       </c>
       <c r="O106" s="1">
-        <f>N106-P106</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="P106"/>
       <c r="Q106"/>
     </row>
-    <row r="107" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6436,10 +6517,10 @@
         <v>14548</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>6</v>
@@ -6454,18 +6535,18 @@
         <v>5</v>
       </c>
       <c r="J107">
-        <f>I107-K107-L107</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N107" s="1">
         <v>5</v>
       </c>
       <c r="O107" s="1">
-        <f>N107-P107</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6476,13 +6557,13 @@
         <v>4517</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G108" s="1">
         <v>15</v>
@@ -6494,7 +6575,7 @@
         <v>3</v>
       </c>
       <c r="J108">
-        <f>I108-K108-L108</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="K108" s="1"/>
@@ -6504,13 +6585,13 @@
         <v>6</v>
       </c>
       <c r="O108" s="1">
-        <f>N108-P108</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6521,13 +6602,13 @@
         <v>6386</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G109" s="1">
         <v>26</v>
@@ -6539,7 +6620,7 @@
         <v>6</v>
       </c>
       <c r="J109">
-        <f>I109-K109-L109</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K109" s="1"/>
@@ -6549,13 +6630,13 @@
         <v>6</v>
       </c>
       <c r="O109" s="1">
-        <f>N109-P109</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6566,13 +6647,13 @@
         <v>9188</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G110" s="1">
         <v>16</v>
@@ -6584,18 +6665,18 @@
         <v>6</v>
       </c>
       <c r="J110">
-        <f>I110-K110-L110</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N110" s="1">
         <v>6</v>
       </c>
       <c r="O110" s="1">
-        <f>N110-P110</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6606,10 +6687,10 @@
         <v>11</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>6</v>
@@ -6624,18 +6705,18 @@
         <v>4</v>
       </c>
       <c r="J111">
-        <f>I111-K111-L111</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N111" s="1">
         <v>4</v>
       </c>
       <c r="O111" s="1">
-        <f>N111-P111</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O111:O142" si="8">N111-P111</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6646,10 +6727,10 @@
         <v>2170</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>6</v>
@@ -6664,98 +6745,98 @@
         <v>6</v>
       </c>
       <c r="J112">
-        <f>I112-K112-L112</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N112" s="1">
         <v>5</v>
       </c>
       <c r="O112" s="1">
-        <f>N112-P112</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="5">
         <v>43365</v>
       </c>
       <c r="C113" s="1">
-        <v>8279</v>
+        <v>56056</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="G113" s="1">
         <v>19</v>
       </c>
       <c r="H113" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I113" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J113">
-        <f>I113-K113-L113</f>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="N113" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O113" s="1">
-        <f>N113-P113</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B114" s="5">
         <v>43365</v>
       </c>
       <c r="C114" s="1">
-        <v>56056</v>
+        <v>8279</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="G114" s="1">
         <v>19</v>
       </c>
       <c r="H114" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I114" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J114">
-        <f>I114-K114-L114</f>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="N114" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O114" s="1">
-        <f>N114-P114</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6766,10 +6847,10 @@
         <v>4432</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>8</v>
@@ -6784,18 +6865,18 @@
         <v>6</v>
       </c>
       <c r="J115">
-        <f>I115-K115-L115</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N115" s="1">
         <v>6</v>
       </c>
       <c r="O115" s="1">
-        <f>N115-P115</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6806,10 +6887,10 @@
         <v>329</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>8</v>
@@ -6824,18 +6905,18 @@
         <v>6</v>
       </c>
       <c r="J116">
-        <f>I116-K116-L116</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N116" s="1">
         <v>6</v>
       </c>
       <c r="O116" s="1">
-        <f>N116-P116</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6846,10 +6927,10 @@
         <v>1551</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>6</v>
@@ -6864,21 +6945,21 @@
         <v>6</v>
       </c>
       <c r="J117">
-        <f>I117-K117-L117</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N117">
         <v>5</v>
       </c>
       <c r="O117" s="1">
-        <f>N117-P117</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6889,10 +6970,10 @@
         <v>10</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>6</v>
@@ -6907,18 +6988,18 @@
         <v>6</v>
       </c>
       <c r="J118">
-        <f>I118-K118-L118</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N118" s="1">
         <v>5</v>
       </c>
       <c r="O118" s="1">
-        <f>N118-P118</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6929,10 +7010,10 @@
         <v>56281</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>43</v>
@@ -6947,18 +7028,21 @@
         <v>3</v>
       </c>
       <c r="J119">
-        <f>I119-K119-L119</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N119">
         <v>5</v>
       </c>
       <c r="O119" s="1">
-        <f>N119-P119</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6969,10 +7053,10 @@
         <v>56178</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>18</v>
@@ -6987,18 +7071,18 @@
         <v>5</v>
       </c>
       <c r="J120">
-        <f>I120-K120-L120</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N120">
         <v>6</v>
       </c>
       <c r="O120" s="1">
-        <f>N120-P120</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7009,10 +7093,10 @@
         <v>48</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>6</v>
@@ -7027,18 +7111,18 @@
         <v>5</v>
       </c>
       <c r="J121">
-        <f>I121-K121-L121</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N121">
         <v>5</v>
       </c>
       <c r="O121" s="1">
-        <f>N121-P121</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7049,13 +7133,13 @@
         <v>17045</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G122" s="1">
         <v>25</v>
@@ -7067,21 +7151,21 @@
         <v>5</v>
       </c>
       <c r="J122">
-        <f>I122-K122-L122</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N122">
         <v>6</v>
       </c>
       <c r="O122" s="1">
-        <f>N122-P122</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q122" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7092,10 +7176,10 @@
         <v>9248</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>6</v>
@@ -7110,18 +7194,18 @@
         <v>3</v>
       </c>
       <c r="J123">
-        <f>I123-K123-L123</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N123">
         <v>5</v>
       </c>
       <c r="O123" s="1">
-        <f>N123-P123</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7132,10 +7216,10 @@
         <v>4423</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>6</v>
@@ -7150,98 +7234,98 @@
         <v>3</v>
       </c>
       <c r="J124">
-        <f>I124-K124-L124</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N124" s="1">
         <v>5</v>
       </c>
       <c r="O124" s="1">
-        <f>N124-P124</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="11">
         <v>43395</v>
       </c>
       <c r="C125" s="1">
-        <v>2466</v>
+        <v>32856</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G125" s="1">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H125" s="1">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I125" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J125">
-        <f>I125-K125-L125</f>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="N125" s="1">
         <v>5</v>
       </c>
       <c r="O125" s="1">
-        <f>N125-P125</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B126" s="11">
         <v>43395</v>
       </c>
       <c r="C126" s="1">
-        <v>32856</v>
+        <v>2466</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="F126" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G126" s="1">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H126" s="1">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I126" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J126">
-        <f>I126-K126-L126</f>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="N126" s="1">
         <v>5</v>
       </c>
       <c r="O126" s="1">
-        <f>N126-P126</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7252,10 +7336,10 @@
         <v>71</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>6</v>
@@ -7270,18 +7354,18 @@
         <v>5</v>
       </c>
       <c r="J127">
-        <f>I127-K127-L127</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N127" s="1">
         <v>5</v>
       </c>
       <c r="O127" s="1">
-        <f>N127-P127</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7292,10 +7376,10 @@
         <v>3798</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>6</v>
@@ -7310,18 +7394,18 @@
         <v>4</v>
       </c>
       <c r="J128">
-        <f>I128-K128-L128</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N128" s="1">
         <v>5</v>
       </c>
       <c r="O128" s="1">
-        <f>N128-P128</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7332,10 +7416,10 @@
         <v>9747</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>6</v>
@@ -7350,18 +7434,18 @@
         <v>5</v>
       </c>
       <c r="J129">
-        <f>I129-K129-L129</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N129" s="1">
         <v>5</v>
       </c>
       <c r="O129" s="1">
-        <f>N129-P129</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7372,10 +7456,10 @@
         <v>2367</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>6</v>
@@ -7390,18 +7474,18 @@
         <v>3</v>
       </c>
       <c r="J130">
-        <f>I130-K130-L130</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N130" s="1">
         <v>5</v>
       </c>
       <c r="O130" s="1">
-        <f>N130-P130</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7412,10 +7496,10 @@
         <v>5030</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>6</v>
@@ -7430,18 +7514,18 @@
         <v>5</v>
       </c>
       <c r="J131">
-        <f>I131-K131-L131</f>
+        <f t="shared" ref="J131:J162" si="9">I131-K131-L131</f>
         <v>5</v>
       </c>
       <c r="N131" s="1">
         <v>5</v>
       </c>
       <c r="O131" s="1">
-        <f>N131-P131</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7452,10 +7536,10 @@
         <v>19</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>6</v>
@@ -7470,18 +7554,18 @@
         <v>4</v>
       </c>
       <c r="J132">
-        <f>I132-K132-L132</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="N132" s="1">
         <v>5</v>
       </c>
       <c r="O132" s="1">
-        <f>N132-P132</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7492,10 +7576,10 @@
         <v>134</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>6</v>
@@ -7510,18 +7594,18 @@
         <v>3</v>
       </c>
       <c r="J133">
-        <f>I133-K133-L133</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="N133" s="1">
         <v>4</v>
       </c>
       <c r="O133" s="1">
-        <f>N133-P133</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7532,10 +7616,10 @@
         <v>169</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>6</v>
@@ -7550,18 +7634,18 @@
         <v>5</v>
       </c>
       <c r="J134">
-        <f>I134-K134-L134</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N134" s="1">
         <v>5</v>
       </c>
       <c r="O134" s="1">
-        <f>N134-P134</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7572,10 +7656,10 @@
         <v>56179</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>6</v>
@@ -7590,18 +7674,18 @@
         <v>3</v>
       </c>
       <c r="J135">
-        <f>I135-K135-L135</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="N135" s="1">
         <v>4</v>
       </c>
       <c r="O135" s="1">
-        <f>N135-P135</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7612,10 +7696,10 @@
         <v>188</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>6</v>
@@ -7630,18 +7714,18 @@
         <v>4</v>
       </c>
       <c r="J136">
-        <f>I136-K136-L136</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="N136" s="1">
         <v>5</v>
       </c>
       <c r="O136" s="1">
-        <f>N136-P136</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7652,10 +7736,10 @@
         <v>189</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>6</v>
@@ -7670,18 +7754,18 @@
         <v>3</v>
       </c>
       <c r="J137">
-        <f>I137-K137-L137</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="N137" s="1">
         <v>5</v>
       </c>
       <c r="O137" s="1">
-        <f>N137-P137</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7692,10 +7776,10 @@
         <v>14368</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>6</v>
@@ -7710,18 +7794,18 @@
         <v>3</v>
       </c>
       <c r="J138">
-        <f>I138-K138-L138</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="N138" s="1">
         <v>5</v>
       </c>
       <c r="O138" s="1">
-        <f>N138-P138</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7732,10 +7816,10 @@
         <v>3997</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>6</v>
@@ -7750,18 +7834,18 @@
         <v>5</v>
       </c>
       <c r="J139">
-        <f>I139-K139-L139</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N139" s="1">
         <v>5</v>
       </c>
       <c r="O139" s="1">
-        <f>N139-P139</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7772,10 +7856,10 @@
         <v>4179</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>6</v>
@@ -7790,18 +7874,18 @@
         <v>6</v>
       </c>
       <c r="J140">
-        <f>I140-K140-L140</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="N140" s="1">
         <v>5</v>
       </c>
       <c r="O140" s="1">
-        <f>N140-P140</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7812,10 +7896,10 @@
         <v>1891</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>6</v>
@@ -7830,18 +7914,18 @@
         <v>4</v>
       </c>
       <c r="J141">
-        <f>I141-K141-L141</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="N141" s="1">
         <v>5</v>
       </c>
       <c r="O141" s="1">
-        <f>N141-P141</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7852,13 +7936,13 @@
         <v>64393</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G142" s="1">
         <v>15</v>
@@ -7870,18 +7954,21 @@
         <v>5</v>
       </c>
       <c r="J142">
-        <f>I142-K142-L142</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N142">
         <v>6</v>
       </c>
       <c r="O142" s="1">
-        <f>N142-P142</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7892,10 +7979,10 @@
         <v>2</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>6</v>
@@ -7910,18 +7997,18 @@
         <v>3</v>
       </c>
       <c r="J143">
-        <f>I143-K143-L143</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="N143">
         <v>5</v>
       </c>
       <c r="O143" s="1">
-        <f>N143-P143</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O143:O174" si="10">N143-P143</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7932,10 +8019,10 @@
         <v>29</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>6</v>
@@ -7950,18 +8037,18 @@
         <v>4</v>
       </c>
       <c r="J144">
-        <f>I144-K144-L144</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="N144" s="1">
         <v>5</v>
       </c>
       <c r="O144" s="1">
-        <f>N144-P144</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7972,10 +8059,10 @@
         <v>6724</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>18</v>
@@ -7990,18 +8077,18 @@
         <v>6</v>
       </c>
       <c r="J145">
-        <f>I145-K145-L145</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="N145" s="1">
         <v>6</v>
       </c>
       <c r="O145" s="1">
-        <f>N145-P145</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -8012,10 +8099,10 @@
         <v>179</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>6</v>
@@ -8030,18 +8117,18 @@
         <v>5</v>
       </c>
       <c r="J146">
-        <f>I146-K146-L146</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N146" s="1">
         <v>5</v>
       </c>
       <c r="O146" s="1">
-        <f>N146-P146</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8052,10 +8139,10 @@
         <v>241</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>6</v>
@@ -8070,18 +8157,18 @@
         <v>5</v>
       </c>
       <c r="J147">
-        <f>I147-K147-L147</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N147" s="1">
         <v>5</v>
       </c>
       <c r="O147" s="1">
-        <f>N147-P147</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -8092,10 +8179,10 @@
         <v>7196</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>18</v>
@@ -8110,18 +8197,18 @@
         <v>4</v>
       </c>
       <c r="J148">
-        <f>I148-K148-L148</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="N148" s="1">
         <v>6</v>
       </c>
       <c r="O148" s="1">
-        <f>N148-P148</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8132,10 +8219,10 @@
         <v>64776</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>6</v>
@@ -8150,18 +8237,18 @@
         <v>6</v>
       </c>
       <c r="J149">
-        <f>I149-K149-L149</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="N149">
         <v>5</v>
       </c>
       <c r="O149" s="1">
-        <f>N149-P149</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8172,10 +8259,10 @@
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>6</v>
@@ -8190,18 +8277,18 @@
         <v>3</v>
       </c>
       <c r="J150">
-        <f>I150-K150-L150</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="N150">
         <v>5</v>
       </c>
       <c r="O150" s="1">
-        <f>N150-P150</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8212,10 +8299,10 @@
         <v>2235</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>6</v>
@@ -8230,18 +8317,18 @@
         <v>6</v>
       </c>
       <c r="J151">
-        <f>I151-K151-L151</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="N151" s="1">
         <v>5</v>
       </c>
       <c r="O151" s="1">
-        <f>N151-P151</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8252,10 +8339,10 @@
         <v>2682</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>18</v>
@@ -8270,18 +8357,18 @@
         <v>5</v>
       </c>
       <c r="J152">
-        <f>I152-K152-L152</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N152" s="1">
         <v>6</v>
       </c>
       <c r="O152" s="1">
-        <f>N152-P152</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8292,13 +8379,13 @@
         <v>9765</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G153" s="1">
         <v>20</v>
@@ -8310,18 +8397,18 @@
         <v>6</v>
       </c>
       <c r="J153">
-        <f>I153-K153-L153</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="N153" s="1">
         <v>5</v>
       </c>
       <c r="O153" s="1">
-        <f>N153-P153</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8332,10 +8419,10 @@
         <v>3403</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>18</v>
@@ -8350,18 +8437,18 @@
         <v>6</v>
       </c>
       <c r="J154">
-        <f>I154-K154-L154</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="N154" s="1">
         <v>6</v>
       </c>
       <c r="O154" s="1">
-        <f>N154-P154</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8372,10 +8459,10 @@
         <v>17044</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>6</v>
@@ -8390,18 +8477,18 @@
         <v>3</v>
       </c>
       <c r="J155">
-        <f>I155-K155-L155</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="N155" s="1">
         <v>5</v>
       </c>
       <c r="O155" s="1">
-        <f>N155-P155</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8412,10 +8499,10 @@
         <v>37</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>18</v>
@@ -8430,18 +8517,18 @@
         <v>6</v>
       </c>
       <c r="J156">
-        <f>I156-K156-L156</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="N156" s="1">
         <v>6</v>
       </c>
       <c r="O156" s="1">
-        <f>N156-P156</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8452,10 +8539,10 @@
         <v>6942</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>6</v>
@@ -8470,18 +8557,18 @@
         <v>5</v>
       </c>
       <c r="J157">
-        <f>I157-K157-L157</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N157" s="1">
         <v>5</v>
       </c>
       <c r="O157" s="1">
-        <f>N157-P157</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -8492,10 +8579,10 @@
         <v>3662</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>6</v>
@@ -8510,18 +8597,18 @@
         <v>5</v>
       </c>
       <c r="J158">
-        <f>I158-K158-L158</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N158" s="1">
         <v>5</v>
       </c>
       <c r="O158" s="1">
-        <f>N158-P158</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -8532,10 +8619,10 @@
         <v>14</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>18</v>
@@ -8550,21 +8637,261 @@
         <v>4</v>
       </c>
       <c r="J159">
-        <f>I159-K159-L159</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="N159" s="1">
         <v>6</v>
       </c>
       <c r="O159" s="1">
-        <f>N159-P159</f>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="5">
+        <v>43542</v>
+      </c>
+      <c r="C160" s="10">
+        <v>103</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" s="1">
+        <v>17</v>
+      </c>
+      <c r="H160" s="1">
+        <v>12</v>
+      </c>
+      <c r="I160" s="1">
+        <v>5</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="N160" s="1">
+        <v>6</v>
+      </c>
+      <c r="O160" s="1">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="5">
+        <v>43542</v>
+      </c>
+      <c r="C161" s="1">
+        <v>308</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G161" s="1">
+        <v>18</v>
+      </c>
+      <c r="H161" s="1">
+        <v>12</v>
+      </c>
+      <c r="I161" s="1">
+        <v>6</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="N161" s="1">
+        <v>5</v>
+      </c>
+      <c r="O161" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="5">
+        <v>43549</v>
+      </c>
+      <c r="C162" s="1">
+        <v>6552</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="1">
+        <v>16</v>
+      </c>
+      <c r="H162" s="1">
+        <v>12</v>
+      </c>
+      <c r="I162" s="1">
+        <v>4</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="N162" s="1">
+        <v>5</v>
+      </c>
+      <c r="O162" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="5">
+        <v>43553</v>
+      </c>
+      <c r="C163" s="1">
+        <v>58</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G163" s="1">
+        <v>17</v>
+      </c>
+      <c r="H163" s="1">
+        <v>13</v>
+      </c>
+      <c r="I163" s="1">
+        <v>4</v>
+      </c>
+      <c r="J163">
+        <f t="shared" ref="J163:J194" si="11">I163-K163-L163</f>
+        <v>4</v>
+      </c>
+      <c r="N163" s="1">
+        <v>6</v>
+      </c>
+      <c r="O163" s="1">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="5">
+        <v>43566</v>
+      </c>
+      <c r="C164" s="1">
+        <v>56013</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G164" s="1">
+        <v>17</v>
+      </c>
+      <c r="H164" s="1">
+        <v>13</v>
+      </c>
+      <c r="I164" s="1">
+        <v>4</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="N164" s="1">
+        <v>5</v>
+      </c>
+      <c r="O164" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="5">
+        <v>43569</v>
+      </c>
+      <c r="C165" s="1">
+        <v>20039</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G165" s="1">
+        <v>25</v>
+      </c>
+      <c r="H165" s="1">
+        <v>20</v>
+      </c>
+      <c r="I165" s="1">
+        <v>5</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="N165" s="1">
+        <v>8</v>
+      </c>
+      <c r="O165" s="1">
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q149">
-    <sortState ref="A3:Q159">
-      <sortCondition ref="B2:B149"/>
+  <autoFilter ref="A2:Q165">
+    <sortState ref="A3:Q165">
+      <sortCondition ref="A2:A149"/>
     </sortState>
   </autoFilter>
   <sortState ref="A3:Q159">
@@ -8596,33 +8923,33 @@
   <dimension ref="A24:C25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B24" s="6">
         <f>COUNTA(列表!$C:$C)-1</f>
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B25" s="3">
         <f>COUNTIF(列表!$Q:$Q,C25)</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/MarriageRecorder.xlsx
+++ b/MarriageRecorder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="300">
   <si>
     <t>舰 ID</t>
   </si>
@@ -1037,6 +1037,10 @@
   </si>
   <si>
     <t>神風改</t>
+  </si>
+  <si>
+    <t>Janus改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -50850,7 +50854,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -50861,7 +50865,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6070600"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -51222,29 +51226,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R166" sqref="R166"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="6" width="11.21875" customWidth="1"/>
+    <col min="4" max="6" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="7.21875" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" customWidth="1"/>
-    <col min="18" max="18" width="12.5546875" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="7.25" customWidth="1"/>
+    <col min="14" max="14" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="18" max="18" width="12.5" customWidth="1"/>
+    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>163</v>
       </c>
@@ -51265,7 +51269,7 @@
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>162</v>
       </c>
@@ -51330,7 +51334,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -51356,11 +51360,11 @@
         <v>20</v>
       </c>
       <c r="I3" s="1">
-        <f>G3-H3</f>
+        <f t="shared" ref="I3:I34" si="0">G3-H3</f>
         <v>8</v>
       </c>
       <c r="J3">
-        <f>I3-K3-L3</f>
+        <f t="shared" ref="J3:J34" si="1">I3-K3-L3</f>
         <v>4</v>
       </c>
       <c r="L3">
@@ -51373,7 +51377,7 @@
         <v>6</v>
       </c>
       <c r="O3" s="1">
-        <f>N3-P3</f>
+        <f t="shared" ref="O3:O34" si="2">N3-P3</f>
         <v>5</v>
       </c>
       <c r="P3">
@@ -51383,7 +51387,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -51409,11 +51413,11 @@
         <v>20</v>
       </c>
       <c r="I4" s="1">
-        <f>G4-H4</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="J4">
-        <f>I4-K4-L4</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K4">
@@ -51427,7 +51431,7 @@
         <v>6</v>
       </c>
       <c r="O4" s="1">
-        <f>N4-P4</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="P4"/>
@@ -51440,7 +51444,7 @@
       <c r="U4"/>
       <c r="V4"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -51466,11 +51470,11 @@
         <v>40</v>
       </c>
       <c r="I5" s="1">
-        <f>G5-H5</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J5">
-        <f>I5-K5-L5</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K5"/>
@@ -51480,7 +51484,7 @@
         <v>8</v>
       </c>
       <c r="O5" s="1">
-        <f>N5-P5</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="P5"/>
@@ -51493,7 +51497,7 @@
       <c r="U5"/>
       <c r="V5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -51519,23 +51523,23 @@
         <v>50</v>
       </c>
       <c r="I6" s="1">
-        <f>G6-H6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J6">
-        <f>I6-K6-L6</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N6" s="1">
         <v>4</v>
       </c>
       <c r="O6" s="1">
-        <f>N6-P6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -51561,25 +51565,25 @@
         <v>20</v>
       </c>
       <c r="I7" s="1">
-        <f>G7-H7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J7">
-        <f>I7-K7-L7</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N7" s="1">
         <v>8</v>
       </c>
       <c r="O7" s="1">
-        <f>N7-P7</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -51605,11 +51609,11 @@
         <v>37</v>
       </c>
       <c r="I8" s="1">
-        <f>G8-H8</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J8">
-        <f>I8-K8-L8</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M8">
@@ -51619,7 +51623,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="1">
-        <f>N8-P8</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -51627,7 +51631,7 @@
       </c>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -51653,11 +51657,11 @@
         <v>14</v>
       </c>
       <c r="I9" s="1">
-        <f>G9-H9</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="J9">
-        <f>I9-K9-L9</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K9">
@@ -51667,14 +51671,14 @@
         <v>7</v>
       </c>
       <c r="O9" s="1">
-        <f>N9-P9</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -51700,23 +51704,23 @@
         <v>13</v>
       </c>
       <c r="I10" s="1">
-        <f>G10-H10</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J10">
-        <f>I10-K10-L10</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N10" s="1">
         <v>4</v>
       </c>
       <c r="O10" s="1">
-        <f>N10-P10</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -51742,25 +51746,25 @@
         <v>50</v>
       </c>
       <c r="I11" s="1">
-        <f>G11-H11</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J11">
-        <f>I11-K11-L11</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N11" s="1">
         <v>8</v>
       </c>
       <c r="O11" s="1">
-        <f>N11-P11</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -51786,11 +51790,11 @@
         <v>30</v>
       </c>
       <c r="I12" s="1">
-        <f>G12-H12</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="J12">
-        <f>I12-K12-L12</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K12">
@@ -51800,14 +51804,14 @@
         <v>6</v>
       </c>
       <c r="O12" s="1">
-        <f>N12-P12</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -51833,23 +51837,23 @@
         <v>41</v>
       </c>
       <c r="I13" s="1">
-        <f>G13-H13</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J13">
-        <f>I13-K13-L13</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N13" s="1">
         <v>7</v>
       </c>
       <c r="O13" s="1">
-        <f>N13-P13</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -51875,23 +51879,23 @@
         <v>25</v>
       </c>
       <c r="I14" s="1">
-        <f>G14-H14</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J14">
-        <f>I14-K14-L14</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N14" s="1">
         <v>4</v>
       </c>
       <c r="O14" s="1">
-        <f>N14-P14</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -51917,23 +51921,23 @@
         <v>34</v>
       </c>
       <c r="I15" s="1">
-        <f>G15-H15</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J15">
-        <f>I15-K15-L15</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N15" s="1">
         <v>4</v>
       </c>
       <c r="O15" s="1">
-        <f>N15-P15</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -51959,23 +51963,23 @@
         <v>15</v>
       </c>
       <c r="I16" s="1">
-        <f>G16-H16</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J16">
-        <f>I16-K16-L16</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N16" s="1">
         <v>5</v>
       </c>
       <c r="O16" s="1">
-        <f>N16-P16</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -52001,23 +52005,23 @@
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <f>G17-H17</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J17">
-        <f>I17-K17-L17</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N17" s="1">
         <v>4</v>
       </c>
       <c r="O17" s="1">
-        <f>N17-P17</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -52043,25 +52047,25 @@
         <v>15</v>
       </c>
       <c r="I18" s="1">
-        <f>G18-H18</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J18">
-        <f>I18-K18-L18</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N18" s="1">
         <v>8</v>
       </c>
       <c r="O18" s="1">
-        <f>N18-P18</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -52087,23 +52091,23 @@
         <v>13</v>
       </c>
       <c r="I19" s="1">
-        <f>G19-H19</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J19">
-        <f>I19-K19-L19</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N19" s="1">
         <v>8</v>
       </c>
       <c r="O19" s="1">
-        <f>N19-P19</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -52129,25 +52133,25 @@
         <v>41</v>
       </c>
       <c r="I20" s="1">
-        <f>G20-H20</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J20">
-        <f>I20-K20-L20</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N20" s="1">
         <v>8</v>
       </c>
       <c r="O20" s="1">
-        <f>N20-P20</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -52173,23 +52177,23 @@
         <v>14</v>
       </c>
       <c r="I21" s="1">
-        <f>G21-H21</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J21">
-        <f>I21-K21-L21</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N21" s="1">
         <v>8</v>
       </c>
       <c r="O21" s="1">
-        <f>N21-P21</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -52215,23 +52219,23 @@
         <v>4</v>
       </c>
       <c r="I22" s="1">
-        <f>G22-H22</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J22">
-        <f>I22-K22-L22</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N22" s="1">
         <v>8</v>
       </c>
       <c r="O22" s="1">
-        <f>N22-P22</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -52257,18 +52261,18 @@
         <v>20</v>
       </c>
       <c r="I23" s="1">
-        <f>G23-H23</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J23">
-        <f>I23-K23-L23</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N23" s="1">
         <v>6</v>
       </c>
       <c r="O23" s="1">
-        <f>N23-P23</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P23">
@@ -52278,7 +52282,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -52304,25 +52308,25 @@
         <v>22</v>
       </c>
       <c r="I24" s="1">
-        <f>G24-H24</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J24">
-        <f>I24-K24-L24</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N24" s="1">
         <v>3</v>
       </c>
       <c r="O24" s="1">
-        <f>N24-P24</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -52348,23 +52352,23 @@
         <v>20</v>
       </c>
       <c r="I25" s="1">
-        <f>G25-H25</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J25">
-        <f>I25-K25-L25</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N25" s="1">
         <v>4</v>
       </c>
       <c r="O25" s="1">
-        <f>N25-P25</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -52390,23 +52394,23 @@
         <v>16</v>
       </c>
       <c r="I26" s="1">
-        <f>G26-H26</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J26">
-        <f>I26-K26-L26</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N26" s="1">
         <v>4</v>
       </c>
       <c r="O26" s="1">
-        <f>N26-P26</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -52432,23 +52436,23 @@
         <v>13</v>
       </c>
       <c r="I27" s="1">
-        <f>G27-H27</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J27">
-        <f>I27-K27-L27</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N27" s="1">
         <v>6</v>
       </c>
       <c r="O27" s="1">
-        <f>N27-P27</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -52474,23 +52478,23 @@
         <v>13</v>
       </c>
       <c r="I28" s="1">
-        <f>G28-H28</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J28">
-        <f>I28-K28-L28</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N28" s="1">
         <v>7</v>
       </c>
       <c r="O28" s="1">
-        <f>N28-P28</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -52516,23 +52520,23 @@
         <v>14</v>
       </c>
       <c r="I29" s="1">
-        <f>G29-H29</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J29">
-        <f>I29-K29-L29</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N29" s="1">
         <v>6</v>
       </c>
       <c r="O29" s="1">
-        <f>N29-P29</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -52558,25 +52562,25 @@
         <v>17</v>
       </c>
       <c r="I30" s="1">
-        <f>G30-H30</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J30">
-        <f>I30-K30-L30</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N30" s="1">
         <v>5</v>
       </c>
       <c r="O30" s="1">
-        <f>N30-P30</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -52602,25 +52606,25 @@
         <v>6</v>
       </c>
       <c r="I31" s="1">
-        <f>G31-H31</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J31">
-        <f>I31-K31-L31</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N31" s="1">
         <v>8</v>
       </c>
       <c r="O31" s="1">
-        <f>N31-P31</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -52646,11 +52650,11 @@
         <v>50</v>
       </c>
       <c r="I32" s="1">
-        <f>G32-H32</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J32">
-        <f>I32-K32-L32</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M32">
@@ -52660,7 +52664,7 @@
         <v>6</v>
       </c>
       <c r="O32" s="1">
-        <f>N32-P32</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P32">
@@ -52670,7 +52674,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -52696,25 +52700,25 @@
         <v>14</v>
       </c>
       <c r="I33" s="1">
-        <f>G33-H33</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J33">
-        <f>I33-K33-L33</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N33" s="1">
         <v>6</v>
       </c>
       <c r="O33" s="1">
-        <f>N33-P33</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -52740,23 +52744,23 @@
         <v>12</v>
       </c>
       <c r="I34" s="1">
-        <f>G34-H34</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J34">
-        <f>I34-K34-L34</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N34" s="1">
         <v>8</v>
       </c>
       <c r="O34" s="1">
-        <f>N34-P34</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -52782,23 +52786,23 @@
         <v>13</v>
       </c>
       <c r="I35" s="1">
-        <f>G35-H35</f>
+        <f t="shared" ref="I35:I66" si="3">G35-H35</f>
         <v>4</v>
       </c>
       <c r="J35">
-        <f>I35-K35-L35</f>
+        <f t="shared" ref="J35:J66" si="4">I35-K35-L35</f>
         <v>4</v>
       </c>
       <c r="N35" s="1">
         <v>7</v>
       </c>
       <c r="O35" s="1">
-        <f>N35-P35</f>
+        <f t="shared" ref="O35:O66" si="5">N35-P35</f>
         <v>7</v>
       </c>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -52824,23 +52828,23 @@
         <v>13</v>
       </c>
       <c r="I36" s="1">
-        <f>G36-H36</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J36">
-        <f>I36-K36-L36</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N36" s="1">
         <v>7</v>
       </c>
       <c r="O36" s="1">
-        <f>N36-P36</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -52866,11 +52870,11 @@
         <v>40</v>
       </c>
       <c r="I37" s="1">
-        <f>G37-H37</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="J37">
-        <f>I37-K37-L37</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="K37">
@@ -52880,14 +52884,14 @@
         <v>7</v>
       </c>
       <c r="O37" s="1">
-        <f>N37-P37</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -52913,25 +52917,25 @@
         <v>13</v>
       </c>
       <c r="I38" s="1">
-        <f>G38-H38</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J38">
-        <f>I38-K38-L38</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N38" s="1">
         <v>8</v>
       </c>
       <c r="O38" s="1">
-        <f>N38-P38</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -52957,25 +52961,25 @@
         <v>14</v>
       </c>
       <c r="I39" s="1">
-        <f>G39-H39</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J39">
-        <f>I39-K39-L39</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N39" s="1">
         <v>8</v>
       </c>
       <c r="O39" s="1">
-        <f>N39-P39</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -53001,25 +53005,25 @@
         <v>40</v>
       </c>
       <c r="I40" s="1">
-        <f>G40-H40</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J40">
-        <f>I40-K40-L40</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N40" s="1">
         <v>8</v>
       </c>
       <c r="O40" s="1">
-        <f>N40-P40</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -53045,23 +53049,23 @@
         <v>12</v>
       </c>
       <c r="I41" s="1">
-        <f>G41-H41</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J41">
-        <f>I41-K41-L41</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N41" s="1">
         <v>6</v>
       </c>
       <c r="O41" s="1">
-        <f>N41-P41</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -53087,25 +53091,25 @@
         <v>30</v>
       </c>
       <c r="I42" s="1">
-        <f>G42-H42</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J42">
-        <f>I42-K42-L42</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N42" s="1">
         <v>6</v>
       </c>
       <c r="O42" s="1">
-        <f>N42-P42</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -53131,25 +53135,25 @@
         <v>8</v>
       </c>
       <c r="I43" s="1">
-        <f>G43-H43</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J43">
-        <f>I43-K43-L43</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N43" s="1">
         <v>6</v>
       </c>
       <c r="O43" s="1">
-        <f>N43-P43</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -53175,25 +53179,25 @@
         <v>30</v>
       </c>
       <c r="I44" s="1">
-        <f>G44-H44</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J44">
-        <f>I44-K44-L44</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N44" s="1">
         <v>6</v>
       </c>
       <c r="O44" s="1">
-        <f>N44-P44</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -53219,23 +53223,23 @@
         <v>13</v>
       </c>
       <c r="I45" s="1">
-        <f>G45-H45</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J45">
-        <f>I45-K45-L45</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N45" s="1">
         <v>8</v>
       </c>
       <c r="O45" s="1">
-        <f>N45-P45</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -53261,23 +53265,23 @@
         <v>70</v>
       </c>
       <c r="I46" s="1">
-        <f>G46-H46</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J46">
-        <f>I46-K46-L46</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N46" s="1">
         <v>8</v>
       </c>
       <c r="O46" s="1">
-        <f>N46-P46</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -53303,25 +53307,25 @@
         <v>12</v>
       </c>
       <c r="I47" s="1">
-        <f>G47-H47</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J47">
-        <f>I47-K47-L47</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N47" s="1">
         <v>8</v>
       </c>
       <c r="O47" s="1">
-        <f>N47-P47</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -53347,23 +53351,23 @@
         <v>19</v>
       </c>
       <c r="I48" s="1">
-        <f>G48-H48</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J48">
-        <f>I48-K48-L48</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N48" s="1">
         <v>7</v>
       </c>
       <c r="O48" s="1">
-        <f>N48-P48</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -53389,23 +53393,23 @@
         <v>24</v>
       </c>
       <c r="I49" s="1">
-        <f>G49-H49</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J49">
-        <f>I49-K49-L49</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N49" s="1">
         <v>8</v>
       </c>
       <c r="O49" s="1">
-        <f>N49-P49</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -53431,23 +53435,23 @@
         <v>17</v>
       </c>
       <c r="I50" s="1">
-        <f>G50-H50</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J50">
-        <f>I50-K50-L50</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N50" s="1">
         <v>7</v>
       </c>
       <c r="O50" s="1">
-        <f>N50-P50</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -53473,11 +53477,11 @@
         <v>40</v>
       </c>
       <c r="I51" s="1">
-        <f>G51-H51</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="J51">
-        <f>I51-K51-L51</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K51">
@@ -53490,14 +53494,14 @@
         <v>5</v>
       </c>
       <c r="O51" s="1">
-        <f>N51-P51</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -53523,25 +53527,25 @@
         <v>16</v>
       </c>
       <c r="I52" s="1">
-        <f>G52-H52</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J52">
-        <f>I52-K52-L52</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N52" s="1">
         <v>6</v>
       </c>
       <c r="O52" s="1">
-        <f>N52-P52</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -53567,25 +53571,25 @@
         <v>13</v>
       </c>
       <c r="I53" s="1">
-        <f>G53-H53</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J53">
-        <f>I53-K53-L53</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N53" s="1">
         <v>9</v>
       </c>
       <c r="O53" s="1">
-        <f>N53-P53</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -53611,23 +53615,23 @@
         <v>44</v>
       </c>
       <c r="I54" s="1">
-        <f>G54-H54</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J54">
-        <f>I54-K54-L54</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N54" s="1">
         <v>4</v>
       </c>
       <c r="O54" s="1">
-        <f>N54-P54</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -53653,25 +53657,25 @@
         <v>11</v>
       </c>
       <c r="I55" s="1">
-        <f>G55-H55</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J55">
-        <f>I55-K55-L55</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N55" s="1">
         <v>5</v>
       </c>
       <c r="O55" s="1">
-        <f>N55-P55</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -53697,25 +53701,25 @@
         <v>40</v>
       </c>
       <c r="I56" s="1">
-        <f>G56-H56</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J56">
-        <f>I56-K56-L56</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N56" s="1">
         <v>8</v>
       </c>
       <c r="O56" s="1">
-        <f>N56-P56</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -53741,25 +53745,25 @@
         <v>30</v>
       </c>
       <c r="I57" s="1">
-        <f>G57-H57</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J57">
-        <f>I57-K57-L57</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N57" s="1">
         <v>8</v>
       </c>
       <c r="O57" s="1">
-        <f>N57-P57</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q57" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>56</v>
       </c>
@@ -53785,23 +53789,23 @@
         <v>13</v>
       </c>
       <c r="I58" s="1">
-        <f>G58-H58</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J58">
-        <f>I58-K58-L58</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N58" s="1">
         <v>6</v>
       </c>
       <c r="O58" s="1">
-        <f>N58-P58</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -53827,25 +53831,25 @@
         <v>10</v>
       </c>
       <c r="I59" s="1">
-        <f>G59-H59</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J59">
-        <f>I59-K59-L59</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N59" s="1">
         <v>7</v>
       </c>
       <c r="O59" s="1">
-        <f>N59-P59</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -53871,23 +53875,23 @@
         <v>12</v>
       </c>
       <c r="I60" s="1">
-        <f>G60-H60</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J60">
-        <f>I60-K60-L60</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N60" s="1">
         <v>7</v>
       </c>
       <c r="O60" s="1">
-        <f>N60-P60</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -53913,23 +53917,23 @@
         <v>40</v>
       </c>
       <c r="I61" s="1">
-        <f>G61-H61</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J61">
-        <f>I61-K61-L61</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N61" s="1">
         <v>4</v>
       </c>
       <c r="O61" s="1">
-        <f>N61-P61</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -53955,25 +53959,25 @@
         <v>10</v>
       </c>
       <c r="I62" s="1">
-        <f>G62-H62</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J62">
-        <f>I62-K62-L62</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N62" s="1">
         <v>9</v>
       </c>
       <c r="O62" s="1">
-        <f>N62-P62</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -53999,23 +54003,23 @@
         <v>35</v>
       </c>
       <c r="I63" s="1">
-        <f>G63-H63</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J63">
-        <f>I63-K63-L63</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N63" s="1">
         <v>8</v>
       </c>
       <c r="O63" s="1">
-        <f>N63-P63</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>62</v>
       </c>
@@ -54041,23 +54045,23 @@
         <v>8</v>
       </c>
       <c r="I64" s="1">
-        <f>G64-H64</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J64">
-        <f>I64-K64-L64</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N64" s="1">
         <v>4</v>
       </c>
       <c r="O64" s="1">
-        <f>N64-P64</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -54083,23 +54087,23 @@
         <v>24</v>
       </c>
       <c r="I65" s="1">
-        <f>G65-H65</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J65">
-        <f>I65-K65-L65</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N65" s="1">
         <v>4</v>
       </c>
       <c r="O65" s="1">
-        <f>N65-P65</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>64</v>
       </c>
@@ -54125,11 +54129,11 @@
         <v>42</v>
       </c>
       <c r="I66" s="1">
-        <f>G66-H66</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J66">
-        <f>I66-K66-L66</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M66">
@@ -54139,12 +54143,12 @@
         <v>7</v>
       </c>
       <c r="O66" s="1">
-        <f>N66-P66</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -54170,25 +54174,25 @@
         <v>13</v>
       </c>
       <c r="I67" s="1">
-        <f>G67-H67</f>
+        <f t="shared" ref="I67:I98" si="6">G67-H67</f>
         <v>3</v>
       </c>
       <c r="J67">
-        <f>I67-K67-L67</f>
+        <f t="shared" ref="J67:J98" si="7">I67-K67-L67</f>
         <v>3</v>
       </c>
       <c r="N67" s="1">
         <v>7</v>
       </c>
       <c r="O67" s="1">
-        <f>N67-P67</f>
+        <f t="shared" ref="O67:O98" si="8">N67-P67</f>
         <v>7</v>
       </c>
       <c r="Q67" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>66</v>
       </c>
@@ -54214,25 +54218,25 @@
         <v>12</v>
       </c>
       <c r="I68" s="1">
-        <f>G68-H68</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="J68">
-        <f>I68-K68-L68</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N68" s="1">
         <v>7</v>
       </c>
       <c r="O68" s="1">
-        <f>N68-P68</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Q68" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -54258,23 +54262,23 @@
         <v>15</v>
       </c>
       <c r="I69" s="1">
-        <f>G69-H69</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="J69">
-        <f>I69-K69-L69</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N69" s="1">
         <v>7</v>
       </c>
       <c r="O69" s="1">
-        <f>N69-P69</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>68</v>
       </c>
@@ -54300,23 +54304,23 @@
         <v>55</v>
       </c>
       <c r="I70" s="1">
-        <f>G70-H70</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="J70">
-        <f>I70-K70-L70</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N70" s="1">
         <v>5</v>
       </c>
       <c r="O70" s="1">
-        <f>N70-P70</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -54342,23 +54346,23 @@
         <v>19</v>
       </c>
       <c r="I71" s="1">
-        <f>G71-H71</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="J71">
-        <f>I71-K71-L71</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N71" s="1">
         <v>4</v>
       </c>
       <c r="O71" s="1">
-        <f>N71-P71</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>70</v>
       </c>
@@ -54384,25 +54388,25 @@
         <v>15</v>
       </c>
       <c r="I72" s="1">
-        <f>G72-H72</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J72">
-        <f>I72-K72-L72</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N72" s="1">
         <v>7</v>
       </c>
       <c r="O72" s="1">
-        <f>N72-P72</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Q72" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -54428,23 +54432,23 @@
         <v>14</v>
       </c>
       <c r="I73" s="1">
-        <f>G73-H73</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J73">
-        <f>I73-K73-L73</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N73" s="1">
         <v>7</v>
       </c>
       <c r="O73" s="1">
-        <f>N73-P73</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>72</v>
       </c>
@@ -54470,23 +54474,23 @@
         <v>42</v>
       </c>
       <c r="I74" s="1">
-        <f>G74-H74</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J74">
-        <f>I74-K74-L74</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N74" s="1">
         <v>7</v>
       </c>
       <c r="O74" s="1">
-        <f>N74-P74</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -54512,25 +54516,25 @@
         <v>50</v>
       </c>
       <c r="I75" s="1">
-        <f>G75-H75</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="J75">
-        <f>I75-K75-L75</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N75" s="1">
         <v>7</v>
       </c>
       <c r="O75" s="1">
-        <f>N75-P75</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Q75" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>74</v>
       </c>
@@ -54556,23 +54560,23 @@
         <v>15</v>
       </c>
       <c r="I76" s="1">
-        <f>G76-H76</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="J76">
-        <f>I76-K76-L76</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N76" s="1">
         <v>5</v>
       </c>
       <c r="O76" s="1">
-        <f>N76-P76</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -54598,23 +54602,23 @@
         <v>50</v>
       </c>
       <c r="I77" s="1">
-        <f>G77-H77</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J77">
-        <f>I77-K77-L77</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N77" s="1">
         <v>7</v>
       </c>
       <c r="O77" s="1">
-        <f>N77-P77</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>76</v>
       </c>
@@ -54640,11 +54644,11 @@
         <v>43</v>
       </c>
       <c r="I78" s="1">
-        <f>G78-H78</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J78">
-        <f>I78-K78-L78</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="M78">
@@ -54663,7 +54667,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -54689,23 +54693,23 @@
         <v>15</v>
       </c>
       <c r="I79" s="1">
-        <f>G79-H79</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J79">
-        <f>I79-K79-L79</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N79" s="1">
         <v>7</v>
       </c>
       <c r="O79" s="1">
-        <f>N79-P79</f>
+        <f t="shared" ref="O79:O110" si="9">N79-P79</f>
         <v>7</v>
       </c>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>78</v>
       </c>
@@ -54731,23 +54735,23 @@
         <v>12</v>
       </c>
       <c r="I80" s="1">
-        <f>G80-H80</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J80">
-        <f>I80-K80-L80</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N80" s="1">
         <v>7</v>
       </c>
       <c r="O80" s="1">
-        <f>N80-P80</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -54773,23 +54777,23 @@
         <v>17</v>
       </c>
       <c r="I81" s="1">
-        <f>G81-H81</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J81">
-        <f>I81-K81-L81</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N81" s="1">
         <v>7</v>
       </c>
       <c r="O81" s="1">
-        <f>N81-P81</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>80</v>
       </c>
@@ -54815,23 +54819,23 @@
         <v>30</v>
       </c>
       <c r="I82" s="1">
-        <f>G82-H82</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J82">
-        <f>I82-K82-L82</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N82" s="1">
         <v>7</v>
       </c>
       <c r="O82" s="1">
-        <f>N82-P82</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -54857,23 +54861,23 @@
         <v>12</v>
       </c>
       <c r="I83" s="1">
-        <f>G83-H83</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="J83">
-        <f>I83-K83-L83</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N83" s="1">
         <v>6</v>
       </c>
       <c r="O83" s="1">
-        <f>N83-P83</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>82</v>
       </c>
@@ -54899,23 +54903,23 @@
         <v>7</v>
       </c>
       <c r="I84" s="1">
-        <f>G84-H84</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J84">
-        <f>I84-K84-L84</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N84" s="1">
         <v>8</v>
       </c>
       <c r="O84" s="1">
-        <f>N84-P84</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -54941,23 +54945,23 @@
         <v>6</v>
       </c>
       <c r="I85" s="1">
-        <f>G85-H85</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J85">
-        <f>I85-K85-L85</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N85" s="1">
         <v>5</v>
       </c>
       <c r="O85" s="1">
-        <f>N85-P85</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>84</v>
       </c>
@@ -54983,23 +54987,23 @@
         <v>50</v>
       </c>
       <c r="I86" s="1">
-        <f>G86-H86</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J86">
-        <f>I86-K86-L86</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N86" s="1">
         <v>8</v>
       </c>
       <c r="O86" s="1">
-        <f>N86-P86</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -55025,23 +55029,23 @@
         <v>17</v>
       </c>
       <c r="I87" s="1">
-        <f>G87-H87</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J87">
-        <f>I87-K87-L87</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N87" s="1">
         <v>6</v>
       </c>
       <c r="O87" s="1">
-        <f>N87-P87</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>86</v>
       </c>
@@ -55067,23 +55071,23 @@
         <v>7</v>
       </c>
       <c r="I88" s="1">
-        <f>G88-H88</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="J88">
-        <f>I88-K88-L88</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N88" s="1">
         <v>6</v>
       </c>
       <c r="O88" s="1">
-        <f>N88-P88</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -55109,23 +55113,23 @@
         <v>16</v>
       </c>
       <c r="I89" s="1">
-        <f>G89-H89</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="J89">
-        <f>I89-K89-L89</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N89" s="1">
         <v>4</v>
       </c>
       <c r="O89" s="1">
-        <f>N89-P89</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>88</v>
       </c>
@@ -55151,23 +55155,23 @@
         <v>19</v>
       </c>
       <c r="I90" s="1">
-        <f>G90-H90</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J90">
-        <f>I90-K90-L90</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N90" s="1">
         <v>5</v>
       </c>
       <c r="O90" s="1">
-        <f>N90-P90</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -55193,23 +55197,23 @@
         <v>10</v>
       </c>
       <c r="I91" s="1">
-        <f>G91-H91</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="J91">
-        <f>I91-K91-L91</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N91" s="1">
         <v>7</v>
       </c>
       <c r="O91" s="1">
-        <f>N91-P91</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>90</v>
       </c>
@@ -55235,23 +55239,23 @@
         <v>13</v>
       </c>
       <c r="I92" s="1">
-        <f>G92-H92</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="J92">
-        <f>I92-K92-L92</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N92" s="1">
         <v>6</v>
       </c>
       <c r="O92" s="1">
-        <f>N92-P92</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -55277,25 +55281,25 @@
         <v>14</v>
       </c>
       <c r="I93" s="1">
-        <f>G93-H93</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J93">
-        <f>I93-K93-L93</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N93" s="1">
         <v>7</v>
       </c>
       <c r="O93" s="1">
-        <f>N93-P93</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q93" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>92</v>
       </c>
@@ -55321,25 +55325,25 @@
         <v>13</v>
       </c>
       <c r="I94" s="1">
-        <f>G94-H94</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="J94">
-        <f>I94-K94-L94</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N94" s="1">
         <v>7</v>
       </c>
       <c r="O94" s="1">
-        <f>N94-P94</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q94" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -55365,23 +55369,23 @@
         <v>30</v>
       </c>
       <c r="I95" s="1">
-        <f>G95-H95</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J95">
-        <f>I95-K95-L95</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N95" s="1">
         <v>5</v>
       </c>
       <c r="O95" s="1">
-        <f>N95-P95</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>94</v>
       </c>
@@ -55407,23 +55411,23 @@
         <v>40</v>
       </c>
       <c r="I96" s="1">
-        <f>G96-H96</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J96">
-        <f>I96-K96-L96</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N96" s="1">
         <v>4</v>
       </c>
       <c r="O96" s="1">
-        <f>N96-P96</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -55449,23 +55453,23 @@
         <v>32</v>
       </c>
       <c r="I97" s="1">
-        <f>G97-H97</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J97">
-        <f>I97-K97-L97</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N97" s="1">
         <v>7</v>
       </c>
       <c r="O97" s="1">
-        <f>N97-P97</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>96</v>
       </c>
@@ -55491,23 +55495,23 @@
         <v>2</v>
       </c>
       <c r="I98" s="1">
-        <f>G98-H98</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J98">
-        <f>I98-K98-L98</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N98" s="1">
         <v>7</v>
       </c>
       <c r="O98" s="1">
-        <f>N98-P98</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -55533,18 +55537,18 @@
         <v>40</v>
       </c>
       <c r="I99" s="1">
-        <f>G99-H99</f>
+        <f t="shared" ref="I99:I130" si="10">G99-H99</f>
         <v>5</v>
       </c>
       <c r="J99">
-        <f>I99-K99-L99</f>
+        <f t="shared" ref="J99:J130" si="11">I99-K99-L99</f>
         <v>5</v>
       </c>
       <c r="N99" s="1">
         <v>9</v>
       </c>
       <c r="O99" s="1">
-        <f>N99-P99</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="Q99" s="1" t="s">
@@ -55553,7 +55557,7 @@
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>98</v>
       </c>
@@ -55579,25 +55583,25 @@
         <v>18</v>
       </c>
       <c r="I100" s="1">
-        <f>G100-H100</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="J100">
-        <f>I100-K100-L100</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="N100" s="1">
         <v>7</v>
       </c>
       <c r="O100" s="1">
-        <f>N100-P100</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="5"/>
       <c r="S100" s="5"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -55623,25 +55627,25 @@
         <v>14</v>
       </c>
       <c r="I101" s="1">
-        <f>G101-H101</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J101">
-        <f>I101-K101-L101</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N101" s="1">
         <v>4</v>
       </c>
       <c r="O101" s="1">
-        <f>N101-P101</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="Q101" s="1"/>
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>100</v>
       </c>
@@ -55667,25 +55671,25 @@
         <v>13</v>
       </c>
       <c r="I102" s="1">
-        <f>G102-H102</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J102">
-        <f>I102-K102-L102</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="N102" s="1">
         <v>4</v>
       </c>
       <c r="O102" s="1">
-        <f>N102-P102</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="Q102" s="1"/>
       <c r="R102" s="5"/>
       <c r="S102" s="5"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -55711,25 +55715,25 @@
         <v>32</v>
       </c>
       <c r="I103" s="1">
-        <f>G103-H103</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="J103">
-        <f>I103-K103-L103</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="N103" s="1">
         <v>5</v>
       </c>
       <c r="O103" s="1">
-        <f>N103-P103</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Q103" s="1"/>
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -55755,22 +55759,22 @@
         <v>18</v>
       </c>
       <c r="I104" s="1">
-        <f>G104-H104</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J104">
-        <f>I104-K104-L104</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="N104" s="1">
         <v>5</v>
       </c>
       <c r="O104" s="1">
-        <f>N104-P104</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -55796,11 +55800,11 @@
         <v>20</v>
       </c>
       <c r="I105" s="1">
-        <f>G105-H105</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J105">
-        <f>I105-K105-L105</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K105"/>
@@ -55810,13 +55814,13 @@
         <v>7</v>
       </c>
       <c r="O105" s="1">
-        <f>N105-P105</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="P105"/>
       <c r="Q105"/>
     </row>
-    <row r="106" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -55842,11 +55846,11 @@
         <v>19</v>
       </c>
       <c r="I106" s="1">
-        <f>G106-H106</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J106">
-        <f>I106-K106-L106</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K106"/>
@@ -55856,13 +55860,13 @@
         <v>7</v>
       </c>
       <c r="O106" s="1">
-        <f>N106-P106</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="P106"/>
       <c r="Q106"/>
     </row>
-    <row r="107" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -55888,22 +55892,22 @@
         <v>17</v>
       </c>
       <c r="I107" s="1">
-        <f>G107-H107</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J107">
-        <f>I107-K107-L107</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N107" s="1">
         <v>5</v>
       </c>
       <c r="O107" s="1">
-        <f>N107-P107</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -55929,11 +55933,11 @@
         <v>12</v>
       </c>
       <c r="I108" s="1">
-        <f>G108-H108</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="J108">
-        <f>I108-K108-L108</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="K108" s="1"/>
@@ -55943,13 +55947,13 @@
         <v>6</v>
       </c>
       <c r="O108" s="1">
-        <f>N108-P108</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -55975,11 +55979,11 @@
         <v>20</v>
       </c>
       <c r="I109" s="1">
-        <f>G109-H109</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J109">
-        <f>I109-K109-L109</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="K109" s="1"/>
@@ -55989,13 +55993,13 @@
         <v>6</v>
       </c>
       <c r="O109" s="1">
-        <f>N109-P109</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -56021,22 +56025,22 @@
         <v>10</v>
       </c>
       <c r="I110" s="1">
-        <f>G110-H110</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J110">
-        <f>I110-K110-L110</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="N110" s="1">
         <v>6</v>
       </c>
       <c r="O110" s="1">
-        <f>N110-P110</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -56062,22 +56066,22 @@
         <v>20</v>
       </c>
       <c r="I111" s="1">
-        <f>G111-H111</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J111">
-        <f>I111-K111-L111</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="N111" s="1">
         <v>4</v>
       </c>
       <c r="O111" s="1">
-        <f>N111-P111</f>
+        <f t="shared" ref="O111:O142" si="12">N111-P111</f>
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -56103,22 +56107,22 @@
         <v>15</v>
       </c>
       <c r="I112" s="1">
-        <f>G112-H112</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J112">
-        <f>I112-K112-L112</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="N112" s="1">
         <v>5</v>
       </c>
       <c r="O112" s="1">
-        <f>N112-P112</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -56144,22 +56148,22 @@
         <v>15</v>
       </c>
       <c r="I113" s="1">
-        <f>G113-H113</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J113">
-        <f>I113-K113-L113</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="N113" s="1">
         <v>7</v>
       </c>
       <c r="O113" s="1">
-        <f>N113-P113</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -56185,22 +56189,22 @@
         <v>13</v>
       </c>
       <c r="I114" s="1">
-        <f>G114-H114</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J114">
-        <f>I114-K114-L114</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="N114" s="1">
         <v>6</v>
       </c>
       <c r="O114" s="1">
-        <f>N114-P114</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -56226,22 +56230,22 @@
         <v>24</v>
       </c>
       <c r="I115" s="1">
-        <f>G115-H115</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J115">
-        <f>I115-K115-L115</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="N115" s="1">
         <v>6</v>
       </c>
       <c r="O115" s="1">
-        <f>N115-P115</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -56267,22 +56271,22 @@
         <v>30</v>
       </c>
       <c r="I116" s="1">
-        <f>G116-H116</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J116">
-        <f>I116-K116-L116</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="N116" s="1">
         <v>6</v>
       </c>
       <c r="O116" s="1">
-        <f>N116-P116</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -56308,25 +56312,25 @@
         <v>60</v>
       </c>
       <c r="I117" s="1">
-        <f>G117-H117</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J117">
-        <f>I117-K117-L117</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="N117">
         <v>5</v>
       </c>
       <c r="O117" s="1">
-        <f>N117-P117</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="Q117" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -56352,22 +56356,22 @@
         <v>53</v>
       </c>
       <c r="I118" s="1">
-        <f>G118-H118</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J118">
-        <f>I118-K118-L118</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="N118" s="1">
         <v>5</v>
       </c>
       <c r="O118" s="1">
-        <f>N118-P118</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -56393,25 +56397,25 @@
         <v>28</v>
       </c>
       <c r="I119" s="1">
-        <f>G119-H119</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="J119">
-        <f>I119-K119-L119</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="N119">
         <v>5</v>
       </c>
       <c r="O119" s="1">
-        <f>N119-P119</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="Q119" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -56437,22 +56441,22 @@
         <v>24</v>
       </c>
       <c r="I120" s="1">
-        <f>G120-H120</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J120">
-        <f>I120-K120-L120</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N120">
         <v>6</v>
       </c>
       <c r="O120" s="1">
-        <f>N120-P120</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -56478,22 +56482,22 @@
         <v>17</v>
       </c>
       <c r="I121" s="1">
-        <f>G121-H121</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J121">
-        <f>I121-K121-L121</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N121">
         <v>5</v>
       </c>
       <c r="O121" s="1">
-        <f>N121-P121</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -56519,25 +56523,25 @@
         <v>20</v>
       </c>
       <c r="I122" s="1">
-        <f>G122-H122</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J122">
-        <f>I122-K122-L122</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N122">
         <v>6</v>
       </c>
       <c r="O122" s="1">
-        <f>N122-P122</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="Q122" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -56563,22 +56567,22 @@
         <v>8</v>
       </c>
       <c r="I123" s="1">
-        <f>G123-H123</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="J123">
-        <f>I123-K123-L123</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="N123">
         <v>5</v>
       </c>
       <c r="O123" s="1">
-        <f>N123-P123</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -56604,22 +56608,22 @@
         <v>20</v>
       </c>
       <c r="I124" s="1">
-        <f>G124-H124</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="J124">
-        <f>I124-K124-L124</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="N124" s="1">
         <v>5</v>
       </c>
       <c r="O124" s="1">
-        <f>N124-P124</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -56645,22 +56649,22 @@
         <v>37</v>
       </c>
       <c r="I125" s="1">
-        <f>G125-H125</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="J125">
-        <f>I125-K125-L125</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="N125" s="1">
         <v>5</v>
       </c>
       <c r="O125" s="1">
-        <f>N125-P125</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -56686,22 +56690,22 @@
         <v>18</v>
       </c>
       <c r="I126" s="1">
-        <f>G126-H126</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J126">
-        <f>I126-K126-L126</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="N126" s="1">
         <v>5</v>
       </c>
       <c r="O126" s="1">
-        <f>N126-P126</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -56727,22 +56731,22 @@
         <v>16</v>
       </c>
       <c r="I127" s="1">
-        <f>G127-H127</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J127">
-        <f>I127-K127-L127</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N127" s="1">
         <v>5</v>
       </c>
       <c r="O127" s="1">
-        <f>N127-P127</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -56768,22 +56772,22 @@
         <v>18</v>
       </c>
       <c r="I128" s="1">
-        <f>G128-H128</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J128">
-        <f>I128-K128-L128</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="N128" s="1">
         <v>5</v>
       </c>
       <c r="O128" s="1">
-        <f>N128-P128</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -56809,22 +56813,22 @@
         <v>12</v>
       </c>
       <c r="I129" s="1">
-        <f>G129-H129</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J129">
-        <f>I129-K129-L129</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N129" s="1">
         <v>5</v>
       </c>
       <c r="O129" s="1">
-        <f>N129-P129</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -56850,22 +56854,22 @@
         <v>17</v>
       </c>
       <c r="I130" s="1">
-        <f>G130-H130</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="J130">
-        <f>I130-K130-L130</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="N130" s="1">
         <v>5</v>
       </c>
       <c r="O130" s="1">
-        <f>N130-P130</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -56891,22 +56895,22 @@
         <v>24</v>
       </c>
       <c r="I131" s="1">
-        <f>G131-H131</f>
+        <f t="shared" ref="I131:I162" si="13">G131-H131</f>
         <v>5</v>
       </c>
       <c r="J131">
-        <f>I131-K131-L131</f>
+        <f t="shared" ref="J131:J162" si="14">I131-K131-L131</f>
         <v>5</v>
       </c>
       <c r="N131" s="1">
         <v>5</v>
       </c>
       <c r="O131" s="1">
-        <f>N131-P131</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -56932,22 +56936,22 @@
         <v>17</v>
       </c>
       <c r="I132" s="1">
-        <f>G132-H132</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="J132">
-        <f>I132-K132-L132</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="N132" s="1">
         <v>5</v>
       </c>
       <c r="O132" s="1">
-        <f>N132-P132</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -56973,22 +56977,22 @@
         <v>17</v>
       </c>
       <c r="I133" s="1">
-        <f>G133-H133</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="J133">
-        <f>I133-K133-L133</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="N133" s="1">
         <v>4</v>
       </c>
       <c r="O133" s="1">
-        <f>N133-P133</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -57014,22 +57018,22 @@
         <v>24</v>
       </c>
       <c r="I134" s="1">
-        <f>G134-H134</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J134">
-        <f>I134-K134-L134</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="N134" s="1">
         <v>5</v>
       </c>
       <c r="O134" s="1">
-        <f>N134-P134</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -57055,22 +57059,22 @@
         <v>17</v>
       </c>
       <c r="I135" s="1">
-        <f>G135-H135</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="J135">
-        <f>I135-K135-L135</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="N135" s="1">
         <v>4</v>
       </c>
       <c r="O135" s="1">
-        <f>N135-P135</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -57096,22 +57100,22 @@
         <v>22</v>
       </c>
       <c r="I136" s="1">
-        <f>G136-H136</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="J136">
-        <f>I136-K136-L136</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="N136" s="1">
         <v>5</v>
       </c>
       <c r="O136" s="1">
-        <f>N136-P136</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -57137,22 +57141,22 @@
         <v>20</v>
       </c>
       <c r="I137" s="1">
-        <f>G137-H137</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="J137">
-        <f>I137-K137-L137</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="N137" s="1">
         <v>5</v>
       </c>
       <c r="O137" s="1">
-        <f>N137-P137</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -57178,22 +57182,22 @@
         <v>37</v>
       </c>
       <c r="I138" s="1">
-        <f>G138-H138</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="J138">
-        <f>I138-K138-L138</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="N138" s="1">
         <v>5</v>
       </c>
       <c r="O138" s="1">
-        <f>N138-P138</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -57219,22 +57223,22 @@
         <v>15</v>
       </c>
       <c r="I139" s="1">
-        <f>G139-H139</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J139">
-        <f>I139-K139-L139</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="N139" s="1">
         <v>5</v>
       </c>
       <c r="O139" s="1">
-        <f>N139-P139</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -57260,22 +57264,22 @@
         <v>15</v>
       </c>
       <c r="I140" s="1">
-        <f>G140-H140</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="J140">
-        <f>I140-K140-L140</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="N140" s="1">
         <v>5</v>
       </c>
       <c r="O140" s="1">
-        <f>N140-P140</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -57301,22 +57305,22 @@
         <v>16</v>
       </c>
       <c r="I141" s="1">
-        <f>G141-H141</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="J141">
-        <f>I141-K141-L141</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="N141" s="1">
         <v>5</v>
       </c>
       <c r="O141" s="1">
-        <f>N141-P141</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -57342,25 +57346,25 @@
         <v>10</v>
       </c>
       <c r="I142" s="1">
-        <f>G142-H142</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J142">
-        <f>I142-K142-L142</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="N142">
         <v>6</v>
       </c>
       <c r="O142" s="1">
-        <f>N142-P142</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="Q142" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -57386,22 +57390,22 @@
         <v>17</v>
       </c>
       <c r="I143" s="1">
-        <f>G143-H143</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="J143">
-        <f>I143-K143-L143</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="N143">
         <v>5</v>
       </c>
       <c r="O143" s="1">
-        <f>N143-P143</f>
+        <f t="shared" ref="O143:O174" si="15">N143-P143</f>
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -57427,22 +57431,22 @@
         <v>18</v>
       </c>
       <c r="I144" s="1">
-        <f>G144-H144</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="J144">
-        <f>I144-K144-L144</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="N144" s="1">
         <v>5</v>
       </c>
       <c r="O144" s="1">
-        <f>N144-P144</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -57468,22 +57472,22 @@
         <v>14</v>
       </c>
       <c r="I145" s="1">
-        <f>G145-H145</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="J145">
-        <f>I145-K145-L145</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="N145" s="1">
         <v>6</v>
       </c>
       <c r="O145" s="1">
-        <f>N145-P145</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -57509,22 +57513,22 @@
         <v>17</v>
       </c>
       <c r="I146" s="1">
-        <f>G146-H146</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J146">
-        <f>I146-K146-L146</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="N146" s="1">
         <v>5</v>
       </c>
       <c r="O146" s="1">
-        <f>N146-P146</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -57550,22 +57554,22 @@
         <v>15</v>
       </c>
       <c r="I147" s="1">
-        <f>G147-H147</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J147">
-        <f>I147-K147-L147</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="N147" s="1">
         <v>5</v>
       </c>
       <c r="O147" s="1">
-        <f>N147-P147</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -57591,22 +57595,22 @@
         <v>30</v>
       </c>
       <c r="I148" s="1">
-        <f>G148-H148</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="J148">
-        <f>I148-K148-L148</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="N148" s="1">
         <v>6</v>
       </c>
       <c r="O148" s="1">
-        <f>N148-P148</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -57632,22 +57636,22 @@
         <v>40</v>
       </c>
       <c r="I149" s="1">
-        <f>G149-H149</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="J149">
-        <f>I149-K149-L149</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="N149">
         <v>5</v>
       </c>
       <c r="O149" s="1">
-        <f>N149-P149</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -57673,22 +57677,22 @@
         <v>12</v>
       </c>
       <c r="I150" s="1">
-        <f>G150-H150</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="J150">
-        <f>I150-K150-L150</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="N150">
         <v>5</v>
       </c>
       <c r="O150" s="1">
-        <f>N150-P150</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -57714,22 +57718,22 @@
         <v>12</v>
       </c>
       <c r="I151" s="1">
-        <f>G151-H151</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="J151">
-        <f>I151-K151-L151</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="N151" s="1">
         <v>5</v>
       </c>
       <c r="O151" s="1">
-        <f>N151-P151</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -57755,22 +57759,22 @@
         <v>10</v>
       </c>
       <c r="I152" s="1">
-        <f>G152-H152</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J152">
-        <f>I152-K152-L152</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="N152" s="1">
         <v>6</v>
       </c>
       <c r="O152" s="1">
-        <f>N152-P152</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -57796,22 +57800,22 @@
         <v>14</v>
       </c>
       <c r="I153" s="1">
-        <f>G153-H153</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="J153">
-        <f>I153-K153-L153</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="N153" s="1">
         <v>5</v>
       </c>
       <c r="O153" s="1">
-        <f>N153-P153</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -57837,22 +57841,22 @@
         <v>10</v>
       </c>
       <c r="I154" s="1">
-        <f>G154-H154</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="J154">
-        <f>I154-K154-L154</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="N154" s="1">
         <v>6</v>
       </c>
       <c r="O154" s="1">
-        <f>N154-P154</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -57878,22 +57882,22 @@
         <v>8</v>
       </c>
       <c r="I155" s="1">
-        <f>G155-H155</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="J155">
-        <f>I155-K155-L155</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="N155" s="1">
         <v>5</v>
       </c>
       <c r="O155" s="1">
-        <f>N155-P155</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -57919,22 +57923,22 @@
         <v>18</v>
       </c>
       <c r="I156" s="1">
-        <f>G156-H156</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="J156">
-        <f>I156-K156-L156</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="N156" s="1">
         <v>6</v>
       </c>
       <c r="O156" s="1">
-        <f>N156-P156</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -57960,22 +57964,22 @@
         <v>12</v>
       </c>
       <c r="I157" s="1">
-        <f>G157-H157</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J157">
-        <f>I157-K157-L157</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="N157" s="1">
         <v>5</v>
       </c>
       <c r="O157" s="1">
-        <f>N157-P157</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -58001,22 +58005,22 @@
         <v>20</v>
       </c>
       <c r="I158" s="1">
-        <f>G158-H158</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J158">
-        <f>I158-K158-L158</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="N158" s="1">
         <v>5</v>
       </c>
       <c r="O158" s="1">
-        <f>N158-P158</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -58042,22 +58046,22 @@
         <v>13</v>
       </c>
       <c r="I159" s="1">
-        <f>G159-H159</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="J159">
-        <f>I159-K159-L159</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="N159" s="1">
         <v>6</v>
       </c>
       <c r="O159" s="1">
-        <f>N159-P159</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -58083,22 +58087,22 @@
         <v>12</v>
       </c>
       <c r="I160" s="1">
-        <f>G160-H160</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J160">
-        <f>I160-K160-L160</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="N160" s="1">
         <v>6</v>
       </c>
       <c r="O160" s="1">
-        <f>N160-P160</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -58124,22 +58128,22 @@
         <v>12</v>
       </c>
       <c r="I161" s="1">
-        <f>G161-H161</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="J161">
-        <f>I161-K161-L161</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="N161" s="1">
         <v>5</v>
       </c>
       <c r="O161" s="1">
-        <f>N161-P161</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -58165,22 +58169,22 @@
         <v>12</v>
       </c>
       <c r="I162" s="1">
-        <f>G162-H162</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="J162">
-        <f>I162-K162-L162</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="N162" s="1">
         <v>5</v>
       </c>
       <c r="O162" s="1">
-        <f>N162-P162</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -58206,22 +58210,22 @@
         <v>13</v>
       </c>
       <c r="I163" s="1">
-        <f>G163-H163</f>
+        <f t="shared" ref="I163:I194" si="16">G163-H163</f>
         <v>4</v>
       </c>
       <c r="J163">
-        <f>I163-K163-L163</f>
+        <f t="shared" ref="J163:J194" si="17">I163-K163-L163</f>
         <v>4</v>
       </c>
       <c r="N163" s="1">
         <v>6</v>
       </c>
       <c r="O163" s="1">
-        <f>N163-P163</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -58247,22 +58251,22 @@
         <v>13</v>
       </c>
       <c r="I164" s="1">
-        <f>G164-H164</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="J164">
-        <f>I164-K164-L164</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="N164" s="1">
         <v>5</v>
       </c>
       <c r="O164" s="1">
-        <f>N164-P164</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -58288,22 +58292,22 @@
         <v>20</v>
       </c>
       <c r="I165" s="1">
-        <f>G165-H165</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="J165">
-        <f>I165-K165-L165</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="N165" s="1">
         <v>8</v>
       </c>
       <c r="O165" s="1">
-        <f>N165-P165</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -58329,22 +58333,22 @@
         <v>10</v>
       </c>
       <c r="I166" s="1">
-        <f>G166-H166</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="J166">
-        <f>I166-K166-L166</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="N166" s="1">
         <v>5</v>
       </c>
       <c r="O166" s="1">
-        <f>N166-P166</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -58370,22 +58374,22 @@
         <v>40</v>
       </c>
       <c r="I167" s="1">
-        <f>G167-H167</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="J167">
-        <f>I167-K167-L167</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="N167" s="1">
         <v>4</v>
       </c>
       <c r="O167" s="1">
-        <f>N167-P167</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -58411,22 +58415,22 @@
         <v>11</v>
       </c>
       <c r="I168" s="1">
-        <f>G168-H168</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="J168">
-        <f>I168-K168-L168</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="N168" s="1">
         <v>5</v>
       </c>
       <c r="O168" s="1">
-        <f>N168-P168</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -58452,22 +58456,22 @@
         <v>11</v>
       </c>
       <c r="I169" s="1">
-        <f>G169-H169</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="J169">
-        <f>I169-K169-L169</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="N169">
         <v>7</v>
       </c>
       <c r="O169" s="1">
-        <f>N169-P169</f>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -58493,22 +58497,22 @@
         <v>30</v>
       </c>
       <c r="I170" s="1">
-        <f>G170-H170</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="J170">
-        <f>I170-K170-L170</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="N170">
         <v>4</v>
       </c>
       <c r="O170" s="1">
-        <f>N170-P170</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -58534,22 +58538,22 @@
         <v>20</v>
       </c>
       <c r="I171" s="1">
-        <f>G171-H171</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="J171">
-        <f>I171-K171-L171</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="N171">
         <v>5</v>
       </c>
       <c r="O171" s="1">
-        <f>N171-P171</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -58575,22 +58579,63 @@
         <v>20</v>
       </c>
       <c r="I172" s="1">
-        <f>G172-H172</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="J172">
-        <f>I172-K172-L172</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="N172">
         <v>5</v>
       </c>
       <c r="O172" s="1">
-        <f>N172-P172</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="5">
+        <v>43722</v>
+      </c>
+      <c r="C173" s="10">
+        <v>77080</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G173" s="1">
+        <v>28</v>
+      </c>
+      <c r="H173" s="1">
+        <v>22</v>
+      </c>
+      <c r="I173" s="1">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="N173">
+        <v>5</v>
+      </c>
+      <c r="O173" s="1">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E174" s="1"/>
     </row>
   </sheetData>
@@ -58631,21 +58676,21 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="6">
         <f>COUNTA(列表!$C:$C)-1</f>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>119</v>
       </c>

--- a/MarriageRecorder.xlsx
+++ b/MarriageRecorder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="308">
   <si>
     <t>舰 ID</t>
   </si>
@@ -1042,6 +1042,31 @@
     <t>Janus改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Perth</t>
+  </si>
+  <si>
+    <t>神州丸</t>
+  </si>
+  <si>
+    <t>De Ruyter</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>夕張改二</t>
+  </si>
+  <si>
+    <t>夕张改二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1170,7 +1195,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -49703,7 +49727,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -51224,31 +51247,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V174"/>
+  <dimension ref="A1:V180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="6" width="11.25" customWidth="1"/>
+    <col min="4" max="6" width="11.21875" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="7.25" customWidth="1"/>
-    <col min="14" max="14" width="10.125" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
-    <col min="18" max="18" width="12.5" customWidth="1"/>
-    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="7.21875" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>163</v>
       </c>
@@ -51269,7 +51292,7 @@
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>162</v>
       </c>
@@ -51334,7 +51357,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -51360,11 +51383,11 @@
         <v>20</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I34" si="0">G3-H3</f>
+        <f>G3-H3</f>
         <v>8</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J34" si="1">I3-K3-L3</f>
+        <f>I3-K3-L3</f>
         <v>4</v>
       </c>
       <c r="L3">
@@ -51377,7 +51400,7 @@
         <v>6</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O34" si="2">N3-P3</f>
+        <f>N3-P3</f>
         <v>5</v>
       </c>
       <c r="P3">
@@ -51387,7 +51410,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -51413,11 +51436,11 @@
         <v>20</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
+        <f>G4-H4</f>
         <v>30</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f>I4-K4-L4</f>
         <v>6</v>
       </c>
       <c r="K4">
@@ -51431,7 +51454,7 @@
         <v>6</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="2"/>
+        <f>N4-P4</f>
         <v>6</v>
       </c>
       <c r="P4"/>
@@ -51444,7 +51467,7 @@
       <c r="U4"/>
       <c r="V4"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -51470,11 +51493,11 @@
         <v>40</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
+        <f>G5-H5</f>
         <v>6</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f>I5-K5-L5</f>
         <v>6</v>
       </c>
       <c r="K5"/>
@@ -51484,7 +51507,7 @@
         <v>8</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="2"/>
+        <f>N5-P5</f>
         <v>8</v>
       </c>
       <c r="P5"/>
@@ -51497,7 +51520,7 @@
       <c r="U5"/>
       <c r="V5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -51523,23 +51546,23 @@
         <v>50</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="0"/>
+        <f>G6-H6</f>
         <v>3</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f>I6-K6-L6</f>
         <v>3</v>
       </c>
       <c r="N6" s="1">
         <v>4</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="2"/>
+        <f>N6-P6</f>
         <v>4</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -51565,25 +51588,25 @@
         <v>20</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
+        <f>G7-H7</f>
         <v>3</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f>I7-K7-L7</f>
         <v>3</v>
       </c>
       <c r="N7" s="1">
         <v>8</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="2"/>
+        <f>N7-P7</f>
         <v>8</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -51609,11 +51632,11 @@
         <v>37</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
+        <f>G8-H8</f>
         <v>3</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f>I8-K8-L8</f>
         <v>3</v>
       </c>
       <c r="M8">
@@ -51623,7 +51646,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="2"/>
+        <f>N8-P8</f>
         <v>5</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -51631,7 +51654,7 @@
       </c>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -51657,11 +51680,11 @@
         <v>14</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
+        <f>G9-H9</f>
         <v>28</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f>I9-K9-L9</f>
         <v>6</v>
       </c>
       <c r="K9">
@@ -51671,14 +51694,14 @@
         <v>7</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="2"/>
+        <f>N9-P9</f>
         <v>7</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -51704,23 +51727,23 @@
         <v>13</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
+        <f>G10-H10</f>
         <v>6</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f>I10-K10-L10</f>
         <v>6</v>
       </c>
       <c r="N10" s="1">
         <v>4</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="2"/>
+        <f>N10-P10</f>
         <v>4</v>
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -51746,25 +51769,25 @@
         <v>50</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
+        <f>G11-H11</f>
         <v>3</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f>I11-K11-L11</f>
         <v>3</v>
       </c>
       <c r="N11" s="1">
         <v>8</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="2"/>
+        <f>N11-P11</f>
         <v>8</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -51790,11 +51813,11 @@
         <v>30</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="0"/>
+        <f>G12-H12</f>
         <v>13</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f>I12-K12-L12</f>
         <v>5</v>
       </c>
       <c r="K12">
@@ -51804,14 +51827,14 @@
         <v>6</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="2"/>
+        <f>N12-P12</f>
         <v>6</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -51837,23 +51860,23 @@
         <v>41</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
+        <f>G13-H13</f>
         <v>3</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f>I13-K13-L13</f>
         <v>3</v>
       </c>
       <c r="N13" s="1">
         <v>7</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="2"/>
+        <f>N13-P13</f>
         <v>7</v>
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -51879,23 +51902,23 @@
         <v>25</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="0"/>
+        <f>G14-H14</f>
         <v>6</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f>I14-K14-L14</f>
         <v>6</v>
       </c>
       <c r="N14" s="1">
         <v>4</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="2"/>
+        <f>N14-P14</f>
         <v>4</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -51921,23 +51944,23 @@
         <v>34</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="0"/>
+        <f>G15-H15</f>
         <v>4</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f>I15-K15-L15</f>
         <v>4</v>
       </c>
       <c r="N15" s="1">
         <v>4</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="2"/>
+        <f>N15-P15</f>
         <v>4</v>
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -51963,23 +51986,23 @@
         <v>15</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="0"/>
+        <f>G16-H16</f>
         <v>4</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f>I16-K16-L16</f>
         <v>4</v>
       </c>
       <c r="N16" s="1">
         <v>5</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="2"/>
+        <f>N16-P16</f>
         <v>5</v>
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -52005,23 +52028,23 @@
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="0"/>
+        <f>G17-H17</f>
         <v>6</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f>I17-K17-L17</f>
         <v>6</v>
       </c>
       <c r="N17" s="1">
         <v>4</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="2"/>
+        <f>N17-P17</f>
         <v>4</v>
       </c>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -52047,25 +52070,25 @@
         <v>15</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="0"/>
+        <f>G18-H18</f>
         <v>4</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f>I18-K18-L18</f>
         <v>4</v>
       </c>
       <c r="N18" s="1">
         <v>8</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="2"/>
+        <f>N18-P18</f>
         <v>8</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -52091,23 +52114,23 @@
         <v>13</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="0"/>
+        <f>G19-H19</f>
         <v>6</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f>I19-K19-L19</f>
         <v>6</v>
       </c>
       <c r="N19" s="1">
         <v>8</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="2"/>
+        <f>N19-P19</f>
         <v>8</v>
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -52133,25 +52156,25 @@
         <v>41</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="0"/>
+        <f>G20-H20</f>
         <v>6</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f>I20-K20-L20</f>
         <v>6</v>
       </c>
       <c r="N20" s="1">
         <v>8</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="2"/>
+        <f>N20-P20</f>
         <v>8</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -52177,23 +52200,23 @@
         <v>14</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="0"/>
+        <f>G21-H21</f>
         <v>5</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f>I21-K21-L21</f>
         <v>5</v>
       </c>
       <c r="N21" s="1">
         <v>8</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="2"/>
+        <f>N21-P21</f>
         <v>8</v>
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -52219,23 +52242,23 @@
         <v>4</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="0"/>
+        <f>G22-H22</f>
         <v>4</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f>I22-K22-L22</f>
         <v>4</v>
       </c>
       <c r="N22" s="1">
         <v>8</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="2"/>
+        <f>N22-P22</f>
         <v>8</v>
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -52261,18 +52284,18 @@
         <v>20</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="0"/>
+        <f>G23-H23</f>
         <v>6</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f>I23-K23-L23</f>
         <v>6</v>
       </c>
       <c r="N23" s="1">
         <v>6</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="2"/>
+        <f>N23-P23</f>
         <v>5</v>
       </c>
       <c r="P23">
@@ -52282,7 +52305,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -52308,25 +52331,25 @@
         <v>22</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="0"/>
+        <f>G24-H24</f>
         <v>5</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f>I24-K24-L24</f>
         <v>5</v>
       </c>
       <c r="N24" s="1">
         <v>3</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="2"/>
+        <f>N24-P24</f>
         <v>3</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -52352,23 +52375,23 @@
         <v>20</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="0"/>
+        <f>G25-H25</f>
         <v>3</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f>I25-K25-L25</f>
         <v>3</v>
       </c>
       <c r="N25" s="1">
         <v>4</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="2"/>
+        <f>N25-P25</f>
         <v>4</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -52394,23 +52417,23 @@
         <v>16</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="0"/>
+        <f>G26-H26</f>
         <v>3</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f>I26-K26-L26</f>
         <v>3</v>
       </c>
       <c r="N26" s="1">
         <v>4</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="2"/>
+        <f>N26-P26</f>
         <v>4</v>
       </c>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -52436,23 +52459,23 @@
         <v>13</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="0"/>
+        <f>G27-H27</f>
         <v>3</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f>I27-K27-L27</f>
         <v>3</v>
       </c>
       <c r="N27" s="1">
         <v>6</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="2"/>
+        <f>N27-P27</f>
         <v>6</v>
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -52478,23 +52501,23 @@
         <v>13</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="0"/>
+        <f>G28-H28</f>
         <v>6</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f>I28-K28-L28</f>
         <v>6</v>
       </c>
       <c r="N28" s="1">
         <v>7</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="2"/>
+        <f>N28-P28</f>
         <v>7</v>
       </c>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -52520,23 +52543,23 @@
         <v>14</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="0"/>
+        <f>G29-H29</f>
         <v>4</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f>I29-K29-L29</f>
         <v>4</v>
       </c>
       <c r="N29" s="1">
         <v>6</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="2"/>
+        <f>N29-P29</f>
         <v>6</v>
       </c>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -52562,25 +52585,25 @@
         <v>17</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="0"/>
+        <f>G30-H30</f>
         <v>6</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f>I30-K30-L30</f>
         <v>6</v>
       </c>
       <c r="N30" s="1">
         <v>5</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="2"/>
+        <f>N30-P30</f>
         <v>5</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -52606,25 +52629,25 @@
         <v>6</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="0"/>
+        <f>G31-H31</f>
         <v>6</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f>I31-K31-L31</f>
         <v>6</v>
       </c>
       <c r="N31" s="1">
         <v>8</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="2"/>
+        <f>N31-P31</f>
         <v>8</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -52650,11 +52673,11 @@
         <v>50</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="0"/>
+        <f>G32-H32</f>
         <v>4</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f>I32-K32-L32</f>
         <v>4</v>
       </c>
       <c r="M32">
@@ -52664,7 +52687,7 @@
         <v>6</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="2"/>
+        <f>N32-P32</f>
         <v>5</v>
       </c>
       <c r="P32">
@@ -52674,7 +52697,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -52700,25 +52723,25 @@
         <v>14</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="0"/>
+        <f>G33-H33</f>
         <v>4</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f>I33-K33-L33</f>
         <v>4</v>
       </c>
       <c r="N33" s="1">
         <v>6</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="2"/>
+        <f>N33-P33</f>
         <v>6</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -52744,23 +52767,23 @@
         <v>12</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="0"/>
+        <f>G34-H34</f>
         <v>3</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f>I34-K34-L34</f>
         <v>3</v>
       </c>
       <c r="N34" s="1">
         <v>8</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="2"/>
+        <f>N34-P34</f>
         <v>8</v>
       </c>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -52786,23 +52809,23 @@
         <v>13</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" ref="I35:I66" si="3">G35-H35</f>
+        <f>G35-H35</f>
         <v>4</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:J66" si="4">I35-K35-L35</f>
+        <f>I35-K35-L35</f>
         <v>4</v>
       </c>
       <c r="N35" s="1">
         <v>7</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" ref="O35:O66" si="5">N35-P35</f>
+        <f>N35-P35</f>
         <v>7</v>
       </c>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -52828,23 +52851,23 @@
         <v>13</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="3"/>
+        <f>G36-H36</f>
         <v>3</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
+        <f>I36-K36-L36</f>
         <v>3</v>
       </c>
       <c r="N36" s="1">
         <v>7</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="5"/>
+        <f>N36-P36</f>
         <v>7</v>
       </c>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -52870,11 +52893,11 @@
         <v>40</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="3"/>
+        <f>G37-H37</f>
         <v>11</v>
       </c>
       <c r="J37">
-        <f t="shared" si="4"/>
+        <f>I37-K37-L37</f>
         <v>3</v>
       </c>
       <c r="K37">
@@ -52884,14 +52907,14 @@
         <v>7</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="5"/>
+        <f>N37-P37</f>
         <v>7</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -52917,25 +52940,25 @@
         <v>13</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="3"/>
+        <f>G38-H38</f>
         <v>3</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
+        <f>I38-K38-L38</f>
         <v>3</v>
       </c>
       <c r="N38" s="1">
         <v>8</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="5"/>
+        <f>N38-P38</f>
         <v>8</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -52961,25 +52984,25 @@
         <v>14</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="3"/>
+        <f>G39-H39</f>
         <v>5</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
+        <f>I39-K39-L39</f>
         <v>5</v>
       </c>
       <c r="N39" s="1">
         <v>8</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="5"/>
+        <f>N39-P39</f>
         <v>8</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -53005,25 +53028,25 @@
         <v>40</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="3"/>
+        <f>G40-H40</f>
         <v>6</v>
       </c>
       <c r="J40">
-        <f t="shared" si="4"/>
+        <f>I40-K40-L40</f>
         <v>6</v>
       </c>
       <c r="N40" s="1">
         <v>8</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="5"/>
+        <f>N40-P40</f>
         <v>8</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -53049,23 +53072,23 @@
         <v>12</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="3"/>
+        <f>G41-H41</f>
         <v>5</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
+        <f>I41-K41-L41</f>
         <v>5</v>
       </c>
       <c r="N41" s="1">
         <v>6</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="5"/>
+        <f>N41-P41</f>
         <v>6</v>
       </c>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -53091,25 +53114,25 @@
         <v>30</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="3"/>
+        <f>G42-H42</f>
         <v>6</v>
       </c>
       <c r="J42">
-        <f t="shared" si="4"/>
+        <f>I42-K42-L42</f>
         <v>6</v>
       </c>
       <c r="N42" s="1">
         <v>6</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="5"/>
+        <f>N42-P42</f>
         <v>6</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -53135,25 +53158,25 @@
         <v>8</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="3"/>
+        <f>G43-H43</f>
         <v>4</v>
       </c>
       <c r="J43">
-        <f t="shared" si="4"/>
+        <f>I43-K43-L43</f>
         <v>4</v>
       </c>
       <c r="N43" s="1">
         <v>6</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="5"/>
+        <f>N43-P43</f>
         <v>6</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -53179,25 +53202,25 @@
         <v>30</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="3"/>
+        <f>G44-H44</f>
         <v>3</v>
       </c>
       <c r="J44">
-        <f t="shared" si="4"/>
+        <f>I44-K44-L44</f>
         <v>3</v>
       </c>
       <c r="N44" s="1">
         <v>6</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="5"/>
+        <f>N44-P44</f>
         <v>6</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -53223,23 +53246,23 @@
         <v>13</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="3"/>
+        <f>G45-H45</f>
         <v>3</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
+        <f>I45-K45-L45</f>
         <v>3</v>
       </c>
       <c r="N45" s="1">
         <v>8</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="5"/>
+        <f>N45-P45</f>
         <v>8</v>
       </c>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -53265,23 +53288,23 @@
         <v>70</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="3"/>
+        <f>G46-H46</f>
         <v>3</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
+        <f>I46-K46-L46</f>
         <v>3</v>
       </c>
       <c r="N46" s="1">
         <v>8</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="5"/>
+        <f>N46-P46</f>
         <v>8</v>
       </c>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -53307,25 +53330,25 @@
         <v>12</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="3"/>
+        <f>G47-H47</f>
         <v>5</v>
       </c>
       <c r="J47">
-        <f t="shared" si="4"/>
+        <f>I47-K47-L47</f>
         <v>5</v>
       </c>
       <c r="N47" s="1">
         <v>8</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="5"/>
+        <f>N47-P47</f>
         <v>8</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -53351,23 +53374,23 @@
         <v>19</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="3"/>
+        <f>G48-H48</f>
         <v>6</v>
       </c>
       <c r="J48">
-        <f t="shared" si="4"/>
+        <f>I48-K48-L48</f>
         <v>6</v>
       </c>
       <c r="N48" s="1">
         <v>7</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="5"/>
+        <f>N48-P48</f>
         <v>7</v>
       </c>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -53393,23 +53416,23 @@
         <v>24</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="3"/>
+        <f>G49-H49</f>
         <v>3</v>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
+        <f>I49-K49-L49</f>
         <v>3</v>
       </c>
       <c r="N49" s="1">
         <v>8</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="5"/>
+        <f>N49-P49</f>
         <v>8</v>
       </c>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -53435,23 +53458,23 @@
         <v>17</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="3"/>
+        <f>G50-H50</f>
         <v>4</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
+        <f>I50-K50-L50</f>
         <v>4</v>
       </c>
       <c r="N50" s="1">
         <v>7</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="5"/>
+        <f>N50-P50</f>
         <v>7</v>
       </c>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -53477,11 +53500,11 @@
         <v>40</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="3"/>
+        <f>G51-H51</f>
         <v>12</v>
       </c>
       <c r="J51">
-        <f t="shared" si="4"/>
+        <f>I51-K51-L51</f>
         <v>4</v>
       </c>
       <c r="K51">
@@ -53494,14 +53517,14 @@
         <v>5</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="5"/>
+        <f>N51-P51</f>
         <v>5</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -53527,25 +53550,25 @@
         <v>16</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="3"/>
+        <f>G52-H52</f>
         <v>6</v>
       </c>
       <c r="J52">
-        <f t="shared" si="4"/>
+        <f>I52-K52-L52</f>
         <v>6</v>
       </c>
       <c r="N52" s="1">
         <v>6</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="5"/>
+        <f>N52-P52</f>
         <v>6</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -53571,25 +53594,25 @@
         <v>13</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="3"/>
+        <f>G53-H53</f>
         <v>3</v>
       </c>
       <c r="J53">
-        <f t="shared" si="4"/>
+        <f>I53-K53-L53</f>
         <v>3</v>
       </c>
       <c r="N53" s="1">
         <v>9</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="5"/>
+        <f>N53-P53</f>
         <v>9</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -53615,23 +53638,23 @@
         <v>44</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="3"/>
+        <f>G54-H54</f>
         <v>5</v>
       </c>
       <c r="J54">
-        <f t="shared" si="4"/>
+        <f>I54-K54-L54</f>
         <v>5</v>
       </c>
       <c r="N54" s="1">
         <v>4</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="5"/>
+        <f>N54-P54</f>
         <v>4</v>
       </c>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -53657,25 +53680,25 @@
         <v>11</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="3"/>
+        <f>G55-H55</f>
         <v>4</v>
       </c>
       <c r="J55">
-        <f t="shared" si="4"/>
+        <f>I55-K55-L55</f>
         <v>4</v>
       </c>
       <c r="N55" s="1">
         <v>5</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="5"/>
+        <f>N55-P55</f>
         <v>5</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -53701,25 +53724,25 @@
         <v>40</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="3"/>
+        <f>G56-H56</f>
         <v>6</v>
       </c>
       <c r="J56">
-        <f t="shared" si="4"/>
+        <f>I56-K56-L56</f>
         <v>6</v>
       </c>
       <c r="N56" s="1">
         <v>8</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="5"/>
+        <f>N56-P56</f>
         <v>8</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -53745,25 +53768,25 @@
         <v>30</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="3"/>
+        <f>G57-H57</f>
         <v>5</v>
       </c>
       <c r="J57">
-        <f t="shared" si="4"/>
+        <f>I57-K57-L57</f>
         <v>5</v>
       </c>
       <c r="N57" s="1">
         <v>8</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="5"/>
+        <f>N57-P57</f>
         <v>8</v>
       </c>
       <c r="Q57" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>56</v>
       </c>
@@ -53789,23 +53812,23 @@
         <v>13</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="3"/>
+        <f>G58-H58</f>
         <v>5</v>
       </c>
       <c r="J58">
-        <f t="shared" si="4"/>
+        <f>I58-K58-L58</f>
         <v>5</v>
       </c>
       <c r="N58" s="1">
         <v>6</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="5"/>
+        <f>N58-P58</f>
         <v>6</v>
       </c>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -53831,25 +53854,25 @@
         <v>10</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="3"/>
+        <f>G59-H59</f>
         <v>5</v>
       </c>
       <c r="J59">
-        <f t="shared" si="4"/>
+        <f>I59-K59-L59</f>
         <v>5</v>
       </c>
       <c r="N59" s="1">
         <v>7</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="5"/>
+        <f>N59-P59</f>
         <v>7</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -53875,23 +53898,23 @@
         <v>12</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="3"/>
+        <f>G60-H60</f>
         <v>6</v>
       </c>
       <c r="J60">
-        <f t="shared" si="4"/>
+        <f>I60-K60-L60</f>
         <v>6</v>
       </c>
       <c r="N60" s="1">
         <v>7</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="5"/>
+        <f>N60-P60</f>
         <v>7</v>
       </c>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -53917,23 +53940,23 @@
         <v>40</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="3"/>
+        <f>G61-H61</f>
         <v>5</v>
       </c>
       <c r="J61">
-        <f t="shared" si="4"/>
+        <f>I61-K61-L61</f>
         <v>5</v>
       </c>
       <c r="N61" s="1">
         <v>4</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="5"/>
+        <f>N61-P61</f>
         <v>4</v>
       </c>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -53959,25 +53982,25 @@
         <v>10</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="3"/>
+        <f>G62-H62</f>
         <v>4</v>
       </c>
       <c r="J62">
-        <f t="shared" si="4"/>
+        <f>I62-K62-L62</f>
         <v>4</v>
       </c>
       <c r="N62" s="1">
         <v>9</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="5"/>
+        <f>N62-P62</f>
         <v>9</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -54003,23 +54026,23 @@
         <v>35</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="3"/>
+        <f>G63-H63</f>
         <v>3</v>
       </c>
       <c r="J63">
-        <f t="shared" si="4"/>
+        <f>I63-K63-L63</f>
         <v>3</v>
       </c>
       <c r="N63" s="1">
         <v>8</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="5"/>
+        <f>N63-P63</f>
         <v>8</v>
       </c>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>62</v>
       </c>
@@ -54045,23 +54068,23 @@
         <v>8</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="3"/>
+        <f>G64-H64</f>
         <v>6</v>
       </c>
       <c r="J64">
-        <f t="shared" si="4"/>
+        <f>I64-K64-L64</f>
         <v>6</v>
       </c>
       <c r="N64" s="1">
         <v>4</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="5"/>
+        <f>N64-P64</f>
         <v>4</v>
       </c>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -54087,23 +54110,23 @@
         <v>24</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="3"/>
+        <f>G65-H65</f>
         <v>5</v>
       </c>
       <c r="J65">
-        <f t="shared" si="4"/>
+        <f>I65-K65-L65</f>
         <v>5</v>
       </c>
       <c r="N65" s="1">
         <v>4</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="5"/>
+        <f>N65-P65</f>
         <v>4</v>
       </c>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>64</v>
       </c>
@@ -54129,11 +54152,11 @@
         <v>42</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="3"/>
+        <f>G66-H66</f>
         <v>6</v>
       </c>
       <c r="J66">
-        <f t="shared" si="4"/>
+        <f>I66-K66-L66</f>
         <v>6</v>
       </c>
       <c r="M66">
@@ -54143,12 +54166,12 @@
         <v>7</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="5"/>
+        <f>N66-P66</f>
         <v>7</v>
       </c>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -54174,25 +54197,25 @@
         <v>13</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" ref="I67:I98" si="6">G67-H67</f>
+        <f>G67-H67</f>
         <v>3</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J98" si="7">I67-K67-L67</f>
+        <f>I67-K67-L67</f>
         <v>3</v>
       </c>
       <c r="N67" s="1">
         <v>7</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" ref="O67:O98" si="8">N67-P67</f>
+        <f>N67-P67</f>
         <v>7</v>
       </c>
       <c r="Q67" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>66</v>
       </c>
@@ -54218,25 +54241,25 @@
         <v>12</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="6"/>
+        <f>G68-H68</f>
         <v>4</v>
       </c>
       <c r="J68">
-        <f t="shared" si="7"/>
+        <f>I68-K68-L68</f>
         <v>4</v>
       </c>
       <c r="N68" s="1">
         <v>7</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="8"/>
+        <f>N68-P68</f>
         <v>7</v>
       </c>
       <c r="Q68" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -54262,23 +54285,23 @@
         <v>15</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="6"/>
+        <f>G69-H69</f>
         <v>3</v>
       </c>
       <c r="J69">
-        <f t="shared" si="7"/>
+        <f>I69-K69-L69</f>
         <v>3</v>
       </c>
       <c r="N69" s="1">
         <v>7</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="8"/>
+        <f>N69-P69</f>
         <v>7</v>
       </c>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>68</v>
       </c>
@@ -54304,23 +54327,23 @@
         <v>55</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" si="6"/>
+        <f>G70-H70</f>
         <v>4</v>
       </c>
       <c r="J70">
-        <f t="shared" si="7"/>
+        <f>I70-K70-L70</f>
         <v>4</v>
       </c>
       <c r="N70" s="1">
         <v>5</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="8"/>
+        <f>N70-P70</f>
         <v>5</v>
       </c>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -54346,23 +54369,23 @@
         <v>19</v>
       </c>
       <c r="I71" s="1">
-        <f t="shared" si="6"/>
+        <f>G71-H71</f>
         <v>4</v>
       </c>
       <c r="J71">
-        <f t="shared" si="7"/>
+        <f>I71-K71-L71</f>
         <v>4</v>
       </c>
       <c r="N71" s="1">
         <v>4</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" si="8"/>
+        <f>N71-P71</f>
         <v>4</v>
       </c>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>70</v>
       </c>
@@ -54388,25 +54411,25 @@
         <v>15</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="6"/>
+        <f>G72-H72</f>
         <v>6</v>
       </c>
       <c r="J72">
-        <f t="shared" si="7"/>
+        <f>I72-K72-L72</f>
         <v>6</v>
       </c>
       <c r="N72" s="1">
         <v>7</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="8"/>
+        <f>N72-P72</f>
         <v>7</v>
       </c>
       <c r="Q72" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -54432,23 +54455,23 @@
         <v>14</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" si="6"/>
+        <f>G73-H73</f>
         <v>5</v>
       </c>
       <c r="J73">
-        <f t="shared" si="7"/>
+        <f>I73-K73-L73</f>
         <v>5</v>
       </c>
       <c r="N73" s="1">
         <v>7</v>
       </c>
       <c r="O73" s="1">
-        <f t="shared" si="8"/>
+        <f>N73-P73</f>
         <v>7</v>
       </c>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>72</v>
       </c>
@@ -54474,23 +54497,23 @@
         <v>42</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="6"/>
+        <f>G74-H74</f>
         <v>5</v>
       </c>
       <c r="J74">
-        <f t="shared" si="7"/>
+        <f>I74-K74-L74</f>
         <v>5</v>
       </c>
       <c r="N74" s="1">
         <v>7</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="8"/>
+        <f>N74-P74</f>
         <v>7</v>
       </c>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -54516,25 +54539,25 @@
         <v>50</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="6"/>
+        <f>G75-H75</f>
         <v>3</v>
       </c>
       <c r="J75">
-        <f t="shared" si="7"/>
+        <f>I75-K75-L75</f>
         <v>3</v>
       </c>
       <c r="N75" s="1">
         <v>7</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="8"/>
+        <f>N75-P75</f>
         <v>7</v>
       </c>
       <c r="Q75" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>74</v>
       </c>
@@ -54560,23 +54583,23 @@
         <v>15</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" si="6"/>
+        <f>G76-H76</f>
         <v>3</v>
       </c>
       <c r="J76">
-        <f t="shared" si="7"/>
+        <f>I76-K76-L76</f>
         <v>3</v>
       </c>
       <c r="N76" s="1">
         <v>5</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" si="8"/>
+        <f>N76-P76</f>
         <v>5</v>
       </c>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -54602,23 +54625,23 @@
         <v>50</v>
       </c>
       <c r="I77" s="1">
-        <f t="shared" si="6"/>
+        <f>G77-H77</f>
         <v>6</v>
       </c>
       <c r="J77">
-        <f t="shared" si="7"/>
+        <f>I77-K77-L77</f>
         <v>6</v>
       </c>
       <c r="N77" s="1">
         <v>7</v>
       </c>
       <c r="O77" s="1">
-        <f t="shared" si="8"/>
+        <f>N77-P77</f>
         <v>7</v>
       </c>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>76</v>
       </c>
@@ -54644,11 +54667,11 @@
         <v>43</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="6"/>
+        <f>G78-H78</f>
         <v>6</v>
       </c>
       <c r="J78">
-        <f t="shared" si="7"/>
+        <f>I78-K78-L78</f>
         <v>6</v>
       </c>
       <c r="M78">
@@ -54667,7 +54690,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -54693,23 +54716,23 @@
         <v>15</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="6"/>
+        <f>G79-H79</f>
         <v>5</v>
       </c>
       <c r="J79">
-        <f t="shared" si="7"/>
+        <f>I79-K79-L79</f>
         <v>5</v>
       </c>
       <c r="N79" s="1">
         <v>7</v>
       </c>
       <c r="O79" s="1">
-        <f t="shared" ref="O79:O110" si="9">N79-P79</f>
+        <f>N79-P79</f>
         <v>7</v>
       </c>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>78</v>
       </c>
@@ -54735,23 +54758,23 @@
         <v>12</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="6"/>
+        <f>G80-H80</f>
         <v>5</v>
       </c>
       <c r="J80">
-        <f t="shared" si="7"/>
+        <f>I80-K80-L80</f>
         <v>5</v>
       </c>
       <c r="N80" s="1">
         <v>7</v>
       </c>
       <c r="O80" s="1">
-        <f t="shared" si="9"/>
+        <f>N80-P80</f>
         <v>7</v>
       </c>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -54777,23 +54800,23 @@
         <v>17</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" si="6"/>
+        <f>G81-H81</f>
         <v>5</v>
       </c>
       <c r="J81">
-        <f t="shared" si="7"/>
+        <f>I81-K81-L81</f>
         <v>5</v>
       </c>
       <c r="N81" s="1">
         <v>7</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" si="9"/>
+        <f>N81-P81</f>
         <v>7</v>
       </c>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>80</v>
       </c>
@@ -54819,23 +54842,23 @@
         <v>30</v>
       </c>
       <c r="I82" s="1">
-        <f t="shared" si="6"/>
+        <f>G82-H82</f>
         <v>5</v>
       </c>
       <c r="J82">
-        <f t="shared" si="7"/>
+        <f>I82-K82-L82</f>
         <v>5</v>
       </c>
       <c r="N82" s="1">
         <v>7</v>
       </c>
       <c r="O82" s="1">
-        <f t="shared" si="9"/>
+        <f>N82-P82</f>
         <v>7</v>
       </c>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -54861,23 +54884,23 @@
         <v>12</v>
       </c>
       <c r="I83" s="1">
-        <f t="shared" si="6"/>
+        <f>G83-H83</f>
         <v>3</v>
       </c>
       <c r="J83">
-        <f t="shared" si="7"/>
+        <f>I83-K83-L83</f>
         <v>3</v>
       </c>
       <c r="N83" s="1">
         <v>6</v>
       </c>
       <c r="O83" s="1">
-        <f t="shared" si="9"/>
+        <f>N83-P83</f>
         <v>6</v>
       </c>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>82</v>
       </c>
@@ -54903,23 +54926,23 @@
         <v>7</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" si="6"/>
+        <f>G84-H84</f>
         <v>5</v>
       </c>
       <c r="J84">
-        <f t="shared" si="7"/>
+        <f>I84-K84-L84</f>
         <v>5</v>
       </c>
       <c r="N84" s="1">
         <v>8</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" si="9"/>
+        <f>N84-P84</f>
         <v>8</v>
       </c>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -54945,23 +54968,23 @@
         <v>6</v>
       </c>
       <c r="I85" s="1">
-        <f t="shared" si="6"/>
+        <f>G85-H85</f>
         <v>6</v>
       </c>
       <c r="J85">
-        <f t="shared" si="7"/>
+        <f>I85-K85-L85</f>
         <v>6</v>
       </c>
       <c r="N85" s="1">
         <v>5</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" si="9"/>
+        <f>N85-P85</f>
         <v>5</v>
       </c>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>84</v>
       </c>
@@ -54987,23 +55010,23 @@
         <v>50</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" si="6"/>
+        <f>G86-H86</f>
         <v>6</v>
       </c>
       <c r="J86">
-        <f t="shared" si="7"/>
+        <f>I86-K86-L86</f>
         <v>6</v>
       </c>
       <c r="N86" s="1">
         <v>8</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="9"/>
+        <f>N86-P86</f>
         <v>8</v>
       </c>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -55029,23 +55052,23 @@
         <v>17</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" si="6"/>
+        <f>G87-H87</f>
         <v>5</v>
       </c>
       <c r="J87">
-        <f t="shared" si="7"/>
+        <f>I87-K87-L87</f>
         <v>5</v>
       </c>
       <c r="N87" s="1">
         <v>6</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="9"/>
+        <f>N87-P87</f>
         <v>6</v>
       </c>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>86</v>
       </c>
@@ -55071,23 +55094,23 @@
         <v>7</v>
       </c>
       <c r="I88" s="1">
-        <f t="shared" si="6"/>
+        <f>G88-H88</f>
         <v>3</v>
       </c>
       <c r="J88">
-        <f t="shared" si="7"/>
+        <f>I88-K88-L88</f>
         <v>3</v>
       </c>
       <c r="N88" s="1">
         <v>6</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" si="9"/>
+        <f>N88-P88</f>
         <v>6</v>
       </c>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -55113,23 +55136,23 @@
         <v>16</v>
       </c>
       <c r="I89" s="1">
-        <f t="shared" si="6"/>
+        <f>G89-H89</f>
         <v>3</v>
       </c>
       <c r="J89">
-        <f t="shared" si="7"/>
+        <f>I89-K89-L89</f>
         <v>3</v>
       </c>
       <c r="N89" s="1">
         <v>4</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="9"/>
+        <f>N89-P89</f>
         <v>4</v>
       </c>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>88</v>
       </c>
@@ -55155,23 +55178,23 @@
         <v>19</v>
       </c>
       <c r="I90" s="1">
-        <f t="shared" si="6"/>
+        <f>G90-H90</f>
         <v>6</v>
       </c>
       <c r="J90">
-        <f t="shared" si="7"/>
+        <f>I90-K90-L90</f>
         <v>6</v>
       </c>
       <c r="N90" s="1">
         <v>5</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="9"/>
+        <f>N90-P90</f>
         <v>5</v>
       </c>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -55197,23 +55220,23 @@
         <v>10</v>
       </c>
       <c r="I91" s="1">
-        <f t="shared" si="6"/>
+        <f>G91-H91</f>
         <v>4</v>
       </c>
       <c r="J91">
-        <f t="shared" si="7"/>
+        <f>I91-K91-L91</f>
         <v>4</v>
       </c>
       <c r="N91" s="1">
         <v>7</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="9"/>
+        <f>N91-P91</f>
         <v>7</v>
       </c>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>90</v>
       </c>
@@ -55239,23 +55262,23 @@
         <v>13</v>
       </c>
       <c r="I92" s="1">
-        <f t="shared" si="6"/>
+        <f>G92-H92</f>
         <v>4</v>
       </c>
       <c r="J92">
-        <f t="shared" si="7"/>
+        <f>I92-K92-L92</f>
         <v>4</v>
       </c>
       <c r="N92" s="1">
         <v>6</v>
       </c>
       <c r="O92" s="1">
-        <f t="shared" si="9"/>
+        <f>N92-P92</f>
         <v>6</v>
       </c>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -55281,25 +55304,25 @@
         <v>14</v>
       </c>
       <c r="I93" s="1">
-        <f t="shared" si="6"/>
+        <f>G93-H93</f>
         <v>5</v>
       </c>
       <c r="J93">
-        <f t="shared" si="7"/>
+        <f>I93-K93-L93</f>
         <v>5</v>
       </c>
       <c r="N93" s="1">
         <v>7</v>
       </c>
       <c r="O93" s="1">
-        <f t="shared" si="9"/>
+        <f>N93-P93</f>
         <v>7</v>
       </c>
       <c r="Q93" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>92</v>
       </c>
@@ -55325,25 +55348,25 @@
         <v>13</v>
       </c>
       <c r="I94" s="1">
-        <f t="shared" si="6"/>
+        <f>G94-H94</f>
         <v>3</v>
       </c>
       <c r="J94">
-        <f t="shared" si="7"/>
+        <f>I94-K94-L94</f>
         <v>3</v>
       </c>
       <c r="N94" s="1">
         <v>7</v>
       </c>
       <c r="O94" s="1">
-        <f t="shared" si="9"/>
+        <f>N94-P94</f>
         <v>7</v>
       </c>
       <c r="Q94" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -55369,23 +55392,23 @@
         <v>30</v>
       </c>
       <c r="I95" s="1">
-        <f t="shared" si="6"/>
+        <f>G95-H95</f>
         <v>5</v>
       </c>
       <c r="J95">
-        <f t="shared" si="7"/>
+        <f>I95-K95-L95</f>
         <v>5</v>
       </c>
       <c r="N95" s="1">
         <v>5</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" si="9"/>
+        <f>N95-P95</f>
         <v>5</v>
       </c>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>94</v>
       </c>
@@ -55411,23 +55434,23 @@
         <v>40</v>
       </c>
       <c r="I96" s="1">
-        <f t="shared" si="6"/>
+        <f>G96-H96</f>
         <v>6</v>
       </c>
       <c r="J96">
-        <f t="shared" si="7"/>
+        <f>I96-K96-L96</f>
         <v>6</v>
       </c>
       <c r="N96" s="1">
         <v>4</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" si="9"/>
+        <f>N96-P96</f>
         <v>4</v>
       </c>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -55453,23 +55476,23 @@
         <v>32</v>
       </c>
       <c r="I97" s="1">
-        <f t="shared" si="6"/>
+        <f>G97-H97</f>
         <v>5</v>
       </c>
       <c r="J97">
-        <f t="shared" si="7"/>
+        <f>I97-K97-L97</f>
         <v>5</v>
       </c>
       <c r="N97" s="1">
         <v>7</v>
       </c>
       <c r="O97" s="1">
-        <f t="shared" si="9"/>
+        <f>N97-P97</f>
         <v>7</v>
       </c>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>96</v>
       </c>
@@ -55495,23 +55518,23 @@
         <v>2</v>
       </c>
       <c r="I98" s="1">
-        <f t="shared" si="6"/>
+        <f>G98-H98</f>
         <v>5</v>
       </c>
       <c r="J98">
-        <f t="shared" si="7"/>
+        <f>I98-K98-L98</f>
         <v>5</v>
       </c>
       <c r="N98" s="1">
         <v>7</v>
       </c>
       <c r="O98" s="1">
-        <f t="shared" si="9"/>
+        <f>N98-P98</f>
         <v>7</v>
       </c>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -55537,18 +55560,18 @@
         <v>40</v>
       </c>
       <c r="I99" s="1">
-        <f t="shared" ref="I99:I130" si="10">G99-H99</f>
+        <f>G99-H99</f>
         <v>5</v>
       </c>
       <c r="J99">
-        <f t="shared" ref="J99:J130" si="11">I99-K99-L99</f>
+        <f>I99-K99-L99</f>
         <v>5</v>
       </c>
       <c r="N99" s="1">
         <v>9</v>
       </c>
       <c r="O99" s="1">
-        <f t="shared" si="9"/>
+        <f>N99-P99</f>
         <v>9</v>
       </c>
       <c r="Q99" s="1" t="s">
@@ -55557,7 +55580,7 @@
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>98</v>
       </c>
@@ -55583,25 +55606,25 @@
         <v>18</v>
       </c>
       <c r="I100" s="1">
-        <f t="shared" si="10"/>
+        <f>G100-H100</f>
         <v>3</v>
       </c>
       <c r="J100">
-        <f t="shared" si="11"/>
+        <f>I100-K100-L100</f>
         <v>3</v>
       </c>
       <c r="N100" s="1">
         <v>7</v>
       </c>
       <c r="O100" s="1">
-        <f t="shared" si="9"/>
+        <f>N100-P100</f>
         <v>7</v>
       </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="5"/>
       <c r="S100" s="5"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -55627,25 +55650,25 @@
         <v>14</v>
       </c>
       <c r="I101" s="1">
-        <f t="shared" si="10"/>
+        <f>G101-H101</f>
         <v>5</v>
       </c>
       <c r="J101">
-        <f t="shared" si="11"/>
+        <f>I101-K101-L101</f>
         <v>5</v>
       </c>
       <c r="N101" s="1">
         <v>4</v>
       </c>
       <c r="O101" s="1">
-        <f t="shared" si="9"/>
+        <f>N101-P101</f>
         <v>4</v>
       </c>
       <c r="Q101" s="1"/>
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>100</v>
       </c>
@@ -55671,25 +55694,25 @@
         <v>13</v>
       </c>
       <c r="I102" s="1">
-        <f t="shared" si="10"/>
+        <f>G102-H102</f>
         <v>4</v>
       </c>
       <c r="J102">
-        <f t="shared" si="11"/>
+        <f>I102-K102-L102</f>
         <v>4</v>
       </c>
       <c r="N102" s="1">
         <v>4</v>
       </c>
       <c r="O102" s="1">
-        <f t="shared" si="9"/>
+        <f>N102-P102</f>
         <v>4</v>
       </c>
       <c r="Q102" s="1"/>
       <c r="R102" s="5"/>
       <c r="S102" s="5"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -55715,25 +55738,25 @@
         <v>32</v>
       </c>
       <c r="I103" s="1">
-        <f t="shared" si="10"/>
+        <f>G103-H103</f>
         <v>3</v>
       </c>
       <c r="J103">
-        <f t="shared" si="11"/>
+        <f>I103-K103-L103</f>
         <v>3</v>
       </c>
       <c r="N103" s="1">
         <v>5</v>
       </c>
       <c r="O103" s="1">
-        <f t="shared" si="9"/>
+        <f>N103-P103</f>
         <v>5</v>
       </c>
       <c r="Q103" s="1"/>
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -55759,22 +55782,22 @@
         <v>18</v>
       </c>
       <c r="I104" s="1">
-        <f t="shared" si="10"/>
+        <f>G104-H104</f>
         <v>4</v>
       </c>
       <c r="J104">
-        <f t="shared" si="11"/>
+        <f>I104-K104-L104</f>
         <v>4</v>
       </c>
       <c r="N104" s="1">
         <v>5</v>
       </c>
       <c r="O104" s="1">
-        <f t="shared" si="9"/>
+        <f>N104-P104</f>
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -55800,11 +55823,11 @@
         <v>20</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" si="10"/>
+        <f>G105-H105</f>
         <v>4</v>
       </c>
       <c r="J105">
-        <f t="shared" si="11"/>
+        <f>I105-K105-L105</f>
         <v>4</v>
       </c>
       <c r="K105"/>
@@ -55814,13 +55837,13 @@
         <v>7</v>
       </c>
       <c r="O105" s="1">
-        <f t="shared" si="9"/>
+        <f>N105-P105</f>
         <v>7</v>
       </c>
       <c r="P105"/>
       <c r="Q105"/>
     </row>
-    <row r="106" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -55846,11 +55869,11 @@
         <v>19</v>
       </c>
       <c r="I106" s="1">
-        <f t="shared" si="10"/>
+        <f>G106-H106</f>
         <v>5</v>
       </c>
       <c r="J106">
-        <f t="shared" si="11"/>
+        <f>I106-K106-L106</f>
         <v>5</v>
       </c>
       <c r="K106"/>
@@ -55860,13 +55883,13 @@
         <v>7</v>
       </c>
       <c r="O106" s="1">
-        <f t="shared" si="9"/>
+        <f>N106-P106</f>
         <v>7</v>
       </c>
       <c r="P106"/>
       <c r="Q106"/>
     </row>
-    <row r="107" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -55892,22 +55915,22 @@
         <v>17</v>
       </c>
       <c r="I107" s="1">
-        <f t="shared" si="10"/>
+        <f>G107-H107</f>
         <v>5</v>
       </c>
       <c r="J107">
-        <f t="shared" si="11"/>
+        <f>I107-K107-L107</f>
         <v>5</v>
       </c>
       <c r="N107" s="1">
         <v>5</v>
       </c>
       <c r="O107" s="1">
-        <f t="shared" si="9"/>
+        <f>N107-P107</f>
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -55933,11 +55956,11 @@
         <v>12</v>
       </c>
       <c r="I108" s="1">
-        <f t="shared" si="10"/>
+        <f>G108-H108</f>
         <v>3</v>
       </c>
       <c r="J108">
-        <f t="shared" si="11"/>
+        <f>I108-K108-L108</f>
         <v>3</v>
       </c>
       <c r="K108" s="1"/>
@@ -55947,13 +55970,13 @@
         <v>6</v>
       </c>
       <c r="O108" s="1">
-        <f t="shared" si="9"/>
+        <f>N108-P108</f>
         <v>6</v>
       </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -55979,11 +56002,11 @@
         <v>20</v>
       </c>
       <c r="I109" s="1">
-        <f t="shared" si="10"/>
+        <f>G109-H109</f>
         <v>6</v>
       </c>
       <c r="J109">
-        <f t="shared" si="11"/>
+        <f>I109-K109-L109</f>
         <v>6</v>
       </c>
       <c r="K109" s="1"/>
@@ -55993,13 +56016,13 @@
         <v>6</v>
       </c>
       <c r="O109" s="1">
-        <f t="shared" si="9"/>
+        <f>N109-P109</f>
         <v>6</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -56025,22 +56048,22 @@
         <v>10</v>
       </c>
       <c r="I110" s="1">
-        <f t="shared" si="10"/>
+        <f>G110-H110</f>
         <v>6</v>
       </c>
       <c r="J110">
-        <f t="shared" si="11"/>
+        <f>I110-K110-L110</f>
         <v>6</v>
       </c>
       <c r="N110" s="1">
         <v>6</v>
       </c>
       <c r="O110" s="1">
-        <f t="shared" si="9"/>
+        <f>N110-P110</f>
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -56066,22 +56089,22 @@
         <v>20</v>
       </c>
       <c r="I111" s="1">
-        <f t="shared" si="10"/>
+        <f>G111-H111</f>
         <v>4</v>
       </c>
       <c r="J111">
-        <f t="shared" si="11"/>
+        <f>I111-K111-L111</f>
         <v>4</v>
       </c>
       <c r="N111" s="1">
         <v>4</v>
       </c>
       <c r="O111" s="1">
-        <f t="shared" ref="O111:O142" si="12">N111-P111</f>
+        <f>N111-P111</f>
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -56107,22 +56130,22 @@
         <v>15</v>
       </c>
       <c r="I112" s="1">
-        <f t="shared" si="10"/>
+        <f>G112-H112</f>
         <v>6</v>
       </c>
       <c r="J112">
-        <f t="shared" si="11"/>
+        <f>I112-K112-L112</f>
         <v>6</v>
       </c>
       <c r="N112" s="1">
         <v>5</v>
       </c>
       <c r="O112" s="1">
-        <f t="shared" si="12"/>
+        <f>N112-P112</f>
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -56148,22 +56171,22 @@
         <v>15</v>
       </c>
       <c r="I113" s="1">
-        <f t="shared" si="10"/>
+        <f>G113-H113</f>
         <v>4</v>
       </c>
       <c r="J113">
-        <f t="shared" si="11"/>
+        <f>I113-K113-L113</f>
         <v>4</v>
       </c>
       <c r="N113" s="1">
         <v>7</v>
       </c>
       <c r="O113" s="1">
-        <f t="shared" si="12"/>
+        <f>N113-P113</f>
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -56189,22 +56212,22 @@
         <v>13</v>
       </c>
       <c r="I114" s="1">
-        <f t="shared" si="10"/>
+        <f>G114-H114</f>
         <v>6</v>
       </c>
       <c r="J114">
-        <f t="shared" si="11"/>
+        <f>I114-K114-L114</f>
         <v>6</v>
       </c>
       <c r="N114" s="1">
         <v>6</v>
       </c>
       <c r="O114" s="1">
-        <f t="shared" si="12"/>
+        <f>N114-P114</f>
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -56230,22 +56253,22 @@
         <v>24</v>
       </c>
       <c r="I115" s="1">
-        <f t="shared" si="10"/>
+        <f>G115-H115</f>
         <v>6</v>
       </c>
       <c r="J115">
-        <f t="shared" si="11"/>
+        <f>I115-K115-L115</f>
         <v>6</v>
       </c>
       <c r="N115" s="1">
         <v>6</v>
       </c>
       <c r="O115" s="1">
-        <f t="shared" si="12"/>
+        <f>N115-P115</f>
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -56271,22 +56294,22 @@
         <v>30</v>
       </c>
       <c r="I116" s="1">
-        <f t="shared" si="10"/>
+        <f>G116-H116</f>
         <v>6</v>
       </c>
       <c r="J116">
-        <f t="shared" si="11"/>
+        <f>I116-K116-L116</f>
         <v>6</v>
       </c>
       <c r="N116" s="1">
         <v>6</v>
       </c>
       <c r="O116" s="1">
-        <f t="shared" si="12"/>
+        <f>N116-P116</f>
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -56312,25 +56335,25 @@
         <v>60</v>
       </c>
       <c r="I117" s="1">
-        <f t="shared" si="10"/>
+        <f>G117-H117</f>
         <v>6</v>
       </c>
       <c r="J117">
-        <f t="shared" si="11"/>
+        <f>I117-K117-L117</f>
         <v>6</v>
       </c>
       <c r="N117">
         <v>5</v>
       </c>
       <c r="O117" s="1">
-        <f t="shared" si="12"/>
+        <f>N117-P117</f>
         <v>5</v>
       </c>
       <c r="Q117" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -56356,22 +56379,22 @@
         <v>53</v>
       </c>
       <c r="I118" s="1">
-        <f t="shared" si="10"/>
+        <f>G118-H118</f>
         <v>6</v>
       </c>
       <c r="J118">
-        <f t="shared" si="11"/>
+        <f>I118-K118-L118</f>
         <v>6</v>
       </c>
       <c r="N118" s="1">
         <v>5</v>
       </c>
       <c r="O118" s="1">
-        <f t="shared" si="12"/>
+        <f>N118-P118</f>
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -56397,25 +56420,25 @@
         <v>28</v>
       </c>
       <c r="I119" s="1">
-        <f t="shared" si="10"/>
+        <f>G119-H119</f>
         <v>3</v>
       </c>
       <c r="J119">
-        <f t="shared" si="11"/>
+        <f>I119-K119-L119</f>
         <v>3</v>
       </c>
       <c r="N119">
         <v>5</v>
       </c>
       <c r="O119" s="1">
-        <f t="shared" si="12"/>
+        <f>N119-P119</f>
         <v>5</v>
       </c>
       <c r="Q119" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -56441,22 +56464,22 @@
         <v>24</v>
       </c>
       <c r="I120" s="1">
-        <f t="shared" si="10"/>
+        <f>G120-H120</f>
         <v>5</v>
       </c>
       <c r="J120">
-        <f t="shared" si="11"/>
+        <f>I120-K120-L120</f>
         <v>5</v>
       </c>
       <c r="N120">
         <v>6</v>
       </c>
       <c r="O120" s="1">
-        <f t="shared" si="12"/>
+        <f>N120-P120</f>
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -56482,22 +56505,22 @@
         <v>17</v>
       </c>
       <c r="I121" s="1">
-        <f t="shared" si="10"/>
+        <f>G121-H121</f>
         <v>5</v>
       </c>
       <c r="J121">
-        <f t="shared" si="11"/>
+        <f>I121-K121-L121</f>
         <v>5</v>
       </c>
       <c r="N121">
         <v>5</v>
       </c>
       <c r="O121" s="1">
-        <f t="shared" si="12"/>
+        <f>N121-P121</f>
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -56523,25 +56546,25 @@
         <v>20</v>
       </c>
       <c r="I122" s="1">
-        <f t="shared" si="10"/>
+        <f>G122-H122</f>
         <v>5</v>
       </c>
       <c r="J122">
-        <f t="shared" si="11"/>
+        <f>I122-K122-L122</f>
         <v>5</v>
       </c>
       <c r="N122">
         <v>6</v>
       </c>
       <c r="O122" s="1">
-        <f t="shared" si="12"/>
+        <f>N122-P122</f>
         <v>6</v>
       </c>
       <c r="Q122" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -56567,22 +56590,22 @@
         <v>8</v>
       </c>
       <c r="I123" s="1">
-        <f t="shared" si="10"/>
+        <f>G123-H123</f>
         <v>3</v>
       </c>
       <c r="J123">
-        <f t="shared" si="11"/>
+        <f>I123-K123-L123</f>
         <v>3</v>
       </c>
       <c r="N123">
         <v>5</v>
       </c>
       <c r="O123" s="1">
-        <f t="shared" si="12"/>
+        <f>N123-P123</f>
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -56608,22 +56631,22 @@
         <v>20</v>
       </c>
       <c r="I124" s="1">
-        <f t="shared" si="10"/>
+        <f>G124-H124</f>
         <v>3</v>
       </c>
       <c r="J124">
-        <f t="shared" si="11"/>
+        <f>I124-K124-L124</f>
         <v>3</v>
       </c>
       <c r="N124" s="1">
         <v>5</v>
       </c>
       <c r="O124" s="1">
-        <f t="shared" si="12"/>
+        <f>N124-P124</f>
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -56649,22 +56672,22 @@
         <v>37</v>
       </c>
       <c r="I125" s="1">
-        <f t="shared" si="10"/>
+        <f>G125-H125</f>
         <v>3</v>
       </c>
       <c r="J125">
-        <f t="shared" si="11"/>
+        <f>I125-K125-L125</f>
         <v>3</v>
       </c>
       <c r="N125" s="1">
         <v>5</v>
       </c>
       <c r="O125" s="1">
-        <f t="shared" si="12"/>
+        <f>N125-P125</f>
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -56690,22 +56713,22 @@
         <v>18</v>
       </c>
       <c r="I126" s="1">
-        <f t="shared" si="10"/>
+        <f>G126-H126</f>
         <v>4</v>
       </c>
       <c r="J126">
-        <f t="shared" si="11"/>
+        <f>I126-K126-L126</f>
         <v>4</v>
       </c>
       <c r="N126" s="1">
         <v>5</v>
       </c>
       <c r="O126" s="1">
-        <f t="shared" si="12"/>
+        <f>N126-P126</f>
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -56731,22 +56754,22 @@
         <v>16</v>
       </c>
       <c r="I127" s="1">
-        <f t="shared" si="10"/>
+        <f>G127-H127</f>
         <v>5</v>
       </c>
       <c r="J127">
-        <f t="shared" si="11"/>
+        <f>I127-K127-L127</f>
         <v>5</v>
       </c>
       <c r="N127" s="1">
         <v>5</v>
       </c>
       <c r="O127" s="1">
-        <f t="shared" si="12"/>
+        <f>N127-P127</f>
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -56772,22 +56795,22 @@
         <v>18</v>
       </c>
       <c r="I128" s="1">
-        <f t="shared" si="10"/>
+        <f>G128-H128</f>
         <v>4</v>
       </c>
       <c r="J128">
-        <f t="shared" si="11"/>
+        <f>I128-K128-L128</f>
         <v>4</v>
       </c>
       <c r="N128" s="1">
         <v>5</v>
       </c>
       <c r="O128" s="1">
-        <f t="shared" si="12"/>
+        <f>N128-P128</f>
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -56813,22 +56836,22 @@
         <v>12</v>
       </c>
       <c r="I129" s="1">
-        <f t="shared" si="10"/>
+        <f>G129-H129</f>
         <v>5</v>
       </c>
       <c r="J129">
-        <f t="shared" si="11"/>
+        <f>I129-K129-L129</f>
         <v>5</v>
       </c>
       <c r="N129" s="1">
         <v>5</v>
       </c>
       <c r="O129" s="1">
-        <f t="shared" si="12"/>
+        <f>N129-P129</f>
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -56854,22 +56877,22 @@
         <v>17</v>
       </c>
       <c r="I130" s="1">
-        <f t="shared" si="10"/>
+        <f>G130-H130</f>
         <v>3</v>
       </c>
       <c r="J130">
-        <f t="shared" si="11"/>
+        <f>I130-K130-L130</f>
         <v>3</v>
       </c>
       <c r="N130" s="1">
         <v>5</v>
       </c>
       <c r="O130" s="1">
-        <f t="shared" si="12"/>
+        <f>N130-P130</f>
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -56895,22 +56918,22 @@
         <v>24</v>
       </c>
       <c r="I131" s="1">
-        <f t="shared" ref="I131:I162" si="13">G131-H131</f>
+        <f>G131-H131</f>
         <v>5</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J162" si="14">I131-K131-L131</f>
+        <f>I131-K131-L131</f>
         <v>5</v>
       </c>
       <c r="N131" s="1">
         <v>5</v>
       </c>
       <c r="O131" s="1">
-        <f t="shared" si="12"/>
+        <f>N131-P131</f>
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -56936,22 +56959,22 @@
         <v>17</v>
       </c>
       <c r="I132" s="1">
-        <f t="shared" si="13"/>
+        <f>G132-H132</f>
         <v>4</v>
       </c>
       <c r="J132">
-        <f t="shared" si="14"/>
+        <f>I132-K132-L132</f>
         <v>4</v>
       </c>
       <c r="N132" s="1">
         <v>5</v>
       </c>
       <c r="O132" s="1">
-        <f t="shared" si="12"/>
+        <f>N132-P132</f>
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -56977,22 +57000,22 @@
         <v>17</v>
       </c>
       <c r="I133" s="1">
-        <f t="shared" si="13"/>
+        <f>G133-H133</f>
         <v>3</v>
       </c>
       <c r="J133">
-        <f t="shared" si="14"/>
+        <f>I133-K133-L133</f>
         <v>3</v>
       </c>
       <c r="N133" s="1">
         <v>4</v>
       </c>
       <c r="O133" s="1">
-        <f t="shared" si="12"/>
+        <f>N133-P133</f>
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -57018,22 +57041,22 @@
         <v>24</v>
       </c>
       <c r="I134" s="1">
-        <f t="shared" si="13"/>
+        <f>G134-H134</f>
         <v>5</v>
       </c>
       <c r="J134">
-        <f t="shared" si="14"/>
+        <f>I134-K134-L134</f>
         <v>5</v>
       </c>
       <c r="N134" s="1">
         <v>5</v>
       </c>
       <c r="O134" s="1">
-        <f t="shared" si="12"/>
+        <f>N134-P134</f>
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -57059,22 +57082,22 @@
         <v>17</v>
       </c>
       <c r="I135" s="1">
-        <f t="shared" si="13"/>
+        <f>G135-H135</f>
         <v>3</v>
       </c>
       <c r="J135">
-        <f t="shared" si="14"/>
+        <f>I135-K135-L135</f>
         <v>3</v>
       </c>
       <c r="N135" s="1">
         <v>4</v>
       </c>
       <c r="O135" s="1">
-        <f t="shared" si="12"/>
+        <f>N135-P135</f>
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -57100,22 +57123,22 @@
         <v>22</v>
       </c>
       <c r="I136" s="1">
-        <f t="shared" si="13"/>
+        <f>G136-H136</f>
         <v>4</v>
       </c>
       <c r="J136">
-        <f t="shared" si="14"/>
+        <f>I136-K136-L136</f>
         <v>4</v>
       </c>
       <c r="N136" s="1">
         <v>5</v>
       </c>
       <c r="O136" s="1">
-        <f t="shared" si="12"/>
+        <f>N136-P136</f>
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -57141,22 +57164,22 @@
         <v>20</v>
       </c>
       <c r="I137" s="1">
-        <f t="shared" si="13"/>
+        <f>G137-H137</f>
         <v>3</v>
       </c>
       <c r="J137">
-        <f t="shared" si="14"/>
+        <f>I137-K137-L137</f>
         <v>3</v>
       </c>
       <c r="N137" s="1">
         <v>5</v>
       </c>
       <c r="O137" s="1">
-        <f t="shared" si="12"/>
+        <f>N137-P137</f>
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -57182,22 +57205,22 @@
         <v>37</v>
       </c>
       <c r="I138" s="1">
-        <f t="shared" si="13"/>
+        <f>G138-H138</f>
         <v>3</v>
       </c>
       <c r="J138">
-        <f t="shared" si="14"/>
+        <f>I138-K138-L138</f>
         <v>3</v>
       </c>
       <c r="N138" s="1">
         <v>5</v>
       </c>
       <c r="O138" s="1">
-        <f t="shared" si="12"/>
+        <f>N138-P138</f>
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -57223,22 +57246,22 @@
         <v>15</v>
       </c>
       <c r="I139" s="1">
-        <f t="shared" si="13"/>
+        <f>G139-H139</f>
         <v>5</v>
       </c>
       <c r="J139">
-        <f t="shared" si="14"/>
+        <f>I139-K139-L139</f>
         <v>5</v>
       </c>
       <c r="N139" s="1">
         <v>5</v>
       </c>
       <c r="O139" s="1">
-        <f t="shared" si="12"/>
+        <f>N139-P139</f>
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -57264,22 +57287,22 @@
         <v>15</v>
       </c>
       <c r="I140" s="1">
-        <f t="shared" si="13"/>
+        <f>G140-H140</f>
         <v>6</v>
       </c>
       <c r="J140">
-        <f t="shared" si="14"/>
+        <f>I140-K140-L140</f>
         <v>6</v>
       </c>
       <c r="N140" s="1">
         <v>5</v>
       </c>
       <c r="O140" s="1">
-        <f t="shared" si="12"/>
+        <f>N140-P140</f>
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -57305,22 +57328,22 @@
         <v>16</v>
       </c>
       <c r="I141" s="1">
-        <f t="shared" si="13"/>
+        <f>G141-H141</f>
         <v>4</v>
       </c>
       <c r="J141">
-        <f t="shared" si="14"/>
+        <f>I141-K141-L141</f>
         <v>4</v>
       </c>
       <c r="N141" s="1">
         <v>5</v>
       </c>
       <c r="O141" s="1">
-        <f t="shared" si="12"/>
+        <f>N141-P141</f>
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -57346,25 +57369,25 @@
         <v>10</v>
       </c>
       <c r="I142" s="1">
-        <f t="shared" si="13"/>
+        <f>G142-H142</f>
         <v>5</v>
       </c>
       <c r="J142">
-        <f t="shared" si="14"/>
+        <f>I142-K142-L142</f>
         <v>5</v>
       </c>
       <c r="N142">
         <v>6</v>
       </c>
       <c r="O142" s="1">
-        <f t="shared" si="12"/>
+        <f>N142-P142</f>
         <v>6</v>
       </c>
       <c r="Q142" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -57390,22 +57413,22 @@
         <v>17</v>
       </c>
       <c r="I143" s="1">
-        <f t="shared" si="13"/>
+        <f>G143-H143</f>
         <v>3</v>
       </c>
       <c r="J143">
-        <f t="shared" si="14"/>
+        <f>I143-K143-L143</f>
         <v>3</v>
       </c>
       <c r="N143">
         <v>5</v>
       </c>
       <c r="O143" s="1">
-        <f t="shared" ref="O143:O174" si="15">N143-P143</f>
+        <f>N143-P143</f>
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -57431,22 +57454,22 @@
         <v>18</v>
       </c>
       <c r="I144" s="1">
-        <f t="shared" si="13"/>
+        <f>G144-H144</f>
         <v>4</v>
       </c>
       <c r="J144">
-        <f t="shared" si="14"/>
+        <f>I144-K144-L144</f>
         <v>4</v>
       </c>
       <c r="N144" s="1">
         <v>5</v>
       </c>
       <c r="O144" s="1">
-        <f t="shared" si="15"/>
+        <f>N144-P144</f>
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -57472,22 +57495,22 @@
         <v>14</v>
       </c>
       <c r="I145" s="1">
-        <f t="shared" si="13"/>
+        <f>G145-H145</f>
         <v>6</v>
       </c>
       <c r="J145">
-        <f t="shared" si="14"/>
+        <f>I145-K145-L145</f>
         <v>6</v>
       </c>
       <c r="N145" s="1">
         <v>6</v>
       </c>
       <c r="O145" s="1">
-        <f t="shared" si="15"/>
+        <f>N145-P145</f>
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -57513,22 +57536,22 @@
         <v>17</v>
       </c>
       <c r="I146" s="1">
-        <f t="shared" si="13"/>
+        <f>G146-H146</f>
         <v>5</v>
       </c>
       <c r="J146">
-        <f t="shared" si="14"/>
+        <f>I146-K146-L146</f>
         <v>5</v>
       </c>
       <c r="N146" s="1">
         <v>5</v>
       </c>
       <c r="O146" s="1">
-        <f t="shared" si="15"/>
+        <f>N146-P146</f>
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -57554,22 +57577,22 @@
         <v>15</v>
       </c>
       <c r="I147" s="1">
-        <f t="shared" si="13"/>
+        <f>G147-H147</f>
         <v>5</v>
       </c>
       <c r="J147">
-        <f t="shared" si="14"/>
+        <f>I147-K147-L147</f>
         <v>5</v>
       </c>
       <c r="N147" s="1">
         <v>5</v>
       </c>
       <c r="O147" s="1">
-        <f t="shared" si="15"/>
+        <f>N147-P147</f>
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -57595,22 +57618,22 @@
         <v>30</v>
       </c>
       <c r="I148" s="1">
-        <f t="shared" si="13"/>
+        <f>G148-H148</f>
         <v>4</v>
       </c>
       <c r="J148">
-        <f t="shared" si="14"/>
+        <f>I148-K148-L148</f>
         <v>4</v>
       </c>
       <c r="N148" s="1">
         <v>6</v>
       </c>
       <c r="O148" s="1">
-        <f t="shared" si="15"/>
+        <f>N148-P148</f>
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -57636,22 +57659,22 @@
         <v>40</v>
       </c>
       <c r="I149" s="1">
-        <f t="shared" si="13"/>
+        <f>G149-H149</f>
         <v>6</v>
       </c>
       <c r="J149">
-        <f t="shared" si="14"/>
+        <f>I149-K149-L149</f>
         <v>6</v>
       </c>
       <c r="N149">
         <v>5</v>
       </c>
       <c r="O149" s="1">
-        <f t="shared" si="15"/>
+        <f>N149-P149</f>
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -57677,22 +57700,22 @@
         <v>12</v>
       </c>
       <c r="I150" s="1">
-        <f t="shared" si="13"/>
+        <f>G150-H150</f>
         <v>3</v>
       </c>
       <c r="J150">
-        <f t="shared" si="14"/>
+        <f>I150-K150-L150</f>
         <v>3</v>
       </c>
       <c r="N150">
         <v>5</v>
       </c>
       <c r="O150" s="1">
-        <f t="shared" si="15"/>
+        <f>N150-P150</f>
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -57718,22 +57741,22 @@
         <v>12</v>
       </c>
       <c r="I151" s="1">
-        <f t="shared" si="13"/>
+        <f>G151-H151</f>
         <v>6</v>
       </c>
       <c r="J151">
-        <f t="shared" si="14"/>
+        <f>I151-K151-L151</f>
         <v>6</v>
       </c>
       <c r="N151" s="1">
         <v>5</v>
       </c>
       <c r="O151" s="1">
-        <f t="shared" si="15"/>
+        <f>N151-P151</f>
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -57759,22 +57782,22 @@
         <v>10</v>
       </c>
       <c r="I152" s="1">
-        <f t="shared" si="13"/>
+        <f>G152-H152</f>
         <v>5</v>
       </c>
       <c r="J152">
-        <f t="shared" si="14"/>
+        <f>I152-K152-L152</f>
         <v>5</v>
       </c>
       <c r="N152" s="1">
         <v>6</v>
       </c>
       <c r="O152" s="1">
-        <f t="shared" si="15"/>
+        <f>N152-P152</f>
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -57800,22 +57823,22 @@
         <v>14</v>
       </c>
       <c r="I153" s="1">
-        <f t="shared" si="13"/>
+        <f>G153-H153</f>
         <v>6</v>
       </c>
       <c r="J153">
-        <f t="shared" si="14"/>
+        <f>I153-K153-L153</f>
         <v>6</v>
       </c>
       <c r="N153" s="1">
         <v>5</v>
       </c>
       <c r="O153" s="1">
-        <f t="shared" si="15"/>
+        <f>N153-P153</f>
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -57841,22 +57864,22 @@
         <v>10</v>
       </c>
       <c r="I154" s="1">
-        <f t="shared" si="13"/>
+        <f>G154-H154</f>
         <v>6</v>
       </c>
       <c r="J154">
-        <f t="shared" si="14"/>
+        <f>I154-K154-L154</f>
         <v>6</v>
       </c>
       <c r="N154" s="1">
         <v>6</v>
       </c>
       <c r="O154" s="1">
-        <f t="shared" si="15"/>
+        <f>N154-P154</f>
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -57882,22 +57905,22 @@
         <v>8</v>
       </c>
       <c r="I155" s="1">
-        <f t="shared" si="13"/>
+        <f>G155-H155</f>
         <v>3</v>
       </c>
       <c r="J155">
-        <f t="shared" si="14"/>
+        <f>I155-K155-L155</f>
         <v>3</v>
       </c>
       <c r="N155" s="1">
         <v>5</v>
       </c>
       <c r="O155" s="1">
-        <f t="shared" si="15"/>
+        <f>N155-P155</f>
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -57923,22 +57946,22 @@
         <v>18</v>
       </c>
       <c r="I156" s="1">
-        <f t="shared" si="13"/>
+        <f>G156-H156</f>
         <v>6</v>
       </c>
       <c r="J156">
-        <f t="shared" si="14"/>
+        <f>I156-K156-L156</f>
         <v>6</v>
       </c>
       <c r="N156" s="1">
         <v>6</v>
       </c>
       <c r="O156" s="1">
-        <f t="shared" si="15"/>
+        <f>N156-P156</f>
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -57964,22 +57987,22 @@
         <v>12</v>
       </c>
       <c r="I157" s="1">
-        <f t="shared" si="13"/>
+        <f>G157-H157</f>
         <v>5</v>
       </c>
       <c r="J157">
-        <f t="shared" si="14"/>
+        <f>I157-K157-L157</f>
         <v>5</v>
       </c>
       <c r="N157" s="1">
         <v>5</v>
       </c>
       <c r="O157" s="1">
-        <f t="shared" si="15"/>
+        <f>N157-P157</f>
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -58005,22 +58028,22 @@
         <v>20</v>
       </c>
       <c r="I158" s="1">
-        <f t="shared" si="13"/>
+        <f>G158-H158</f>
         <v>5</v>
       </c>
       <c r="J158">
-        <f t="shared" si="14"/>
+        <f>I158-K158-L158</f>
         <v>5</v>
       </c>
       <c r="N158" s="1">
         <v>5</v>
       </c>
       <c r="O158" s="1">
-        <f t="shared" si="15"/>
+        <f>N158-P158</f>
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -58046,22 +58069,22 @@
         <v>13</v>
       </c>
       <c r="I159" s="1">
-        <f t="shared" si="13"/>
+        <f>G159-H159</f>
         <v>4</v>
       </c>
       <c r="J159">
-        <f t="shared" si="14"/>
+        <f>I159-K159-L159</f>
         <v>4</v>
       </c>
       <c r="N159" s="1">
         <v>6</v>
       </c>
       <c r="O159" s="1">
-        <f t="shared" si="15"/>
+        <f>N159-P159</f>
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -58087,22 +58110,22 @@
         <v>12</v>
       </c>
       <c r="I160" s="1">
-        <f t="shared" si="13"/>
+        <f>G160-H160</f>
         <v>5</v>
       </c>
       <c r="J160">
-        <f t="shared" si="14"/>
+        <f>I160-K160-L160</f>
         <v>5</v>
       </c>
       <c r="N160" s="1">
         <v>6</v>
       </c>
       <c r="O160" s="1">
-        <f t="shared" si="15"/>
+        <f>N160-P160</f>
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -58128,22 +58151,22 @@
         <v>12</v>
       </c>
       <c r="I161" s="1">
-        <f t="shared" si="13"/>
+        <f>G161-H161</f>
         <v>6</v>
       </c>
       <c r="J161">
-        <f t="shared" si="14"/>
+        <f>I161-K161-L161</f>
         <v>6</v>
       </c>
       <c r="N161" s="1">
         <v>5</v>
       </c>
       <c r="O161" s="1">
-        <f t="shared" si="15"/>
+        <f>N161-P161</f>
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -58169,22 +58192,22 @@
         <v>12</v>
       </c>
       <c r="I162" s="1">
-        <f t="shared" si="13"/>
+        <f>G162-H162</f>
         <v>4</v>
       </c>
       <c r="J162">
-        <f t="shared" si="14"/>
+        <f>I162-K162-L162</f>
         <v>4</v>
       </c>
       <c r="N162" s="1">
         <v>5</v>
       </c>
       <c r="O162" s="1">
-        <f t="shared" si="15"/>
+        <f>N162-P162</f>
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -58210,22 +58233,22 @@
         <v>13</v>
       </c>
       <c r="I163" s="1">
-        <f t="shared" ref="I163:I194" si="16">G163-H163</f>
+        <f>G163-H163</f>
         <v>4</v>
       </c>
       <c r="J163">
-        <f t="shared" ref="J163:J194" si="17">I163-K163-L163</f>
+        <f>I163-K163-L163</f>
         <v>4</v>
       </c>
       <c r="N163" s="1">
         <v>6</v>
       </c>
       <c r="O163" s="1">
-        <f t="shared" si="15"/>
+        <f>N163-P163</f>
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -58251,22 +58274,22 @@
         <v>13</v>
       </c>
       <c r="I164" s="1">
-        <f t="shared" si="16"/>
+        <f>G164-H164</f>
         <v>4</v>
       </c>
       <c r="J164">
-        <f t="shared" si="17"/>
+        <f>I164-K164-L164</f>
         <v>4</v>
       </c>
       <c r="N164" s="1">
         <v>5</v>
       </c>
       <c r="O164" s="1">
-        <f t="shared" si="15"/>
+        <f>N164-P164</f>
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -58292,22 +58315,22 @@
         <v>20</v>
       </c>
       <c r="I165" s="1">
-        <f t="shared" si="16"/>
+        <f>G165-H165</f>
         <v>5</v>
       </c>
       <c r="J165">
-        <f t="shared" si="17"/>
+        <f>I165-K165-L165</f>
         <v>5</v>
       </c>
       <c r="N165" s="1">
         <v>8</v>
       </c>
       <c r="O165" s="1">
-        <f t="shared" si="15"/>
+        <f>N165-P165</f>
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -58333,22 +58356,22 @@
         <v>10</v>
       </c>
       <c r="I166" s="1">
-        <f t="shared" si="16"/>
+        <f>G166-H166</f>
         <v>4</v>
       </c>
       <c r="J166">
-        <f t="shared" si="17"/>
+        <f>I166-K166-L166</f>
         <v>4</v>
       </c>
       <c r="N166" s="1">
         <v>5</v>
       </c>
       <c r="O166" s="1">
-        <f t="shared" si="15"/>
+        <f>N166-P166</f>
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -58374,22 +58397,22 @@
         <v>40</v>
       </c>
       <c r="I167" s="1">
-        <f t="shared" si="16"/>
+        <f>G167-H167</f>
         <v>3</v>
       </c>
       <c r="J167">
-        <f t="shared" si="17"/>
+        <f>I167-K167-L167</f>
         <v>3</v>
       </c>
       <c r="N167" s="1">
         <v>4</v>
       </c>
       <c r="O167" s="1">
-        <f t="shared" si="15"/>
+        <f>N167-P167</f>
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -58415,22 +58438,22 @@
         <v>11</v>
       </c>
       <c r="I168" s="1">
-        <f t="shared" si="16"/>
+        <f>G168-H168</f>
         <v>4</v>
       </c>
       <c r="J168">
-        <f t="shared" si="17"/>
+        <f>I168-K168-L168</f>
         <v>4</v>
       </c>
       <c r="N168" s="1">
         <v>5</v>
       </c>
       <c r="O168" s="1">
-        <f t="shared" si="15"/>
+        <f>N168-P168</f>
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -58456,22 +58479,22 @@
         <v>11</v>
       </c>
       <c r="I169" s="1">
-        <f t="shared" si="16"/>
+        <f>G169-H169</f>
         <v>4</v>
       </c>
       <c r="J169">
-        <f t="shared" si="17"/>
+        <f>I169-K169-L169</f>
         <v>4</v>
       </c>
       <c r="N169">
         <v>7</v>
       </c>
       <c r="O169" s="1">
-        <f t="shared" si="15"/>
+        <f>N169-P169</f>
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -58497,22 +58520,22 @@
         <v>30</v>
       </c>
       <c r="I170" s="1">
-        <f t="shared" si="16"/>
+        <f>G170-H170</f>
         <v>6</v>
       </c>
       <c r="J170">
-        <f t="shared" si="17"/>
+        <f>I170-K170-L170</f>
         <v>6</v>
       </c>
       <c r="N170">
         <v>4</v>
       </c>
       <c r="O170" s="1">
-        <f t="shared" si="15"/>
+        <f>N170-P170</f>
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -58538,22 +58561,22 @@
         <v>20</v>
       </c>
       <c r="I171" s="1">
-        <f t="shared" si="16"/>
+        <f>G171-H171</f>
         <v>3</v>
       </c>
       <c r="J171">
-        <f t="shared" si="17"/>
+        <f>I171-K171-L171</f>
         <v>3</v>
       </c>
       <c r="N171">
         <v>5</v>
       </c>
       <c r="O171" s="1">
-        <f t="shared" si="15"/>
+        <f>N171-P171</f>
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -58579,29 +58602,29 @@
         <v>20</v>
       </c>
       <c r="I172" s="1">
-        <f t="shared" si="16"/>
+        <f>G172-H172</f>
         <v>5</v>
       </c>
       <c r="J172">
-        <f t="shared" si="17"/>
+        <f>I172-K172-L172</f>
         <v>5</v>
       </c>
       <c r="N172">
         <v>5</v>
       </c>
       <c r="O172" s="1">
-        <f t="shared" si="15"/>
+        <f>N172-P172</f>
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" s="5">
         <v>43722</v>
       </c>
-      <c r="C173" s="10">
+      <c r="C173" s="1">
         <v>77080</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -58620,23 +58643,300 @@
         <v>22</v>
       </c>
       <c r="I173" s="1">
-        <f t="shared" si="16"/>
+        <f>G173-H173</f>
         <v>6</v>
       </c>
       <c r="J173">
-        <f t="shared" si="17"/>
+        <f>I173-K173-L173</f>
         <v>6</v>
       </c>
       <c r="N173">
         <v>5</v>
       </c>
       <c r="O173" s="1">
-        <f t="shared" si="15"/>
+        <f>N173-P173</f>
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E174" s="1"/>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="5">
+        <v>43846</v>
+      </c>
+      <c r="C174" s="1">
+        <v>81189</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G174" s="1">
+        <v>17</v>
+      </c>
+      <c r="H174" s="1">
+        <v>14</v>
+      </c>
+      <c r="I174" s="1">
+        <v>3</v>
+      </c>
+      <c r="J174">
+        <f>I174-K174-L174</f>
+        <v>3</v>
+      </c>
+      <c r="N174">
+        <v>5</v>
+      </c>
+      <c r="O174" s="1">
+        <f>N174-P174</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="5">
+        <v>43846</v>
+      </c>
+      <c r="C175" s="1">
+        <v>72960</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G175" s="1">
+        <v>36</v>
+      </c>
+      <c r="H175" s="1">
+        <v>30</v>
+      </c>
+      <c r="I175" s="1">
+        <v>6</v>
+      </c>
+      <c r="J175">
+        <f>I175-K175-L175</f>
+        <v>6</v>
+      </c>
+      <c r="N175">
+        <v>8</v>
+      </c>
+      <c r="O175" s="1">
+        <f>N175-P175</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="5">
+        <v>43846</v>
+      </c>
+      <c r="C176" s="1">
+        <v>81157</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G176" s="1">
+        <v>16</v>
+      </c>
+      <c r="H176" s="1">
+        <v>12</v>
+      </c>
+      <c r="I176" s="1">
+        <v>4</v>
+      </c>
+      <c r="J176">
+        <f>I176-K176-L176</f>
+        <v>4</v>
+      </c>
+      <c r="N176">
+        <v>6</v>
+      </c>
+      <c r="O176" s="1">
+        <f>N176-P176</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="5">
+        <v>43846</v>
+      </c>
+      <c r="C177" s="1">
+        <v>82487</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" s="1">
+        <v>21</v>
+      </c>
+      <c r="H177" s="1">
+        <v>17</v>
+      </c>
+      <c r="I177" s="1">
+        <v>4</v>
+      </c>
+      <c r="J177">
+        <f>I177-K177-L177</f>
+        <v>4</v>
+      </c>
+      <c r="N177">
+        <v>4</v>
+      </c>
+      <c r="O177" s="1">
+        <f>N177-P177</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="5">
+        <v>43846</v>
+      </c>
+      <c r="C178" s="1">
+        <v>81134</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" s="1">
+        <v>18</v>
+      </c>
+      <c r="H178" s="1">
+        <v>12</v>
+      </c>
+      <c r="I178" s="1">
+        <v>6</v>
+      </c>
+      <c r="J178">
+        <f>I178-K178-L178</f>
+        <v>6</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+      <c r="O178" s="1">
+        <f>N178-P178</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="5">
+        <v>43846</v>
+      </c>
+      <c r="C179" s="1">
+        <v>81201</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G179" s="1">
+        <v>14</v>
+      </c>
+      <c r="H179" s="1">
+        <v>9</v>
+      </c>
+      <c r="I179" s="1">
+        <v>5</v>
+      </c>
+      <c r="J179">
+        <f>I179-K179-L179</f>
+        <v>5</v>
+      </c>
+      <c r="N179">
+        <v>4</v>
+      </c>
+      <c r="O179" s="1">
+        <f>N179-P179</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="5">
+        <v>43846</v>
+      </c>
+      <c r="C180" s="1">
+        <v>256</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G180" s="1">
+        <v>36</v>
+      </c>
+      <c r="H180" s="1">
+        <v>30</v>
+      </c>
+      <c r="I180" s="1">
+        <v>6</v>
+      </c>
+      <c r="J180">
+        <f>I180-K180-L180</f>
+        <v>6</v>
+      </c>
+      <c r="N180">
+        <v>6</v>
+      </c>
+      <c r="O180" s="1">
+        <f>N180-P180</f>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:Q172">
@@ -58644,8 +58944,8 @@
       <sortCondition ref="A2:A172"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A3:Q159">
-    <sortCondition ref="A139"/>
+  <sortState ref="A3:U179">
+    <sortCondition ref="A160"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
@@ -58676,21 +58976,21 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="6">
         <f>COUNTA(列表!$C:$C)-1</f>
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>119</v>
       </c>
